--- a/Mendota/Lake_Mendota.xlsx
+++ b/Mendota/Lake_Mendota.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -413,13 +413,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K890"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A817" workbookViewId="0">
-      <selection activeCell="K829" sqref="K829"/>
+    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -465,6 +466,9 @@
       <c r="A2" s="1">
         <v>41116</v>
       </c>
+      <c r="B2">
+        <v>505000000</v>
+      </c>
       <c r="C2">
         <v>3.3158972799999997</v>
       </c>
@@ -491,6 +495,9 @@
       <c r="A3" s="1">
         <v>41117</v>
       </c>
+      <c r="B3">
+        <v>505000000</v>
+      </c>
       <c r="C3">
         <v>2.2823340799999996</v>
       </c>
@@ -511,6 +518,9 @@
       <c r="A4" s="1">
         <v>41118</v>
       </c>
+      <c r="B4">
+        <v>505000000</v>
+      </c>
       <c r="C4">
         <v>1.4781369600000001</v>
       </c>
@@ -531,6 +541,9 @@
       <c r="A5" s="1">
         <v>41119</v>
       </c>
+      <c r="B5">
+        <v>505000000</v>
+      </c>
       <c r="C5">
         <v>1.6678595199999999</v>
       </c>
@@ -551,6 +564,9 @@
       <c r="A6" s="1">
         <v>41120</v>
       </c>
+      <c r="B6">
+        <v>505000000</v>
+      </c>
       <c r="C6">
         <v>1.39884992</v>
       </c>
@@ -571,6 +587,9 @@
       <c r="A7" s="1">
         <v>41121</v>
       </c>
+      <c r="B7">
+        <v>505000000</v>
+      </c>
       <c r="C7">
         <v>1.7414832</v>
       </c>
@@ -591,6 +610,9 @@
       <c r="A8" s="1">
         <v>41122</v>
       </c>
+      <c r="B8">
+        <v>505000000</v>
+      </c>
       <c r="C8">
         <v>1.42150336</v>
       </c>
@@ -611,6 +633,9 @@
       <c r="A9" s="1">
         <v>41123</v>
       </c>
+      <c r="B9">
+        <v>505000000</v>
+      </c>
       <c r="C9">
         <v>1.63671104</v>
       </c>
@@ -631,6 +656,9 @@
       <c r="A10" s="1">
         <v>41124</v>
       </c>
+      <c r="B10">
+        <v>505000000</v>
+      </c>
       <c r="C10">
         <v>1.43283008</v>
       </c>
@@ -651,6 +679,9 @@
       <c r="A11" s="1">
         <v>41125</v>
       </c>
+      <c r="B11">
+        <v>505000000</v>
+      </c>
       <c r="C11">
         <v>1.43283008</v>
       </c>
@@ -671,6 +702,9 @@
       <c r="A12" s="1">
         <v>41126</v>
       </c>
+      <c r="B12">
+        <v>505000000</v>
+      </c>
       <c r="C12">
         <v>1.6055625600000001</v>
       </c>
@@ -691,6 +725,9 @@
       <c r="A13" s="1">
         <v>41127</v>
       </c>
+      <c r="B13">
+        <v>505000000</v>
+      </c>
       <c r="C13">
         <v>1.41017664</v>
       </c>
@@ -717,6 +754,9 @@
       <c r="A14" s="1">
         <v>41128</v>
       </c>
+      <c r="B14">
+        <v>505000000</v>
+      </c>
       <c r="C14">
         <v>1.4583151999999999</v>
       </c>
@@ -737,6 +777,9 @@
       <c r="A15" s="1">
         <v>41129</v>
       </c>
+      <c r="B15">
+        <v>505000000</v>
+      </c>
       <c r="C15">
         <v>1.3846915199999998</v>
       </c>
@@ -757,6 +800,9 @@
       <c r="A16" s="1">
         <v>41130</v>
       </c>
+      <c r="B16">
+        <v>505000000</v>
+      </c>
       <c r="C16">
         <v>1.7216614399999999</v>
       </c>
@@ -777,6 +823,9 @@
       <c r="A17" s="1">
         <v>41131</v>
       </c>
+      <c r="B17">
+        <v>505000000</v>
+      </c>
       <c r="C17">
         <v>1.3705331199999999</v>
       </c>
@@ -797,6 +846,9 @@
       <c r="A18" s="1">
         <v>41132</v>
       </c>
+      <c r="B18">
+        <v>505000000</v>
+      </c>
       <c r="C18">
         <v>1.486632</v>
       </c>
@@ -817,6 +869,9 @@
       <c r="A19" s="1">
         <v>41133</v>
       </c>
+      <c r="B19">
+        <v>505000000</v>
+      </c>
       <c r="C19">
         <v>1.4441568</v>
       </c>
@@ -837,6 +892,9 @@
       <c r="A20" s="1">
         <v>41134</v>
       </c>
+      <c r="B20">
+        <v>505000000</v>
+      </c>
       <c r="C20">
         <v>1.52627552</v>
       </c>
@@ -857,6 +915,9 @@
       <c r="A21" s="1">
         <v>41135</v>
       </c>
+      <c r="B21">
+        <v>505000000</v>
+      </c>
       <c r="C21">
         <v>1.4951270399999999</v>
       </c>
@@ -877,6 +938,9 @@
       <c r="A22" s="1">
         <v>41136</v>
       </c>
+      <c r="B22">
+        <v>505000000</v>
+      </c>
       <c r="C22">
         <v>1.15815712</v>
       </c>
@@ -897,6 +961,9 @@
       <c r="A23" s="1">
         <v>41137</v>
       </c>
+      <c r="B23">
+        <v>505000000</v>
+      </c>
       <c r="C23">
         <v>1.8377603200000001</v>
       </c>
@@ -917,6 +984,9 @@
       <c r="A24" s="1">
         <v>41138</v>
       </c>
+      <c r="B24">
+        <v>505000000</v>
+      </c>
       <c r="C24">
         <v>1.8830671999999999</v>
       </c>
@@ -937,6 +1007,9 @@
       <c r="A25" s="1">
         <v>41139</v>
       </c>
+      <c r="B25">
+        <v>505000000</v>
+      </c>
       <c r="C25">
         <v>1.50362208</v>
       </c>
@@ -957,6 +1030,9 @@
       <c r="A26" s="1">
         <v>41140</v>
       </c>
+      <c r="B26">
+        <v>505000000</v>
+      </c>
       <c r="C26">
         <v>1.2204540800000001</v>
       </c>
@@ -977,6 +1053,9 @@
       <c r="A27" s="1">
         <v>41141</v>
       </c>
+      <c r="B27">
+        <v>505000000</v>
+      </c>
       <c r="C27">
         <v>1.4781369600000001</v>
       </c>
@@ -1003,6 +1082,9 @@
       <c r="A28" s="1">
         <v>41142</v>
       </c>
+      <c r="B28">
+        <v>505000000</v>
+      </c>
       <c r="C28">
         <v>1.35637472</v>
       </c>
@@ -1023,6 +1105,9 @@
       <c r="A29" s="1">
         <v>41143</v>
       </c>
+      <c r="B29">
+        <v>505000000</v>
+      </c>
       <c r="C29">
         <v>1.3875232</v>
       </c>
@@ -1043,6 +1128,9 @@
       <c r="A30" s="1">
         <v>41144</v>
       </c>
+      <c r="B30">
+        <v>505000000</v>
+      </c>
       <c r="C30">
         <v>1.41584</v>
       </c>
@@ -1063,6 +1151,9 @@
       <c r="A31" s="1">
         <v>41145</v>
       </c>
+      <c r="B31">
+        <v>505000000</v>
+      </c>
       <c r="C31">
         <v>1.3648697600000002</v>
       </c>
@@ -1083,6 +1174,9 @@
       <c r="A32" s="1">
         <v>41146</v>
       </c>
+      <c r="B32">
+        <v>505000000</v>
+      </c>
       <c r="C32">
         <v>1.31106784</v>
       </c>
@@ -1103,6 +1197,9 @@
       <c r="A33" s="1">
         <v>41147</v>
       </c>
+      <c r="B33">
+        <v>505000000</v>
+      </c>
       <c r="C33">
         <v>1.49229536</v>
       </c>
@@ -1123,6 +1220,9 @@
       <c r="A34" s="1">
         <v>41148</v>
       </c>
+      <c r="B34">
+        <v>505000000</v>
+      </c>
       <c r="C34">
         <v>1.45548352</v>
       </c>
@@ -1143,6 +1243,9 @@
       <c r="A35" s="1">
         <v>41149</v>
       </c>
+      <c r="B35">
+        <v>505000000</v>
+      </c>
       <c r="C35">
         <v>1.3677014399999998</v>
       </c>
@@ -1163,6 +1266,9 @@
       <c r="A36" s="1">
         <v>41150</v>
       </c>
+      <c r="B36">
+        <v>505000000</v>
+      </c>
       <c r="C36">
         <v>1.2799193600000001</v>
       </c>
@@ -1183,6 +1289,9 @@
       <c r="A37" s="1">
         <v>41151</v>
       </c>
+      <c r="B37">
+        <v>505000000</v>
+      </c>
       <c r="C37">
         <v>1.0505532799999999</v>
       </c>
@@ -1203,6 +1312,9 @@
       <c r="A38" s="1">
         <v>41152</v>
       </c>
+      <c r="B38">
+        <v>505000000</v>
+      </c>
       <c r="C38">
         <v>1.91704736</v>
       </c>
@@ -1223,6 +1335,9 @@
       <c r="A39" s="1">
         <v>41153</v>
       </c>
+      <c r="B39">
+        <v>505000000</v>
+      </c>
       <c r="C39">
         <v>1.41584</v>
       </c>
@@ -1243,6 +1358,9 @@
       <c r="A40" s="1">
         <v>41154</v>
       </c>
+      <c r="B40">
+        <v>505000000</v>
+      </c>
       <c r="C40">
         <v>1.0901968</v>
       </c>
@@ -1257,6 +1375,9 @@
       <c r="A41" s="1">
         <v>41155</v>
       </c>
+      <c r="B41">
+        <v>505000000</v>
+      </c>
       <c r="C41">
         <v>1.32805792</v>
       </c>
@@ -1271,6 +1392,9 @@
       <c r="A42" s="1">
         <v>41156</v>
       </c>
+      <c r="B42">
+        <v>505000000</v>
+      </c>
       <c r="C42">
         <v>1.1893056</v>
       </c>
@@ -1297,6 +1421,9 @@
       <c r="A43" s="1">
         <v>41157</v>
       </c>
+      <c r="B43">
+        <v>505000000</v>
+      </c>
       <c r="C43">
         <v>1.3422163199999999</v>
       </c>
@@ -1317,6 +1444,9 @@
       <c r="A44" s="1">
         <v>41158</v>
       </c>
+      <c r="B44">
+        <v>505000000</v>
+      </c>
       <c r="C44">
         <v>1.41017664</v>
       </c>
@@ -1337,6 +1467,9 @@
       <c r="A45" s="1">
         <v>41159</v>
       </c>
+      <c r="B45">
+        <v>505000000</v>
+      </c>
       <c r="C45">
         <v>1.4130083200000001</v>
       </c>
@@ -1357,6 +1490,9 @@
       <c r="A46" s="1">
         <v>41160</v>
       </c>
+      <c r="B46">
+        <v>505000000</v>
+      </c>
       <c r="C46">
         <v>1.3620380799999998</v>
       </c>
@@ -1377,6 +1513,9 @@
       <c r="A47" s="1">
         <v>41161</v>
       </c>
+      <c r="B47">
+        <v>505000000</v>
+      </c>
       <c r="C47">
         <v>1.6820179199999998</v>
       </c>
@@ -1397,6 +1536,9 @@
       <c r="A48" s="1">
         <v>41162</v>
       </c>
+      <c r="B48">
+        <v>505000000</v>
+      </c>
       <c r="C48">
         <v>0.97409791999999995</v>
       </c>
@@ -1417,6 +1559,9 @@
       <c r="A49" s="1">
         <v>41163</v>
       </c>
+      <c r="B49">
+        <v>505000000</v>
+      </c>
       <c r="C49">
         <v>1.2884144</v>
       </c>
@@ -1437,6 +1582,9 @@
       <c r="A50" s="1">
         <v>41164</v>
       </c>
+      <c r="B50">
+        <v>505000000</v>
+      </c>
       <c r="C50">
         <v>2.0189878399999999</v>
       </c>
@@ -1457,6 +1605,9 @@
       <c r="A51" s="1">
         <v>41165</v>
       </c>
+      <c r="B51">
+        <v>505000000</v>
+      </c>
       <c r="C51">
         <v>1.2317807999999999</v>
       </c>
@@ -1477,6 +1628,9 @@
       <c r="A52" s="1">
         <v>41166</v>
       </c>
+      <c r="B52">
+        <v>505000000</v>
+      </c>
       <c r="C52">
         <v>1.4130083199999999</v>
       </c>
@@ -1497,6 +1651,9 @@
       <c r="A53" s="1">
         <v>41167</v>
       </c>
+      <c r="B53">
+        <v>505000000</v>
+      </c>
       <c r="C53">
         <v>1.21195904</v>
       </c>
@@ -1517,6 +1674,9 @@
       <c r="A54" s="1">
         <v>41168</v>
       </c>
+      <c r="B54">
+        <v>505000000</v>
+      </c>
       <c r="C54">
         <v>1.2459392</v>
       </c>
@@ -1537,6 +1697,9 @@
       <c r="A55" s="1">
         <v>41169</v>
       </c>
+      <c r="B55">
+        <v>505000000</v>
+      </c>
       <c r="C55">
         <v>1.72449312</v>
       </c>
@@ -1557,6 +1720,9 @@
       <c r="A56" s="1">
         <v>41170</v>
       </c>
+      <c r="B56">
+        <v>505000000</v>
+      </c>
       <c r="C56">
         <v>1.2431075199999999</v>
       </c>
@@ -1577,6 +1743,9 @@
       <c r="A57" s="1">
         <v>41171</v>
       </c>
+      <c r="B57">
+        <v>505000000</v>
+      </c>
       <c r="C57">
         <v>7.0791999999999994E-2</v>
       </c>
@@ -1597,6 +1766,9 @@
       <c r="A58" s="1">
         <v>41172</v>
       </c>
+      <c r="B58">
+        <v>505000000</v>
+      </c>
       <c r="C58">
         <v>2.3163142400000001</v>
       </c>
@@ -1617,6 +1789,9 @@
       <c r="A59" s="1">
         <v>41173</v>
       </c>
+      <c r="B59">
+        <v>505000000</v>
+      </c>
       <c r="C59">
         <v>1.29407776</v>
       </c>
@@ -1637,6 +1812,9 @@
       <c r="A60" s="1">
         <v>41174</v>
       </c>
+      <c r="B60">
+        <v>505000000</v>
+      </c>
       <c r="C60">
         <v>1.6225526399999999</v>
       </c>
@@ -1657,6 +1835,9 @@
       <c r="A61" s="1">
         <v>41175</v>
       </c>
+      <c r="B61">
+        <v>505000000</v>
+      </c>
       <c r="C61">
         <v>1.4724736</v>
       </c>
@@ -1677,6 +1858,9 @@
       <c r="A62" s="1">
         <v>41176</v>
       </c>
+      <c r="B62">
+        <v>505000000</v>
+      </c>
       <c r="C62">
         <v>0.47005888000000001</v>
       </c>
@@ -1697,6 +1881,9 @@
       <c r="A63" s="1">
         <v>41177</v>
       </c>
+      <c r="B63">
+        <v>505000000</v>
+      </c>
       <c r="C63">
         <v>2.2115420799999996</v>
       </c>
@@ -1717,6 +1904,9 @@
       <c r="A64" s="1">
         <v>41178</v>
       </c>
+      <c r="B64">
+        <v>505000000</v>
+      </c>
       <c r="C64">
         <v>1.4130083199999999</v>
       </c>
@@ -1737,6 +1927,9 @@
       <c r="A65" s="1">
         <v>41179</v>
       </c>
+      <c r="B65">
+        <v>505000000</v>
+      </c>
       <c r="C65">
         <v>1.3082361599999999</v>
       </c>
@@ -1757,6 +1950,9 @@
       <c r="A66" s="1">
         <v>41180</v>
       </c>
+      <c r="B66">
+        <v>505000000</v>
+      </c>
       <c r="C66">
         <v>1.2685926399999998</v>
       </c>
@@ -1777,6 +1973,9 @@
       <c r="A67" s="1">
         <v>41181</v>
       </c>
+      <c r="B67">
+        <v>505000000</v>
+      </c>
       <c r="C67">
         <v>1.3478796799999999</v>
       </c>
@@ -1797,6 +1996,9 @@
       <c r="A68" s="1">
         <v>41182</v>
       </c>
+      <c r="B68">
+        <v>505000000</v>
+      </c>
       <c r="C68">
         <v>1.31106784</v>
       </c>
@@ -1817,6 +2019,9 @@
       <c r="A69" s="1">
         <v>41183</v>
       </c>
+      <c r="B69">
+        <v>505000000</v>
+      </c>
       <c r="C69">
         <v>1.32239456</v>
       </c>
@@ -1843,6 +2048,9 @@
       <c r="A70" s="1">
         <v>41184</v>
       </c>
+      <c r="B70">
+        <v>505000000</v>
+      </c>
       <c r="C70">
         <v>1.35637472</v>
       </c>
@@ -1863,6 +2071,9 @@
       <c r="A71" s="1">
         <v>41185</v>
       </c>
+      <c r="B71">
+        <v>505000000</v>
+      </c>
       <c r="C71">
         <v>1.2119590400000002</v>
       </c>
@@ -1883,6 +2094,9 @@
       <c r="A72" s="1">
         <v>41186</v>
       </c>
+      <c r="B72">
+        <v>505000000</v>
+      </c>
       <c r="C72">
         <v>0.98259296000000007</v>
       </c>
@@ -1903,6 +2117,9 @@
       <c r="A73" s="1">
         <v>41187</v>
       </c>
+      <c r="B73">
+        <v>505000000</v>
+      </c>
       <c r="C73">
         <v>1.4724736</v>
       </c>
@@ -1923,6 +2140,9 @@
       <c r="A74" s="1">
         <v>41188</v>
       </c>
+      <c r="B74">
+        <v>505000000</v>
+      </c>
       <c r="C74">
         <v>1.74714656</v>
       </c>
@@ -1943,6 +2163,9 @@
       <c r="A75" s="1">
         <v>41189</v>
       </c>
+      <c r="B75">
+        <v>505000000</v>
+      </c>
       <c r="C75">
         <v>1.22894912</v>
       </c>
@@ -1963,6 +2186,9 @@
       <c r="A76" s="1">
         <v>41190</v>
       </c>
+      <c r="B76">
+        <v>505000000</v>
+      </c>
       <c r="C76">
         <v>-1.1326719999999997E-2</v>
       </c>
@@ -1983,6 +2209,9 @@
       <c r="A77" s="1">
         <v>41191</v>
       </c>
+      <c r="B77">
+        <v>505000000</v>
+      </c>
       <c r="C77">
         <v>2.7070860799999998</v>
       </c>
@@ -2003,6 +2232,9 @@
       <c r="A78" s="1">
         <v>41192</v>
       </c>
+      <c r="B78">
+        <v>505000000</v>
+      </c>
       <c r="C78">
         <v>1.5545923200000002</v>
       </c>
@@ -2023,6 +2255,9 @@
       <c r="A79" s="1">
         <v>41193</v>
       </c>
+      <c r="B79">
+        <v>505000000</v>
+      </c>
       <c r="C79">
         <v>1.5630873600000001</v>
       </c>
@@ -2043,6 +2278,9 @@
       <c r="A80" s="1">
         <v>41194</v>
       </c>
+      <c r="B80">
+        <v>505000000</v>
+      </c>
       <c r="C80">
         <v>1.35071136</v>
       </c>
@@ -2063,6 +2301,9 @@
       <c r="A81" s="1">
         <v>41195</v>
       </c>
+      <c r="B81">
+        <v>505000000</v>
+      </c>
       <c r="C81">
         <v>1.6112259199999999</v>
       </c>
@@ -2083,6 +2324,9 @@
       <c r="A82" s="1">
         <v>41196</v>
       </c>
+      <c r="B82">
+        <v>505000000</v>
+      </c>
       <c r="C82">
         <v>3.1516598399999998</v>
       </c>
@@ -2103,6 +2347,9 @@
       <c r="A83" s="1">
         <v>41197</v>
       </c>
+      <c r="B83">
+        <v>505000000</v>
+      </c>
       <c r="C83">
         <v>3.7378176000000001</v>
       </c>
@@ -2123,6 +2370,9 @@
       <c r="A84" s="1">
         <v>41198</v>
       </c>
+      <c r="B84">
+        <v>505000000</v>
+      </c>
       <c r="C84">
         <v>2.1096016</v>
       </c>
@@ -2143,6 +2393,9 @@
       <c r="A85" s="1">
         <v>41199</v>
       </c>
+      <c r="B85">
+        <v>505000000</v>
+      </c>
       <c r="C85">
         <v>1.8575820799999998</v>
       </c>
@@ -2163,6 +2416,9 @@
       <c r="A86" s="1">
         <v>41200</v>
       </c>
+      <c r="B86">
+        <v>505000000</v>
+      </c>
       <c r="C86">
         <v>2.3559577599999999</v>
       </c>
@@ -2183,6 +2439,9 @@
       <c r="A87" s="1">
         <v>41201</v>
       </c>
+      <c r="B87">
+        <v>505000000</v>
+      </c>
       <c r="C87">
         <v>2.7552246399999998</v>
       </c>
@@ -2203,6 +2462,9 @@
       <c r="A88" s="1">
         <v>41202</v>
       </c>
+      <c r="B88">
+        <v>505000000</v>
+      </c>
       <c r="C88">
         <v>2.0812848000000002</v>
       </c>
@@ -2223,6 +2485,9 @@
       <c r="A89" s="1">
         <v>41203</v>
       </c>
+      <c r="B89">
+        <v>505000000</v>
+      </c>
       <c r="C89">
         <v>1.8377603200000001</v>
       </c>
@@ -2243,6 +2508,9 @@
       <c r="A90" s="1">
         <v>41204</v>
       </c>
+      <c r="B90">
+        <v>505000000</v>
+      </c>
       <c r="C90">
         <v>1.9510275200000002</v>
       </c>
@@ -2263,6 +2531,9 @@
       <c r="A91" s="1">
         <v>41205</v>
       </c>
+      <c r="B91">
+        <v>505000000</v>
+      </c>
       <c r="C91">
         <v>2.0926115200000002</v>
       </c>
@@ -2283,6 +2554,9 @@
       <c r="A92" s="1">
         <v>41206</v>
       </c>
+      <c r="B92">
+        <v>505000000</v>
+      </c>
       <c r="C92">
         <v>1.8320969600000001</v>
       </c>
@@ -2303,6 +2577,9 @@
       <c r="A93" s="1">
         <v>41207</v>
       </c>
+      <c r="B93">
+        <v>505000000</v>
+      </c>
       <c r="C93">
         <v>1.8151068799999999</v>
       </c>
@@ -2323,6 +2600,9 @@
       <c r="A94" s="1">
         <v>41208</v>
       </c>
+      <c r="B94">
+        <v>505000000</v>
+      </c>
       <c r="C94">
         <v>2.6136406399999998</v>
       </c>
@@ -2343,6 +2623,9 @@
       <c r="A95" s="1">
         <v>41209</v>
       </c>
+      <c r="B95">
+        <v>505000000</v>
+      </c>
       <c r="C95">
         <v>2.1577401599999999</v>
       </c>
@@ -2363,6 +2646,9 @@
       <c r="A96" s="1">
         <v>41210</v>
       </c>
+      <c r="B96">
+        <v>505000000</v>
+      </c>
       <c r="C96">
         <v>1.9538591999999999</v>
       </c>
@@ -2383,6 +2669,9 @@
       <c r="A97" s="1">
         <v>41211</v>
       </c>
+      <c r="B97">
+        <v>505000000</v>
+      </c>
       <c r="C97">
         <v>1.9708492799999997</v>
       </c>
@@ -2406,6 +2695,9 @@
       <c r="A98" s="1">
         <v>41212</v>
       </c>
+      <c r="B98">
+        <v>505000000</v>
+      </c>
       <c r="C98">
         <v>2.1265916799999998</v>
       </c>
@@ -2429,6 +2721,9 @@
       <c r="A99" s="1">
         <v>41213</v>
       </c>
+      <c r="B99">
+        <v>505000000</v>
+      </c>
       <c r="C99">
         <v>1.50362208</v>
       </c>
@@ -2449,6 +2744,9 @@
       <c r="A100" s="1">
         <v>41214</v>
       </c>
+      <c r="B100">
+        <v>505000000</v>
+      </c>
       <c r="C100">
         <v>2.0133244799999996</v>
       </c>
@@ -2469,6 +2767,9 @@
       <c r="A101" s="1">
         <v>41215</v>
       </c>
+      <c r="B101">
+        <v>505000000</v>
+      </c>
       <c r="C101">
         <v>1.7329881600000001</v>
       </c>
@@ -2489,6 +2790,9 @@
       <c r="A102" s="1">
         <v>41216</v>
       </c>
+      <c r="B102">
+        <v>505000000</v>
+      </c>
       <c r="C102">
         <v>1.9028889600000001</v>
       </c>
@@ -2509,6 +2813,9 @@
       <c r="A103" s="1">
         <v>41217</v>
       </c>
+      <c r="B103">
+        <v>505000000</v>
+      </c>
       <c r="C103">
         <v>1.7811267199999998</v>
       </c>
@@ -2529,6 +2836,9 @@
       <c r="A104" s="1">
         <v>41218</v>
       </c>
+      <c r="B104">
+        <v>505000000</v>
+      </c>
       <c r="C104">
         <v>1.7811267199999998</v>
       </c>
@@ -2549,6 +2859,9 @@
       <c r="A105" s="1">
         <v>41219</v>
       </c>
+      <c r="B105">
+        <v>505000000</v>
+      </c>
       <c r="C105">
         <v>1.8689088</v>
       </c>
@@ -2569,6 +2882,9 @@
       <c r="A106" s="1">
         <v>41220</v>
       </c>
+      <c r="B106">
+        <v>505000000</v>
+      </c>
       <c r="C106">
         <v>1.9538591999999999</v>
       </c>
@@ -2589,6 +2905,9 @@
       <c r="A107" s="1">
         <v>41221</v>
       </c>
+      <c r="B107">
+        <v>505000000</v>
+      </c>
       <c r="C107">
         <v>1.6452060800000001</v>
       </c>
@@ -2609,6 +2928,9 @@
       <c r="A108" s="1">
         <v>41222</v>
       </c>
+      <c r="B108">
+        <v>505000000</v>
+      </c>
       <c r="C108">
         <v>2.2908291200000002</v>
       </c>
@@ -2629,6 +2951,9 @@
       <c r="A109" s="1">
         <v>41223</v>
       </c>
+      <c r="B109">
+        <v>505000000</v>
+      </c>
       <c r="C109">
         <v>0.54085088000000003</v>
       </c>
@@ -2649,6 +2974,9 @@
       <c r="A110" s="1">
         <v>41224</v>
       </c>
+      <c r="B110">
+        <v>505000000</v>
+      </c>
       <c r="C110">
         <v>2.42391808</v>
       </c>
@@ -2669,6 +2997,9 @@
       <c r="A111" s="1">
         <v>41225</v>
       </c>
+      <c r="B111">
+        <v>505000000</v>
+      </c>
       <c r="C111">
         <v>2.9562739200000001</v>
       </c>
@@ -2689,6 +3020,9 @@
       <c r="A112" s="1">
         <v>41226</v>
       </c>
+      <c r="B112">
+        <v>505000000</v>
+      </c>
       <c r="C112">
         <v>2.71558112</v>
       </c>
@@ -2709,6 +3043,9 @@
       <c r="A113" s="1">
         <v>41227</v>
       </c>
+      <c r="B113">
+        <v>505000000</v>
+      </c>
       <c r="C113">
         <v>2.01615616</v>
       </c>
@@ -2729,6 +3066,9 @@
       <c r="A114" s="1">
         <v>41228</v>
       </c>
+      <c r="B114">
+        <v>505000000</v>
+      </c>
       <c r="C114">
         <v>2.5117001600000002</v>
       </c>
@@ -2749,6 +3089,9 @@
       <c r="A115" s="1">
         <v>41229</v>
       </c>
+      <c r="B115">
+        <v>505000000</v>
+      </c>
       <c r="C115">
         <v>2.0812848000000002</v>
       </c>
@@ -2769,6 +3112,9 @@
       <c r="A116" s="1">
         <v>41230</v>
       </c>
+      <c r="B116">
+        <v>505000000</v>
+      </c>
       <c r="C116">
         <v>1.8490870399999999</v>
       </c>
@@ -2789,6 +3135,9 @@
       <c r="A117" s="1">
         <v>41231</v>
       </c>
+      <c r="B117">
+        <v>505000000</v>
+      </c>
       <c r="C117">
         <v>1.9595225600000001</v>
       </c>
@@ -2809,6 +3158,9 @@
       <c r="A118" s="1">
         <v>41232</v>
       </c>
+      <c r="B118">
+        <v>505000000</v>
+      </c>
       <c r="C118">
         <v>2.0416412799999999</v>
       </c>
@@ -2829,6 +3181,9 @@
       <c r="A119" s="1">
         <v>41233</v>
       </c>
+      <c r="B119">
+        <v>505000000</v>
+      </c>
       <c r="C119">
         <v>1.9821759999999999</v>
       </c>
@@ -2849,6 +3204,9 @@
       <c r="A120" s="1">
         <v>41234</v>
       </c>
+      <c r="B120">
+        <v>505000000</v>
+      </c>
       <c r="C120">
         <v>1.4696419199999999</v>
       </c>
@@ -2869,6 +3227,9 @@
       <c r="A121" s="1">
         <v>41235</v>
       </c>
+      <c r="B121">
+        <v>505000000</v>
+      </c>
       <c r="C121">
         <v>1.4441568</v>
       </c>
@@ -2889,6 +3250,9 @@
       <c r="A122" s="1">
         <v>41236</v>
       </c>
+      <c r="B122">
+        <v>505000000</v>
+      </c>
       <c r="C122">
         <v>2.9109670400000001</v>
       </c>
@@ -2909,6 +3273,9 @@
       <c r="A123" s="1">
         <v>41237</v>
       </c>
+      <c r="B123">
+        <v>505000000</v>
+      </c>
       <c r="C123">
         <v>1.3195628800000001</v>
       </c>
@@ -2929,6 +3296,9 @@
       <c r="A124" s="1">
         <v>41238</v>
       </c>
+      <c r="B124">
+        <v>505000000</v>
+      </c>
       <c r="C124">
         <v>2.5655020799999999</v>
       </c>
@@ -2949,6 +3319,9 @@
       <c r="A125" s="1">
         <v>41239</v>
       </c>
+      <c r="B125">
+        <v>505000000</v>
+      </c>
       <c r="C125">
         <v>1.7641366399999998</v>
       </c>
@@ -2969,6 +3342,9 @@
       <c r="A126" s="1">
         <v>41240</v>
       </c>
+      <c r="B126">
+        <v>505000000</v>
+      </c>
       <c r="C126">
         <v>1.5630873600000001</v>
       </c>
@@ -2989,6 +3365,9 @@
       <c r="A127" s="1">
         <v>41241</v>
       </c>
+      <c r="B127">
+        <v>505000000</v>
+      </c>
       <c r="C127">
         <v>1.9000572799999997</v>
       </c>
@@ -3009,6 +3388,9 @@
       <c r="A128" s="1">
         <v>41242</v>
       </c>
+      <c r="B128">
+        <v>505000000</v>
+      </c>
       <c r="C128">
         <v>2.1039382399999997</v>
       </c>
@@ -3035,6 +3417,9 @@
       <c r="A129" s="1">
         <v>41243</v>
       </c>
+      <c r="B129">
+        <v>505000000</v>
+      </c>
       <c r="C129">
         <v>1.9397008</v>
       </c>
@@ -3055,6 +3440,9 @@
       <c r="A130" s="1">
         <v>41244</v>
       </c>
+      <c r="B130">
+        <v>505000000</v>
+      </c>
       <c r="C130">
         <v>1.74714656</v>
       </c>
@@ -3069,6 +3457,9 @@
       <c r="A131" s="1">
         <v>41245</v>
       </c>
+      <c r="B131">
+        <v>505000000</v>
+      </c>
       <c r="C131">
         <v>2.0303145599999999</v>
       </c>
@@ -3083,6 +3474,9 @@
       <c r="A132" s="1">
         <v>41246</v>
       </c>
+      <c r="B132">
+        <v>505000000</v>
+      </c>
       <c r="C132">
         <v>1.4639785600000002</v>
       </c>
@@ -3097,6 +3491,9 @@
       <c r="A133" s="1">
         <v>41247</v>
       </c>
+      <c r="B133">
+        <v>505000000</v>
+      </c>
       <c r="C133">
         <v>2.1407500799999997</v>
       </c>
@@ -3111,6 +3508,9 @@
       <c r="A134" s="1">
         <v>41248</v>
       </c>
+      <c r="B134">
+        <v>505000000</v>
+      </c>
       <c r="C134">
         <v>1.7386515199999999</v>
       </c>
@@ -3125,6 +3525,9 @@
       <c r="A135" s="1">
         <v>41249</v>
       </c>
+      <c r="B135">
+        <v>505000000</v>
+      </c>
       <c r="C135">
         <v>1.79528512</v>
       </c>
@@ -3139,6 +3542,9 @@
       <c r="A136" s="1">
         <v>41250</v>
       </c>
+      <c r="B136">
+        <v>505000000</v>
+      </c>
       <c r="C136">
         <v>2.1917203199999999</v>
       </c>
@@ -3153,6 +3559,9 @@
       <c r="A137" s="1">
         <v>41251</v>
       </c>
+      <c r="B137">
+        <v>505000000</v>
+      </c>
       <c r="C137">
         <v>1.79528512</v>
       </c>
@@ -3167,6 +3576,9 @@
       <c r="A138" s="1">
         <v>41252</v>
       </c>
+      <c r="B138">
+        <v>505000000</v>
+      </c>
       <c r="C138">
         <v>1.78962176</v>
       </c>
@@ -3181,6 +3593,9 @@
       <c r="A139" s="1">
         <v>41253</v>
       </c>
+      <c r="B139">
+        <v>505000000</v>
+      </c>
       <c r="C139">
         <v>1.9680176</v>
       </c>
@@ -3195,6 +3610,9 @@
       <c r="A140" s="1">
         <v>41254</v>
       </c>
+      <c r="B140">
+        <v>505000000</v>
+      </c>
       <c r="C140">
         <v>1.6225526399999999</v>
       </c>
@@ -3209,6 +3627,9 @@
       <c r="A141" s="1">
         <v>41255</v>
       </c>
+      <c r="B141">
+        <v>505000000</v>
+      </c>
       <c r="C141">
         <v>1.2799193600000001</v>
       </c>
@@ -3223,6 +3644,9 @@
       <c r="A142" s="1">
         <v>41256</v>
       </c>
+      <c r="B142">
+        <v>505000000</v>
+      </c>
       <c r="C142">
         <v>2.1888886400000001</v>
       </c>
@@ -3237,6 +3661,9 @@
       <c r="A143" s="1">
         <v>41257</v>
       </c>
+      <c r="B143">
+        <v>505000000</v>
+      </c>
       <c r="C143">
         <v>1.9623542399999998</v>
       </c>
@@ -3251,6 +3678,9 @@
       <c r="A144" s="1">
         <v>41258</v>
       </c>
+      <c r="B144">
+        <v>505000000</v>
+      </c>
       <c r="C144">
         <v>2.01615616</v>
       </c>
@@ -3265,6 +3695,9 @@
       <c r="A145" s="1">
         <v>41259</v>
       </c>
+      <c r="B145">
+        <v>505000000</v>
+      </c>
       <c r="C145">
         <v>2.3616211200000001</v>
       </c>
@@ -3279,6 +3712,9 @@
       <c r="A146" s="1">
         <v>41260</v>
       </c>
+      <c r="B146">
+        <v>505000000</v>
+      </c>
       <c r="C146">
         <v>2.4352448</v>
       </c>
@@ -3293,6 +3729,9 @@
       <c r="A147" s="1">
         <v>41261</v>
       </c>
+      <c r="B147">
+        <v>505000000</v>
+      </c>
       <c r="C147">
         <v>2.13225504</v>
       </c>
@@ -3307,6 +3746,9 @@
       <c r="A148" s="1">
         <v>41262</v>
       </c>
+      <c r="B148">
+        <v>505000000</v>
+      </c>
       <c r="C148">
         <v>2.12092832</v>
       </c>
@@ -3321,6 +3763,9 @@
       <c r="A149" s="1">
         <v>41263</v>
       </c>
+      <c r="B149">
+        <v>505000000</v>
+      </c>
       <c r="C149">
         <v>1.54892896</v>
       </c>
@@ -3335,6 +3780,9 @@
       <c r="A150" s="1">
         <v>41264</v>
       </c>
+      <c r="B150">
+        <v>505000000</v>
+      </c>
       <c r="C150">
         <v>1.5687507199999999</v>
       </c>
@@ -3349,6 +3797,9 @@
       <c r="A151" s="1">
         <v>41265</v>
       </c>
+      <c r="B151">
+        <v>505000000</v>
+      </c>
       <c r="C151">
         <v>2.06146304</v>
       </c>
@@ -3363,6 +3814,9 @@
       <c r="A152" s="1">
         <v>41266</v>
       </c>
+      <c r="B152">
+        <v>505000000</v>
+      </c>
       <c r="C152">
         <v>1.7103347199999999</v>
       </c>
@@ -3377,6 +3831,9 @@
       <c r="A153" s="1">
         <v>41267</v>
       </c>
+      <c r="B153">
+        <v>505000000</v>
+      </c>
       <c r="C153">
         <v>1.52061216</v>
       </c>
@@ -3391,6 +3848,9 @@
       <c r="A154" s="1">
         <v>41268</v>
       </c>
+      <c r="B154">
+        <v>505000000</v>
+      </c>
       <c r="C154">
         <v>1.6678595199999999</v>
       </c>
@@ -3405,6 +3865,9 @@
       <c r="A155" s="1">
         <v>41269</v>
       </c>
+      <c r="B155">
+        <v>505000000</v>
+      </c>
       <c r="C155">
         <v>1.6990080000000001</v>
       </c>
@@ -3419,6 +3882,9 @@
       <c r="A156" s="1">
         <v>41270</v>
       </c>
+      <c r="B156">
+        <v>505000000</v>
+      </c>
       <c r="C156">
         <v>1.5234438399999999</v>
       </c>
@@ -3433,6 +3899,9 @@
       <c r="A157" s="1">
         <v>41271</v>
       </c>
+      <c r="B157">
+        <v>505000000</v>
+      </c>
       <c r="C157">
         <v>1.6338793600000001</v>
       </c>
@@ -3447,6 +3916,9 @@
       <c r="A158" s="1">
         <v>41272</v>
       </c>
+      <c r="B158">
+        <v>505000000</v>
+      </c>
       <c r="C158">
         <v>1.8604137600000001</v>
       </c>
@@ -3461,6 +3933,9 @@
       <c r="A159" s="1">
         <v>41273</v>
       </c>
+      <c r="B159">
+        <v>505000000</v>
+      </c>
       <c r="C159">
         <v>1.8320969600000001</v>
       </c>
@@ -3475,6 +3950,9 @@
       <c r="A160" s="1">
         <v>41274</v>
       </c>
+      <c r="B160">
+        <v>505000000</v>
+      </c>
       <c r="C160">
         <v>1.9481958399999999</v>
       </c>
@@ -3489,6 +3967,9 @@
       <c r="A161" s="1">
         <v>41275</v>
       </c>
+      <c r="B161">
+        <v>505000000</v>
+      </c>
       <c r="C161">
         <v>1.7499782399999999</v>
       </c>
@@ -3503,6 +3984,9 @@
       <c r="A162" s="1">
         <v>41276</v>
       </c>
+      <c r="B162">
+        <v>505000000</v>
+      </c>
       <c r="C162">
         <v>1.80661184</v>
       </c>
@@ -3517,6 +4001,9 @@
       <c r="A163" s="1">
         <v>41277</v>
       </c>
+      <c r="B163">
+        <v>505000000</v>
+      </c>
       <c r="C163">
         <v>1.79528512</v>
       </c>
@@ -3531,6 +4018,9 @@
       <c r="A164" s="1">
         <v>41278</v>
       </c>
+      <c r="B164">
+        <v>505000000</v>
+      </c>
       <c r="C164">
         <v>1.75847328</v>
       </c>
@@ -3545,6 +4035,9 @@
       <c r="A165" s="1">
         <v>41279</v>
       </c>
+      <c r="B165">
+        <v>505000000</v>
+      </c>
       <c r="C165">
         <v>1.84625536</v>
       </c>
@@ -3559,6 +4052,9 @@
       <c r="A166" s="1">
         <v>41280</v>
       </c>
+      <c r="B166">
+        <v>505000000</v>
+      </c>
       <c r="C166">
         <v>2.01615616</v>
       </c>
@@ -3573,6 +4069,9 @@
       <c r="A167" s="1">
         <v>41281</v>
       </c>
+      <c r="B167">
+        <v>505000000</v>
+      </c>
       <c r="C167">
         <v>1.84625536</v>
       </c>
@@ -3587,6 +4086,9 @@
       <c r="A168" s="1">
         <v>41282</v>
       </c>
+      <c r="B168">
+        <v>505000000</v>
+      </c>
       <c r="C168">
         <v>1.9000572799999997</v>
       </c>
@@ -3601,6 +4103,9 @@
       <c r="A169" s="1">
         <v>41283</v>
       </c>
+      <c r="B169">
+        <v>505000000</v>
+      </c>
       <c r="C169">
         <v>1.9283740799999998</v>
       </c>
@@ -3615,6 +4120,9 @@
       <c r="A170" s="1">
         <v>41284</v>
       </c>
+      <c r="B170">
+        <v>505000000</v>
+      </c>
       <c r="C170">
         <v>1.9850076799999998</v>
       </c>
@@ -3629,6 +4137,9 @@
       <c r="A171" s="1">
         <v>41285</v>
       </c>
+      <c r="B171">
+        <v>505000000</v>
+      </c>
       <c r="C171">
         <v>2.5315219200000003</v>
       </c>
@@ -3643,6 +4154,9 @@
       <c r="A172" s="1">
         <v>41286</v>
       </c>
+      <c r="B172">
+        <v>505000000</v>
+      </c>
       <c r="C172">
         <v>3.5594217600000002</v>
       </c>
@@ -3657,6 +4171,9 @@
       <c r="A173" s="1">
         <v>41287</v>
       </c>
+      <c r="B173">
+        <v>505000000</v>
+      </c>
       <c r="C173">
         <v>3.4206694399999997</v>
       </c>
@@ -3671,6 +4188,9 @@
       <c r="A174" s="1">
         <v>41288</v>
       </c>
+      <c r="B174">
+        <v>505000000</v>
+      </c>
       <c r="C174">
         <v>2.3701161600000002</v>
       </c>
@@ -3685,6 +4205,9 @@
       <c r="A175" s="1">
         <v>41289</v>
       </c>
+      <c r="B175">
+        <v>505000000</v>
+      </c>
       <c r="C175">
         <v>2.2936608000000001</v>
       </c>
@@ -3699,6 +4222,9 @@
       <c r="A176" s="1">
         <v>41290</v>
       </c>
+      <c r="B176">
+        <v>505000000</v>
+      </c>
       <c r="C176">
         <v>2.0756214399999999</v>
       </c>
@@ -3713,6 +4239,9 @@
       <c r="A177" s="1">
         <v>41291</v>
       </c>
+      <c r="B177">
+        <v>505000000</v>
+      </c>
       <c r="C177">
         <v>2.0076611200000003</v>
       </c>
@@ -3727,6 +4256,9 @@
       <c r="A178" s="1">
         <v>41292</v>
       </c>
+      <c r="B178">
+        <v>505000000</v>
+      </c>
       <c r="C178">
         <v>1.8320969600000001</v>
       </c>
@@ -3741,6 +4273,9 @@
       <c r="A179" s="1">
         <v>41293</v>
       </c>
+      <c r="B179">
+        <v>505000000</v>
+      </c>
       <c r="C179">
         <v>2.0104928000000002</v>
       </c>
@@ -3755,6 +4290,9 @@
       <c r="A180" s="1">
         <v>41294</v>
       </c>
+      <c r="B180">
+        <v>505000000</v>
+      </c>
       <c r="C180">
         <v>1.88023552</v>
       </c>
@@ -3769,6 +4307,9 @@
       <c r="A181" s="1">
         <v>41295</v>
       </c>
+      <c r="B181">
+        <v>505000000</v>
+      </c>
       <c r="C181">
         <v>1.8434236799999999</v>
       </c>
@@ -3783,6 +4324,9 @@
       <c r="A182" s="1">
         <v>41296</v>
       </c>
+      <c r="B182">
+        <v>505000000</v>
+      </c>
       <c r="C182">
         <v>1.5687507199999999</v>
       </c>
@@ -3797,6 +4341,9 @@
       <c r="A183" s="1">
         <v>41297</v>
       </c>
+      <c r="B183">
+        <v>505000000</v>
+      </c>
       <c r="C183">
         <v>1.6621961600000001</v>
       </c>
@@ -3811,6 +4358,9 @@
       <c r="A184" s="1">
         <v>41298</v>
       </c>
+      <c r="B184">
+        <v>505000000</v>
+      </c>
       <c r="C184">
         <v>1.7329881600000001</v>
       </c>
@@ -3825,6 +4375,9 @@
       <c r="A185" s="1">
         <v>41299</v>
       </c>
+      <c r="B185">
+        <v>505000000</v>
+      </c>
       <c r="C185">
         <v>1.8264335999999999</v>
       </c>
@@ -3839,6 +4392,9 @@
       <c r="A186" s="1">
         <v>41300</v>
       </c>
+      <c r="B186">
+        <v>505000000</v>
+      </c>
       <c r="C186">
         <v>1.8858988799999998</v>
       </c>
@@ -3853,6 +4409,9 @@
       <c r="A187" s="1">
         <v>41301</v>
       </c>
+      <c r="B187">
+        <v>505000000</v>
+      </c>
       <c r="C187">
         <v>2.0076611200000003</v>
       </c>
@@ -3867,6 +4426,9 @@
       <c r="A188" s="1">
         <v>41302</v>
       </c>
+      <c r="B188">
+        <v>505000000</v>
+      </c>
       <c r="C188">
         <v>2.1605718399999998</v>
       </c>
@@ -3881,6 +4443,9 @@
       <c r="A189" s="1">
         <v>41303</v>
       </c>
+      <c r="B189">
+        <v>505000000</v>
+      </c>
       <c r="C189">
         <v>7.9003871999999999</v>
       </c>
@@ -3895,6 +4460,9 @@
       <c r="A190" s="1">
         <v>41304</v>
       </c>
+      <c r="B190">
+        <v>505000000</v>
+      </c>
       <c r="C190">
         <v>14.696419199999999</v>
       </c>
@@ -3909,6 +4477,9 @@
       <c r="A191" s="1">
         <v>41305</v>
       </c>
+      <c r="B191">
+        <v>505000000</v>
+      </c>
       <c r="C191">
         <v>11.043552</v>
       </c>
@@ -3923,6 +4494,9 @@
       <c r="A192" s="1">
         <v>41306</v>
       </c>
+      <c r="B192">
+        <v>505000000</v>
+      </c>
       <c r="C192">
         <v>6.5694976</v>
       </c>
@@ -3937,6 +4511,9 @@
       <c r="A193" s="1">
         <v>41307</v>
       </c>
+      <c r="B193">
+        <v>505000000</v>
+      </c>
       <c r="C193">
         <v>4.2758367999999995</v>
       </c>
@@ -3951,6 +4528,9 @@
       <c r="A194" s="1">
         <v>41308</v>
       </c>
+      <c r="B194">
+        <v>505000000</v>
+      </c>
       <c r="C194">
         <v>3.4263328</v>
       </c>
@@ -3965,6 +4545,9 @@
       <c r="A195" s="1">
         <v>41309</v>
       </c>
+      <c r="B195">
+        <v>505000000</v>
+      </c>
       <c r="C195">
         <v>2.9760956799999998</v>
       </c>
@@ -3979,6 +4562,9 @@
       <c r="A196" s="1">
         <v>41310</v>
       </c>
+      <c r="B196">
+        <v>505000000</v>
+      </c>
       <c r="C196">
         <v>2.80902656</v>
       </c>
@@ -3993,6 +4579,9 @@
       <c r="A197" s="1">
         <v>41311</v>
       </c>
+      <c r="B197">
+        <v>505000000</v>
+      </c>
       <c r="C197">
         <v>2.5117001600000002</v>
       </c>
@@ -4007,6 +4596,9 @@
       <c r="A198" s="1">
         <v>41312</v>
       </c>
+      <c r="B198">
+        <v>505000000</v>
+      </c>
       <c r="C198">
         <v>2.4862150399999998</v>
       </c>
@@ -4021,6 +4613,9 @@
       <c r="A199" s="1">
         <v>41313</v>
       </c>
+      <c r="B199">
+        <v>505000000</v>
+      </c>
       <c r="C199">
         <v>2.4324131200000001</v>
       </c>
@@ -4035,6 +4630,9 @@
       <c r="A200" s="1">
         <v>41314</v>
       </c>
+      <c r="B200">
+        <v>505000000</v>
+      </c>
       <c r="C200">
         <v>2.3446310399999999</v>
       </c>
@@ -4049,6 +4647,9 @@
       <c r="A201" s="1">
         <v>41315</v>
       </c>
+      <c r="B201">
+        <v>505000000</v>
+      </c>
       <c r="C201">
         <v>2.73823456</v>
       </c>
@@ -4063,6 +4664,9 @@
       <c r="A202" s="1">
         <v>41316</v>
       </c>
+      <c r="B202">
+        <v>505000000</v>
+      </c>
       <c r="C202">
         <v>6.2863296000000002</v>
       </c>
@@ -4077,6 +4681,9 @@
       <c r="A203" s="1">
         <v>41317</v>
       </c>
+      <c r="B203">
+        <v>505000000</v>
+      </c>
       <c r="C203">
         <v>6.2296959999999997</v>
       </c>
@@ -4097,6 +4704,9 @@
       <c r="A204" s="1">
         <v>41318</v>
       </c>
+      <c r="B204">
+        <v>505000000</v>
+      </c>
       <c r="C204">
         <v>4.8704896</v>
       </c>
@@ -4111,6 +4721,9 @@
       <c r="A205" s="1">
         <v>41319</v>
       </c>
+      <c r="B205">
+        <v>505000000</v>
+      </c>
       <c r="C205">
         <v>3.9360352000000001</v>
       </c>
@@ -4125,6 +4738,9 @@
       <c r="A206" s="1">
         <v>41320</v>
       </c>
+      <c r="B206">
+        <v>505000000</v>
+      </c>
       <c r="C206">
         <v>3.0298976</v>
       </c>
@@ -4139,6 +4755,9 @@
       <c r="A207" s="1">
         <v>41321</v>
       </c>
+      <c r="B207">
+        <v>505000000</v>
+      </c>
       <c r="C207">
         <v>2.5768287999999999</v>
       </c>
@@ -4153,6 +4772,9 @@
       <c r="A208" s="1">
         <v>41322</v>
       </c>
+      <c r="B208">
+        <v>505000000</v>
+      </c>
       <c r="C208">
         <v>2.4748883200000003</v>
       </c>
@@ -4167,6 +4789,9 @@
       <c r="A209" s="1">
         <v>41323</v>
       </c>
+      <c r="B209">
+        <v>505000000</v>
+      </c>
       <c r="C209">
         <v>2.5032051200000001</v>
       </c>
@@ -4181,6 +4806,9 @@
       <c r="A210" s="1">
         <v>41324</v>
       </c>
+      <c r="B210">
+        <v>505000000</v>
+      </c>
       <c r="C210">
         <v>2.4210864000000001</v>
       </c>
@@ -4195,6 +4823,9 @@
       <c r="A211" s="1">
         <v>41325</v>
       </c>
+      <c r="B211">
+        <v>505000000</v>
+      </c>
       <c r="C211">
         <v>2.1520768000000001</v>
       </c>
@@ -4209,6 +4840,9 @@
       <c r="A212" s="1">
         <v>41326</v>
       </c>
+      <c r="B212">
+        <v>505000000</v>
+      </c>
       <c r="C212">
         <v>2.1124332799999999</v>
       </c>
@@ -4223,6 +4857,9 @@
       <c r="A213" s="1">
         <v>41327</v>
       </c>
+      <c r="B213">
+        <v>505000000</v>
+      </c>
       <c r="C213">
         <v>2.1917203199999999</v>
       </c>
@@ -4237,6 +4874,9 @@
       <c r="A214" s="1">
         <v>41328</v>
       </c>
+      <c r="B214">
+        <v>505000000</v>
+      </c>
       <c r="C214">
         <v>2.24835392</v>
       </c>
@@ -4251,6 +4891,9 @@
       <c r="A215" s="1">
         <v>41329</v>
       </c>
+      <c r="B215">
+        <v>505000000</v>
+      </c>
       <c r="C215">
         <v>2.1888886400000001</v>
       </c>
@@ -4265,6 +4908,9 @@
       <c r="A216" s="1">
         <v>41330</v>
       </c>
+      <c r="B216">
+        <v>505000000</v>
+      </c>
       <c r="C216">
         <v>2.1011065599999998</v>
       </c>
@@ -4279,6 +4925,9 @@
       <c r="A217" s="1">
         <v>41331</v>
       </c>
+      <c r="B217">
+        <v>505000000</v>
+      </c>
       <c r="C217">
         <v>2.3248092799999998</v>
       </c>
@@ -4293,6 +4942,9 @@
       <c r="A218" s="1">
         <v>41332</v>
       </c>
+      <c r="B218">
+        <v>505000000</v>
+      </c>
       <c r="C218">
         <v>1.9935027200000002</v>
       </c>
@@ -4307,6 +4959,9 @@
       <c r="A219" s="1">
         <v>41333</v>
       </c>
+      <c r="B219">
+        <v>505000000</v>
+      </c>
       <c r="C219">
         <v>2.4522348799999998</v>
       </c>
@@ -4321,6 +4976,9 @@
       <c r="A220" s="1">
         <v>41334</v>
       </c>
+      <c r="B220">
+        <v>505000000</v>
+      </c>
       <c r="C220">
         <v>2.1265916799999998</v>
       </c>
@@ -4335,6 +4993,9 @@
       <c r="A221" s="1">
         <v>41335</v>
       </c>
+      <c r="B221">
+        <v>505000000</v>
+      </c>
       <c r="C221">
         <v>2.0019977600000001</v>
       </c>
@@ -4349,6 +5010,9 @@
       <c r="A222" s="1">
         <v>41336</v>
       </c>
+      <c r="B222">
+        <v>505000000</v>
+      </c>
       <c r="C222">
         <v>2.0586313600000001</v>
       </c>
@@ -4363,6 +5027,9 @@
       <c r="A223" s="1">
         <v>41337</v>
       </c>
+      <c r="B223">
+        <v>505000000</v>
+      </c>
       <c r="C223">
         <v>2.0841164799999996</v>
       </c>
@@ -4377,6 +5044,9 @@
       <c r="A224" s="1">
         <v>41338</v>
       </c>
+      <c r="B224">
+        <v>505000000</v>
+      </c>
       <c r="C224">
         <v>2.25968064</v>
       </c>
@@ -4391,6 +5061,9 @@
       <c r="A225" s="1">
         <v>41339</v>
       </c>
+      <c r="B225">
+        <v>505000000</v>
+      </c>
       <c r="C225">
         <v>2.2002153600000001</v>
       </c>
@@ -4405,6 +5078,9 @@
       <c r="A226" s="1">
         <v>41340</v>
       </c>
+      <c r="B226">
+        <v>505000000</v>
+      </c>
       <c r="C226">
         <v>2.1662352</v>
       </c>
@@ -4419,6 +5095,9 @@
       <c r="A227" s="1">
         <v>41341</v>
       </c>
+      <c r="B227">
+        <v>505000000</v>
+      </c>
       <c r="C227">
         <v>2.1605718399999998</v>
       </c>
@@ -4433,6 +5112,9 @@
       <c r="A228" s="1">
         <v>41342</v>
       </c>
+      <c r="B228">
+        <v>505000000</v>
+      </c>
       <c r="C228">
         <v>2.3956012799999997</v>
       </c>
@@ -4447,6 +5129,9 @@
       <c r="A229" s="1">
         <v>41343</v>
       </c>
+      <c r="B229">
+        <v>505000000</v>
+      </c>
       <c r="C229">
         <v>7.7304864000000002</v>
       </c>
@@ -4461,6 +5146,9 @@
       <c r="A230" s="1">
         <v>41344</v>
       </c>
+      <c r="B230">
+        <v>505000000</v>
+      </c>
       <c r="C230">
         <v>30.525510399999998</v>
       </c>
@@ -4475,6 +5163,9 @@
       <c r="A231" s="1">
         <v>41345</v>
       </c>
+      <c r="B231">
+        <v>505000000</v>
+      </c>
       <c r="C231">
         <v>26.391257599999999</v>
       </c>
@@ -4489,6 +5180,9 @@
       <c r="A232" s="1">
         <v>41346</v>
       </c>
+      <c r="B232">
+        <v>505000000</v>
+      </c>
       <c r="C232">
         <v>18.943939199999999</v>
       </c>
@@ -4503,6 +5197,9 @@
       <c r="A233" s="1">
         <v>41347</v>
       </c>
+      <c r="B233">
+        <v>505000000</v>
+      </c>
       <c r="C233">
         <v>12.317807999999999</v>
       </c>
@@ -4517,6 +5214,9 @@
       <c r="A234" s="1">
         <v>41348</v>
       </c>
+      <c r="B234">
+        <v>505000000</v>
+      </c>
       <c r="C234">
         <v>7.5605855999999996</v>
       </c>
@@ -4531,6 +5231,9 @@
       <c r="A235" s="1">
         <v>41349</v>
       </c>
+      <c r="B235">
+        <v>505000000</v>
+      </c>
       <c r="C235">
         <v>5.6916767999999998</v>
       </c>
@@ -4545,6 +5248,9 @@
       <c r="A236" s="1">
         <v>41350</v>
       </c>
+      <c r="B236">
+        <v>505000000</v>
+      </c>
       <c r="C236">
         <v>4.7572223999999999</v>
       </c>
@@ -4559,6 +5265,9 @@
       <c r="A237" s="1">
         <v>41351</v>
       </c>
+      <c r="B237">
+        <v>505000000</v>
+      </c>
       <c r="C237">
         <v>4.0209856000000004</v>
       </c>
@@ -4573,6 +5282,9 @@
       <c r="A238" s="1">
         <v>41352</v>
       </c>
+      <c r="B238">
+        <v>505000000</v>
+      </c>
       <c r="C238">
         <v>3.8227679999999999</v>
       </c>
@@ -4587,6 +5299,9 @@
       <c r="A239" s="1">
         <v>41353</v>
       </c>
+      <c r="B239">
+        <v>505000000</v>
+      </c>
       <c r="C239">
         <v>3.4829664</v>
       </c>
@@ -4601,6 +5316,9 @@
       <c r="A240" s="1">
         <v>41354</v>
       </c>
+      <c r="B240">
+        <v>505000000</v>
+      </c>
       <c r="C240">
         <v>3.3130655999999998</v>
       </c>
@@ -4615,6 +5333,9 @@
       <c r="A241" s="1">
         <v>41355</v>
       </c>
+      <c r="B241">
+        <v>505000000</v>
+      </c>
       <c r="C241">
         <v>3.2281152</v>
       </c>
@@ -4629,6 +5350,9 @@
       <c r="A242" s="1">
         <v>41356</v>
       </c>
+      <c r="B242">
+        <v>505000000</v>
+      </c>
       <c r="C242">
         <v>3.4546495999999998</v>
       </c>
@@ -4643,6 +5367,9 @@
       <c r="A243" s="1">
         <v>41357</v>
       </c>
+      <c r="B243">
+        <v>505000000</v>
+      </c>
       <c r="C243">
         <v>3.7661343999999999</v>
       </c>
@@ -4657,6 +5384,9 @@
       <c r="A244" s="1">
         <v>41358</v>
       </c>
+      <c r="B244">
+        <v>505000000</v>
+      </c>
       <c r="C244">
         <v>3.2281152</v>
       </c>
@@ -4671,6 +5401,9 @@
       <c r="A245" s="1">
         <v>41359</v>
       </c>
+      <c r="B245">
+        <v>505000000</v>
+      </c>
       <c r="C245">
         <v>3.5396000000000001</v>
       </c>
@@ -4685,6 +5418,9 @@
       <c r="A246" s="1">
         <v>41360</v>
       </c>
+      <c r="B246">
+        <v>505000000</v>
+      </c>
       <c r="C246">
         <v>5.9748447999999996</v>
       </c>
@@ -4699,6 +5435,9 @@
       <c r="A247" s="1">
         <v>41361</v>
       </c>
+      <c r="B247">
+        <v>505000000</v>
+      </c>
       <c r="C247">
         <v>8.8065248</v>
       </c>
@@ -4713,6 +5452,9 @@
       <c r="A248" s="1">
         <v>41362</v>
       </c>
+      <c r="B248">
+        <v>505000000</v>
+      </c>
       <c r="C248">
         <v>13.110678399999999</v>
       </c>
@@ -4727,6 +5469,9 @@
       <c r="A249" s="1">
         <v>41363</v>
       </c>
+      <c r="B249">
+        <v>505000000</v>
+      </c>
       <c r="C249">
         <v>15.9423584</v>
       </c>
@@ -4741,6 +5486,9 @@
       <c r="A250" s="1">
         <v>41364</v>
       </c>
+      <c r="B250">
+        <v>505000000</v>
+      </c>
       <c r="C250">
         <v>16.6785952</v>
       </c>
@@ -4755,6 +5503,9 @@
       <c r="A251" s="1">
         <v>41365</v>
       </c>
+      <c r="B251">
+        <v>505000000</v>
+      </c>
       <c r="C251">
         <v>14.328300799999999</v>
       </c>
@@ -4769,6 +5520,9 @@
       <c r="A252" s="1">
         <v>41366</v>
       </c>
+      <c r="B252">
+        <v>505000000</v>
+      </c>
       <c r="C252">
         <v>8.5233568000000002</v>
       </c>
@@ -4783,6 +5537,9 @@
       <c r="A253" s="1">
         <v>41367</v>
       </c>
+      <c r="B253">
+        <v>505000000</v>
+      </c>
       <c r="C253">
         <v>5.8615775999999995</v>
       </c>
@@ -4797,6 +5554,9 @@
       <c r="A254" s="1">
         <v>41368</v>
       </c>
+      <c r="B254">
+        <v>505000000</v>
+      </c>
       <c r="C254">
         <v>5.0772022400000001</v>
       </c>
@@ -4811,6 +5571,9 @@
       <c r="A255" s="1">
         <v>41369</v>
       </c>
+      <c r="B255">
+        <v>505000000</v>
+      </c>
       <c r="C255">
         <v>5.05738048</v>
       </c>
@@ -4825,6 +5588,9 @@
       <c r="A256" s="1">
         <v>41370</v>
       </c>
+      <c r="B256">
+        <v>505000000</v>
+      </c>
       <c r="C256">
         <v>3.9445302400000002</v>
       </c>
@@ -4839,6 +5605,9 @@
       <c r="A257" s="1">
         <v>41371</v>
       </c>
+      <c r="B257">
+        <v>505000000</v>
+      </c>
       <c r="C257">
         <v>4.7883708799999996</v>
       </c>
@@ -4853,6 +5622,9 @@
       <c r="A258" s="1">
         <v>41372</v>
       </c>
+      <c r="B258">
+        <v>505000000</v>
+      </c>
       <c r="C258">
         <v>5.521776</v>
       </c>
@@ -4867,6 +5639,9 @@
       <c r="A259" s="1">
         <v>41373</v>
       </c>
+      <c r="B259">
+        <v>505000000</v>
+      </c>
       <c r="C259">
         <v>8.8348416000000007</v>
       </c>
@@ -4881,6 +5656,9 @@
       <c r="A260" s="1">
         <v>41374</v>
       </c>
+      <c r="B260">
+        <v>505000000</v>
+      </c>
       <c r="C260">
         <v>14.4982016</v>
       </c>
@@ -4895,6 +5673,9 @@
       <c r="A261" s="1">
         <v>41375</v>
       </c>
+      <c r="B261">
+        <v>505000000</v>
+      </c>
       <c r="C261">
         <v>14.724736</v>
       </c>
@@ -4909,6 +5690,9 @@
       <c r="A262" s="1">
         <v>41376</v>
       </c>
+      <c r="B262">
+        <v>505000000</v>
+      </c>
       <c r="C262">
         <v>11.213452800000001</v>
       </c>
@@ -4923,6 +5707,9 @@
       <c r="A263" s="1">
         <v>41377</v>
       </c>
+      <c r="B263">
+        <v>505000000</v>
+      </c>
       <c r="C263">
         <v>8.2685055999999992</v>
       </c>
@@ -4937,6 +5724,9 @@
       <c r="A264" s="1">
         <v>41378</v>
       </c>
+      <c r="B264">
+        <v>505000000</v>
+      </c>
       <c r="C264">
         <v>6.6544479999999995</v>
       </c>
@@ -4951,6 +5741,9 @@
       <c r="A265" s="1">
         <v>41379</v>
       </c>
+      <c r="B265">
+        <v>505000000</v>
+      </c>
       <c r="C265">
         <v>6.2296959999999997</v>
       </c>
@@ -4965,6 +5758,9 @@
       <c r="A266" s="1">
         <v>41380</v>
       </c>
+      <c r="B266">
+        <v>505000000</v>
+      </c>
       <c r="C266">
         <v>7.1641503999999996</v>
       </c>
@@ -4979,6 +5775,9 @@
       <c r="A267" s="1">
         <v>41381</v>
       </c>
+      <c r="B267">
+        <v>505000000</v>
+      </c>
       <c r="C267">
         <v>6.5694976</v>
       </c>
@@ -4993,6 +5792,9 @@
       <c r="A268" s="1">
         <v>41382</v>
       </c>
+      <c r="B268">
+        <v>505000000</v>
+      </c>
       <c r="C268">
         <v>9.2879103999999995</v>
       </c>
@@ -5007,6 +5809,9 @@
       <c r="A269" s="1">
         <v>41383</v>
       </c>
+      <c r="B269">
+        <v>505000000</v>
+      </c>
       <c r="C269">
         <v>12.4027584</v>
       </c>
@@ -5021,6 +5826,9 @@
       <c r="A270" s="1">
         <v>41384</v>
       </c>
+      <c r="B270">
+        <v>505000000</v>
+      </c>
       <c r="C270">
         <v>8.3817728000000002</v>
       </c>
@@ -5035,6 +5843,9 @@
       <c r="A271" s="1">
         <v>41385</v>
       </c>
+      <c r="B271">
+        <v>505000000</v>
+      </c>
       <c r="C271">
         <v>4.9271231999999996</v>
       </c>
@@ -5049,6 +5860,9 @@
       <c r="A272" s="1">
         <v>41386</v>
       </c>
+      <c r="B272">
+        <v>505000000</v>
+      </c>
       <c r="C272">
         <v>5.5189443200000001</v>
       </c>
@@ -5063,6 +5877,9 @@
       <c r="A273" s="1">
         <v>41387</v>
       </c>
+      <c r="B273">
+        <v>505000000</v>
+      </c>
       <c r="C273">
         <v>5.1253408</v>
       </c>
@@ -5077,6 +5894,9 @@
       <c r="A274" s="1">
         <v>41388</v>
       </c>
+      <c r="B274">
+        <v>505000000</v>
+      </c>
       <c r="C274">
         <v>3.6755206400000002</v>
       </c>
@@ -5091,6 +5911,9 @@
       <c r="A275" s="1">
         <v>41389</v>
       </c>
+      <c r="B275">
+        <v>505000000</v>
+      </c>
       <c r="C275">
         <v>4.7374006400000006</v>
       </c>
@@ -5105,6 +5928,9 @@
       <c r="A276" s="1">
         <v>41390</v>
       </c>
+      <c r="B276">
+        <v>505000000</v>
+      </c>
       <c r="C276">
         <v>2.9449472000000001</v>
       </c>
@@ -5119,6 +5945,9 @@
       <c r="A277" s="1">
         <v>41391</v>
       </c>
+      <c r="B277">
+        <v>505000000</v>
+      </c>
       <c r="C277">
         <v>4.93844992</v>
       </c>
@@ -5139,6 +5968,9 @@
       <c r="A278" s="1">
         <v>41392</v>
       </c>
+      <c r="B278">
+        <v>505000000</v>
+      </c>
       <c r="C278">
         <v>3.6500355200000003</v>
       </c>
@@ -5159,6 +5991,9 @@
       <c r="A279" s="1">
         <v>41393</v>
       </c>
+      <c r="B279">
+        <v>505000000</v>
+      </c>
       <c r="C279">
         <v>3.5679167999999999</v>
       </c>
@@ -5185,6 +6020,9 @@
       <c r="A280" s="1">
         <v>41394</v>
       </c>
+      <c r="B280">
+        <v>505000000</v>
+      </c>
       <c r="C280">
         <v>3.0582143999999998</v>
       </c>
@@ -5205,6 +6043,9 @@
       <c r="A281" s="1">
         <v>41395</v>
       </c>
+      <c r="B281">
+        <v>505000000</v>
+      </c>
       <c r="C281">
         <v>4.4825494400000006</v>
       </c>
@@ -5225,6 +6066,9 @@
       <c r="A282" s="1">
         <v>41396</v>
       </c>
+      <c r="B282">
+        <v>505000000</v>
+      </c>
       <c r="C282">
         <v>3.4065110399999998</v>
       </c>
@@ -5245,6 +6089,9 @@
       <c r="A283" s="1">
         <v>41397</v>
       </c>
+      <c r="B283">
+        <v>505000000</v>
+      </c>
       <c r="C283">
         <v>4.0351439999999998</v>
       </c>
@@ -5265,6 +6112,9 @@
       <c r="A284" s="1">
         <v>41398</v>
       </c>
+      <c r="B284">
+        <v>505000000</v>
+      </c>
       <c r="C284">
         <v>4.5023711999999998</v>
       </c>
@@ -5285,6 +6135,9 @@
       <c r="A285" s="1">
         <v>41399</v>
       </c>
+      <c r="B285">
+        <v>505000000</v>
+      </c>
       <c r="C285">
         <v>4.0493024000000002</v>
       </c>
@@ -5305,6 +6158,9 @@
       <c r="A286" s="1">
         <v>41400</v>
       </c>
+      <c r="B286">
+        <v>505000000</v>
+      </c>
       <c r="C286">
         <v>3.6868473599999998</v>
       </c>
@@ -5325,6 +6181,9 @@
       <c r="A287" s="1">
         <v>41401</v>
       </c>
+      <c r="B287">
+        <v>505000000</v>
+      </c>
       <c r="C287">
         <v>3.4801347200000001</v>
       </c>
@@ -5345,6 +6204,9 @@
       <c r="A288" s="1">
         <v>41402</v>
       </c>
+      <c r="B288">
+        <v>505000000</v>
+      </c>
       <c r="C288">
         <v>3.2252835200000001</v>
       </c>
@@ -5365,6 +6227,9 @@
       <c r="A289" s="1">
         <v>41403</v>
       </c>
+      <c r="B289">
+        <v>505000000</v>
+      </c>
       <c r="C289">
         <v>3.8284313599999997</v>
       </c>
@@ -5385,6 +6250,9 @@
       <c r="A290" s="1">
         <v>41404</v>
       </c>
+      <c r="B290">
+        <v>505000000</v>
+      </c>
       <c r="C290">
         <v>7.2491007999999999</v>
       </c>
@@ -5405,6 +6273,9 @@
       <c r="A291" s="1">
         <v>41405</v>
       </c>
+      <c r="B291">
+        <v>505000000</v>
+      </c>
       <c r="C291">
         <v>7.0792000000000002</v>
       </c>
@@ -5425,6 +6296,9 @@
       <c r="A292" s="1">
         <v>41406</v>
       </c>
+      <c r="B292">
+        <v>505000000</v>
+      </c>
       <c r="C292">
         <v>5.0403903999999997</v>
       </c>
@@ -5445,6 +6319,9 @@
       <c r="A293" s="1">
         <v>41407</v>
       </c>
+      <c r="B293">
+        <v>505000000</v>
+      </c>
       <c r="C293">
         <v>3.9048867199999999</v>
       </c>
@@ -5465,6 +6342,9 @@
       <c r="A294" s="1">
         <v>41408</v>
       </c>
+      <c r="B294">
+        <v>505000000</v>
+      </c>
       <c r="C294">
         <v>2.8826502399999998</v>
       </c>
@@ -5491,6 +6371,9 @@
       <c r="A295" s="1">
         <v>41409</v>
       </c>
+      <c r="B295">
+        <v>505000000</v>
+      </c>
       <c r="C295">
         <v>4.0776192</v>
       </c>
@@ -5511,6 +6394,9 @@
       <c r="A296" s="1">
         <v>41410</v>
       </c>
+      <c r="B296">
+        <v>505000000</v>
+      </c>
       <c r="C296">
         <v>3.0695411200000002</v>
       </c>
@@ -5531,6 +6417,9 @@
       <c r="A297" s="1">
         <v>41411</v>
       </c>
+      <c r="B297">
+        <v>505000000</v>
+      </c>
       <c r="C297">
         <v>4.5618364800000002</v>
       </c>
@@ -5551,6 +6440,9 @@
       <c r="A298" s="1">
         <v>41412</v>
       </c>
+      <c r="B298">
+        <v>505000000</v>
+      </c>
       <c r="C298">
         <v>4.7912025599999994</v>
       </c>
@@ -5571,6 +6463,9 @@
       <c r="A299" s="1">
         <v>41413</v>
       </c>
+      <c r="B299">
+        <v>505000000</v>
+      </c>
       <c r="C299">
         <v>3.36686752</v>
       </c>
@@ -5591,6 +6486,9 @@
       <c r="A300" s="1">
         <v>41414</v>
       </c>
+      <c r="B300">
+        <v>505000000</v>
+      </c>
       <c r="C300">
         <v>4.3891039999999997</v>
       </c>
@@ -5611,6 +6509,9 @@
       <c r="A301" s="1">
         <v>41415</v>
       </c>
+      <c r="B301">
+        <v>505000000</v>
+      </c>
       <c r="C301">
         <v>3.9162134400000004</v>
       </c>
@@ -5631,6 +6532,9 @@
       <c r="A302" s="1">
         <v>41416</v>
       </c>
+      <c r="B302">
+        <v>505000000</v>
+      </c>
       <c r="C302">
         <v>4.0011638400000002</v>
       </c>
@@ -5651,6 +6555,9 @@
       <c r="A303" s="1">
         <v>41417</v>
       </c>
+      <c r="B303">
+        <v>505000000</v>
+      </c>
       <c r="C303">
         <v>3.9473619200000001</v>
       </c>
@@ -5671,6 +6578,9 @@
       <c r="A304" s="1">
         <v>41418</v>
       </c>
+      <c r="B304">
+        <v>505000000</v>
+      </c>
       <c r="C304">
         <v>3.4291644799999998</v>
       </c>
@@ -5691,6 +6601,9 @@
       <c r="A305" s="1">
         <v>41419</v>
       </c>
+      <c r="B305">
+        <v>505000000</v>
+      </c>
       <c r="C305">
         <v>3.2337785600000002</v>
       </c>
@@ -5711,6 +6624,9 @@
       <c r="A306" s="1">
         <v>41420</v>
       </c>
+      <c r="B306">
+        <v>505000000</v>
+      </c>
       <c r="C306">
         <v>3.1205113600000001</v>
       </c>
@@ -5731,6 +6647,9 @@
       <c r="A307" s="1">
         <v>41421</v>
       </c>
+      <c r="B307">
+        <v>505000000</v>
+      </c>
       <c r="C307">
         <v>2.9534422399999998</v>
       </c>
@@ -5751,6 +6670,9 @@
       <c r="A308" s="1">
         <v>41422</v>
       </c>
+      <c r="B308">
+        <v>505000000</v>
+      </c>
       <c r="C308">
         <v>3.7944512000000001</v>
       </c>
@@ -5777,6 +6699,9 @@
       <c r="A309" s="1">
         <v>41423</v>
       </c>
+      <c r="B309">
+        <v>505000000</v>
+      </c>
       <c r="C309">
         <v>3.9926688000000001</v>
       </c>
@@ -5797,6 +6722,9 @@
       <c r="A310" s="1">
         <v>41424</v>
       </c>
+      <c r="B310">
+        <v>505000000</v>
+      </c>
       <c r="C310">
         <v>4.9554400000000003</v>
       </c>
@@ -5817,6 +6745,9 @@
       <c r="A311" s="1">
         <v>41425</v>
       </c>
+      <c r="B311">
+        <v>505000000</v>
+      </c>
       <c r="C311">
         <v>7.3057343999999995</v>
       </c>
@@ -5837,6 +6768,9 @@
       <c r="A312" s="1">
         <v>41426</v>
       </c>
+      <c r="B312">
+        <v>505000000</v>
+      </c>
       <c r="C312">
         <v>5.0064102400000001</v>
       </c>
@@ -5857,6 +6791,9 @@
       <c r="A313" s="1">
         <v>41427</v>
       </c>
+      <c r="B313">
+        <v>505000000</v>
+      </c>
       <c r="C313">
         <v>3.8539164799999996</v>
       </c>
@@ -5877,6 +6814,9 @@
       <c r="A314" s="1">
         <v>41428</v>
       </c>
+      <c r="B314">
+        <v>505000000</v>
+      </c>
       <c r="C314">
         <v>3.1488281599999999</v>
       </c>
@@ -5897,6 +6837,9 @@
       <c r="A315" s="1">
         <v>41429</v>
       </c>
+      <c r="B315">
+        <v>505000000</v>
+      </c>
       <c r="C315">
         <v>3.14599648</v>
       </c>
@@ -5917,6 +6860,9 @@
       <c r="A316" s="1">
         <v>41430</v>
       </c>
+      <c r="B316">
+        <v>505000000</v>
+      </c>
       <c r="C316">
         <v>3.0950262399999997</v>
       </c>
@@ -5937,6 +6883,9 @@
       <c r="A317" s="1">
         <v>41431</v>
       </c>
+      <c r="B317">
+        <v>505000000</v>
+      </c>
       <c r="C317">
         <v>3.9473619200000001</v>
       </c>
@@ -5957,6 +6906,9 @@
       <c r="A318" s="1">
         <v>41432</v>
       </c>
+      <c r="B318">
+        <v>505000000</v>
+      </c>
       <c r="C318">
         <v>3.29607552</v>
       </c>
@@ -5977,6 +6929,9 @@
       <c r="A319" s="1">
         <v>41433</v>
       </c>
+      <c r="B319">
+        <v>505000000</v>
+      </c>
       <c r="C319">
         <v>3.1771449600000001</v>
       </c>
@@ -5997,6 +6952,9 @@
       <c r="A320" s="1">
         <v>41434</v>
       </c>
+      <c r="B320">
+        <v>505000000</v>
+      </c>
       <c r="C320">
         <v>2.690096</v>
       </c>
@@ -6017,6 +6975,9 @@
       <c r="A321" s="1">
         <v>41435</v>
       </c>
+      <c r="B321">
+        <v>505000000</v>
+      </c>
       <c r="C321">
         <v>3.2111251200000002</v>
       </c>
@@ -6043,6 +7004,9 @@
       <c r="A322" s="1">
         <v>41436</v>
       </c>
+      <c r="B322">
+        <v>505000000</v>
+      </c>
       <c r="C322">
         <v>2.86566016</v>
       </c>
@@ -6063,6 +7027,9 @@
       <c r="A323" s="1">
         <v>41437</v>
       </c>
+      <c r="B323">
+        <v>505000000</v>
+      </c>
       <c r="C323">
         <v>3.1006895999999999</v>
       </c>
@@ -6083,6 +7050,9 @@
       <c r="A324" s="1">
         <v>41438</v>
       </c>
+      <c r="B324">
+        <v>505000000</v>
+      </c>
       <c r="C324">
         <v>6.3429631999999998</v>
       </c>
@@ -6103,6 +7073,9 @@
       <c r="A325" s="1">
         <v>41439</v>
       </c>
+      <c r="B325">
+        <v>505000000</v>
+      </c>
       <c r="C325">
         <v>4.1342527999999996</v>
       </c>
@@ -6123,6 +7096,9 @@
       <c r="A326" s="1">
         <v>41440</v>
       </c>
+      <c r="B326">
+        <v>505000000</v>
+      </c>
       <c r="C326">
         <v>3.7916195200000002</v>
       </c>
@@ -6143,6 +7119,9 @@
       <c r="A327" s="1">
         <v>41441</v>
       </c>
+      <c r="B327">
+        <v>505000000</v>
+      </c>
       <c r="C327">
         <v>4.6156383999999999</v>
       </c>
@@ -6163,6 +7142,9 @@
       <c r="A328" s="1">
         <v>41442</v>
       </c>
+      <c r="B328">
+        <v>505000000</v>
+      </c>
       <c r="C328">
         <v>3.6245504</v>
       </c>
@@ -6183,6 +7165,9 @@
       <c r="A329" s="1">
         <v>41443</v>
       </c>
+      <c r="B329">
+        <v>505000000</v>
+      </c>
       <c r="C329">
         <v>2.9506105599999999</v>
       </c>
@@ -6203,6 +7188,9 @@
       <c r="A330" s="1">
         <v>41444</v>
       </c>
+      <c r="B330">
+        <v>505000000</v>
+      </c>
       <c r="C330">
         <v>2.6957593599999998</v>
       </c>
@@ -6223,6 +7211,9 @@
       <c r="A331" s="1">
         <v>41445</v>
       </c>
+      <c r="B331">
+        <v>505000000</v>
+      </c>
       <c r="C331">
         <v>2.6702742399999999</v>
       </c>
@@ -6243,6 +7234,9 @@
       <c r="A332" s="1">
         <v>41446</v>
       </c>
+      <c r="B332">
+        <v>505000000</v>
+      </c>
       <c r="C332">
         <v>3.3555408</v>
       </c>
@@ -6263,6 +7257,9 @@
       <c r="A333" s="1">
         <v>41447</v>
       </c>
+      <c r="B333">
+        <v>505000000</v>
+      </c>
       <c r="C333">
         <v>4.7289056</v>
       </c>
@@ -6283,6 +7280,9 @@
       <c r="A334" s="1">
         <v>41448</v>
       </c>
+      <c r="B334">
+        <v>505000000</v>
+      </c>
       <c r="C334">
         <v>15.687507200000001</v>
       </c>
@@ -6303,6 +7303,9 @@
       <c r="A335" s="1">
         <v>41449</v>
       </c>
+      <c r="B335">
+        <v>505000000</v>
+      </c>
       <c r="C335">
         <v>14.4982016</v>
       </c>
@@ -6329,6 +7332,9 @@
       <c r="A336" s="1">
         <v>41450</v>
       </c>
+      <c r="B336">
+        <v>505000000</v>
+      </c>
       <c r="C336">
         <v>10.477216</v>
       </c>
@@ -6349,6 +7355,9 @@
       <c r="A337" s="1">
         <v>41451</v>
       </c>
+      <c r="B337">
+        <v>505000000</v>
+      </c>
       <c r="C337">
         <v>30.808678399999998</v>
       </c>
@@ -6369,6 +7378,9 @@
       <c r="A338" s="1">
         <v>41452</v>
       </c>
+      <c r="B338">
+        <v>505000000</v>
+      </c>
       <c r="C338">
         <v>24.012646400000001</v>
       </c>
@@ -6389,6 +7401,9 @@
       <c r="A339" s="1">
         <v>41453</v>
       </c>
+      <c r="B339">
+        <v>505000000</v>
+      </c>
       <c r="C339">
         <v>9.9958303999999991</v>
       </c>
@@ -6409,6 +7424,9 @@
       <c r="A340" s="1">
         <v>41454</v>
       </c>
+      <c r="B340">
+        <v>505000000</v>
+      </c>
       <c r="C340">
         <v>7.0225663999999997</v>
       </c>
@@ -6429,6 +7447,9 @@
       <c r="A341" s="1">
         <v>41455</v>
       </c>
+      <c r="B341">
+        <v>505000000</v>
+      </c>
       <c r="C341">
         <v>6.4845471999999997</v>
       </c>
@@ -6449,6 +7470,9 @@
       <c r="A342" s="1">
         <v>41456</v>
       </c>
+      <c r="B342">
+        <v>505000000</v>
+      </c>
       <c r="C342">
         <v>6.1447456000000003</v>
       </c>
@@ -6469,6 +7493,9 @@
       <c r="A343" s="1">
         <v>41457</v>
       </c>
+      <c r="B343">
+        <v>505000000</v>
+      </c>
       <c r="C343">
         <v>5.4085087999999999</v>
       </c>
@@ -6489,6 +7516,9 @@
       <c r="A344" s="1">
         <v>41458</v>
       </c>
+      <c r="B344">
+        <v>505000000</v>
+      </c>
       <c r="C344">
         <v>5.0120735999999999</v>
       </c>
@@ -6509,6 +7539,9 @@
       <c r="A345" s="1">
         <v>41459</v>
       </c>
+      <c r="B345">
+        <v>505000000</v>
+      </c>
       <c r="C345">
         <v>4.4174208000000004</v>
       </c>
@@ -6529,6 +7562,9 @@
       <c r="A346" s="1">
         <v>41460</v>
       </c>
+      <c r="B346">
+        <v>505000000</v>
+      </c>
       <c r="C346">
         <v>3.9643519999999999</v>
       </c>
@@ -6549,6 +7585,9 @@
       <c r="A347" s="1">
         <v>41461</v>
       </c>
+      <c r="B347">
+        <v>505000000</v>
+      </c>
       <c r="C347">
         <v>3.8510847999999998</v>
       </c>
@@ -6569,6 +7608,9 @@
       <c r="A348" s="1">
         <v>41462</v>
       </c>
+      <c r="B348">
+        <v>505000000</v>
+      </c>
       <c r="C348">
         <v>3.5396000000000001</v>
       </c>
@@ -6589,6 +7631,9 @@
       <c r="A349" s="1">
         <v>41463</v>
       </c>
+      <c r="B349">
+        <v>505000000</v>
+      </c>
       <c r="C349">
         <v>4.1908864000000001</v>
       </c>
@@ -6615,6 +7660,9 @@
       <c r="A350" s="1">
         <v>41464</v>
       </c>
+      <c r="B350">
+        <v>505000000</v>
+      </c>
       <c r="C350">
         <v>4.4457376000000002</v>
       </c>
@@ -6635,6 +7683,9 @@
       <c r="A351" s="1">
         <v>41465</v>
       </c>
+      <c r="B351">
+        <v>505000000</v>
+      </c>
       <c r="C351">
         <v>6.2580127999999995</v>
       </c>
@@ -6655,6 +7706,9 @@
       <c r="A352" s="1">
         <v>41466</v>
       </c>
+      <c r="B352">
+        <v>505000000</v>
+      </c>
       <c r="C352">
         <v>4.5873216000000001</v>
       </c>
@@ -6675,6 +7729,9 @@
       <c r="A353" s="1">
         <v>41467</v>
       </c>
+      <c r="B353">
+        <v>505000000</v>
+      </c>
       <c r="C353">
         <v>3.6188870399999997</v>
       </c>
@@ -6695,6 +7752,9 @@
       <c r="A354" s="1">
         <v>41468</v>
       </c>
+      <c r="B354">
+        <v>505000000</v>
+      </c>
       <c r="C354">
         <v>3.5934019200000002</v>
       </c>
@@ -6715,6 +7775,9 @@
       <c r="A355" s="1">
         <v>41469</v>
       </c>
+      <c r="B355">
+        <v>505000000</v>
+      </c>
       <c r="C355">
         <v>3.3725308799999998</v>
       </c>
@@ -6735,6 +7798,9 @@
       <c r="A356" s="1">
         <v>41470</v>
       </c>
+      <c r="B356">
+        <v>505000000</v>
+      </c>
       <c r="C356">
         <v>3.1488281599999999</v>
       </c>
@@ -6755,6 +7821,9 @@
       <c r="A357" s="1">
         <v>41471</v>
       </c>
+      <c r="B357">
+        <v>505000000</v>
+      </c>
       <c r="C357">
         <v>3.1035212799999998</v>
       </c>
@@ -6775,6 +7844,9 @@
       <c r="A358" s="1">
         <v>41472</v>
       </c>
+      <c r="B358">
+        <v>505000000</v>
+      </c>
       <c r="C358">
         <v>3.2281152</v>
       </c>
@@ -6795,6 +7867,9 @@
       <c r="A359" s="1">
         <v>41473</v>
       </c>
+      <c r="B359">
+        <v>505000000</v>
+      </c>
       <c r="C359">
         <v>2.5315219200000003</v>
       </c>
@@ -6815,6 +7890,9 @@
       <c r="A360" s="1">
         <v>41474</v>
       </c>
+      <c r="B360">
+        <v>505000000</v>
+      </c>
       <c r="C360">
         <v>3.4773030399999998</v>
       </c>
@@ -6835,6 +7913,9 @@
       <c r="A361" s="1">
         <v>41475</v>
       </c>
+      <c r="B361">
+        <v>505000000</v>
+      </c>
       <c r="C361">
         <v>3.2875804799999999</v>
       </c>
@@ -6855,6 +7936,9 @@
       <c r="A362" s="1">
         <v>41476</v>
       </c>
+      <c r="B362">
+        <v>505000000</v>
+      </c>
       <c r="C362">
         <v>3.2904121600000003</v>
       </c>
@@ -6875,6 +7959,9 @@
       <c r="A363" s="1">
         <v>41477</v>
       </c>
+      <c r="B363">
+        <v>505000000</v>
+      </c>
       <c r="C363">
         <v>3.7661343999999999</v>
       </c>
@@ -6901,6 +7988,9 @@
       <c r="A364" s="1">
         <v>41478</v>
       </c>
+      <c r="B364">
+        <v>505000000</v>
+      </c>
       <c r="C364">
         <v>4.66094528</v>
       </c>
@@ -6921,6 +8011,9 @@
       <c r="A365" s="1">
         <v>41479</v>
       </c>
+      <c r="B365">
+        <v>505000000</v>
+      </c>
       <c r="C365">
         <v>3.23944192</v>
       </c>
@@ -6941,6 +8034,9 @@
       <c r="A366" s="1">
         <v>41480</v>
       </c>
+      <c r="B366">
+        <v>505000000</v>
+      </c>
       <c r="C366">
         <v>2.6306307200000001</v>
       </c>
@@ -6961,6 +8057,9 @@
       <c r="A367" s="1">
         <v>41481</v>
       </c>
+      <c r="B367">
+        <v>505000000</v>
+      </c>
       <c r="C367">
         <v>3.6726889599999994</v>
       </c>
@@ -6981,6 +8080,9 @@
       <c r="A368" s="1">
         <v>41482</v>
       </c>
+      <c r="B368">
+        <v>505000000</v>
+      </c>
       <c r="C368">
         <v>3.2111251200000002</v>
       </c>
@@ -7001,6 +8103,9 @@
       <c r="A369" s="1">
         <v>41483</v>
       </c>
+      <c r="B369">
+        <v>505000000</v>
+      </c>
       <c r="C369">
         <v>3.19130336</v>
       </c>
@@ -7021,6 +8126,9 @@
       <c r="A370" s="1">
         <v>41484</v>
       </c>
+      <c r="B370">
+        <v>505000000</v>
+      </c>
       <c r="C370">
         <v>3.01857088</v>
       </c>
@@ -7041,6 +8149,9 @@
       <c r="A371" s="1">
         <v>41485</v>
       </c>
+      <c r="B371">
+        <v>505000000</v>
+      </c>
       <c r="C371">
         <v>2.8146899200000002</v>
       </c>
@@ -7055,6 +8166,9 @@
       <c r="A372" s="1">
         <v>41486</v>
       </c>
+      <c r="B372">
+        <v>505000000</v>
+      </c>
       <c r="C372">
         <v>2.89964032</v>
       </c>
@@ -7075,6 +8189,9 @@
       <c r="A373" s="1">
         <v>41487</v>
       </c>
+      <c r="B373">
+        <v>505000000</v>
+      </c>
       <c r="C373">
         <v>2.7807097600000001</v>
       </c>
@@ -7095,6 +8212,9 @@
       <c r="A374" s="1">
         <v>41488</v>
       </c>
+      <c r="B374">
+        <v>505000000</v>
+      </c>
       <c r="C374">
         <v>2.7438979200000002</v>
       </c>
@@ -7115,6 +8235,9 @@
       <c r="A375" s="1">
         <v>41489</v>
       </c>
+      <c r="B375">
+        <v>505000000</v>
+      </c>
       <c r="C375">
         <v>2.4862150399999998</v>
       </c>
@@ -7135,6 +8258,9 @@
       <c r="A376" s="1">
         <v>41490</v>
       </c>
+      <c r="B376">
+        <v>505000000</v>
+      </c>
       <c r="C376">
         <v>2.2795024000000002</v>
       </c>
@@ -7155,6 +8281,9 @@
       <c r="A377" s="1">
         <v>41491</v>
       </c>
+      <c r="B377">
+        <v>505000000</v>
+      </c>
       <c r="C377">
         <v>2.4267497599999999</v>
       </c>
@@ -7181,6 +8310,9 @@
       <c r="A378" s="1">
         <v>41492</v>
       </c>
+      <c r="B378">
+        <v>505000000</v>
+      </c>
       <c r="C378">
         <v>2.4040963200000003</v>
       </c>
@@ -7201,6 +8333,9 @@
       <c r="A379" s="1">
         <v>41493</v>
       </c>
+      <c r="B379">
+        <v>505000000</v>
+      </c>
       <c r="C379">
         <v>2.6079772799999996</v>
       </c>
@@ -7221,6 +8356,9 @@
       <c r="A380" s="1">
         <v>41494</v>
       </c>
+      <c r="B380">
+        <v>505000000</v>
+      </c>
       <c r="C380">
         <v>2.2766707200000003</v>
       </c>
@@ -7241,6 +8379,9 @@
       <c r="A381" s="1">
         <v>41495</v>
       </c>
+      <c r="B381">
+        <v>505000000</v>
+      </c>
       <c r="C381">
         <v>2.33047264</v>
       </c>
@@ -7261,6 +8402,9 @@
       <c r="A382" s="1">
         <v>41496</v>
       </c>
+      <c r="B382">
+        <v>505000000</v>
+      </c>
       <c r="C382">
         <v>2.2653439999999998</v>
       </c>
@@ -7281,6 +8425,9 @@
       <c r="A383" s="1">
         <v>41497</v>
       </c>
+      <c r="B383">
+        <v>505000000</v>
+      </c>
       <c r="C383">
         <v>2.1747302399999997</v>
       </c>
@@ -7301,6 +8448,9 @@
       <c r="A384" s="1">
         <v>41498</v>
       </c>
+      <c r="B384">
+        <v>505000000</v>
+      </c>
       <c r="C384">
         <v>2.1294233600000001</v>
       </c>
@@ -7321,6 +8471,9 @@
       <c r="A385" s="1">
         <v>41499</v>
       </c>
+      <c r="B385">
+        <v>505000000</v>
+      </c>
       <c r="C385">
         <v>2.1605718399999998</v>
       </c>
@@ -7341,6 +8494,9 @@
       <c r="A386" s="1">
         <v>41500</v>
       </c>
+      <c r="B386">
+        <v>505000000</v>
+      </c>
       <c r="C386">
         <v>2.0954432000000001</v>
       </c>
@@ -7361,6 +8517,9 @@
       <c r="A387" s="1">
         <v>41501</v>
       </c>
+      <c r="B387">
+        <v>505000000</v>
+      </c>
       <c r="C387">
         <v>2.1379183999999998</v>
       </c>
@@ -7381,6 +8540,9 @@
       <c r="A388" s="1">
         <v>41502</v>
       </c>
+      <c r="B388">
+        <v>505000000</v>
+      </c>
       <c r="C388">
         <v>2.1039382399999997</v>
       </c>
@@ -7401,6 +8563,9 @@
       <c r="A389" s="1">
         <v>41503</v>
       </c>
+      <c r="B389">
+        <v>505000000</v>
+      </c>
       <c r="C389">
         <v>1.8972256000000001</v>
       </c>
@@ -7421,6 +8586,9 @@
       <c r="A390" s="1">
         <v>41504</v>
       </c>
+      <c r="B390">
+        <v>505000000</v>
+      </c>
       <c r="C390">
         <v>2.00482944</v>
       </c>
@@ -7441,6 +8609,9 @@
       <c r="A391" s="1">
         <v>41505</v>
       </c>
+      <c r="B391">
+        <v>505000000</v>
+      </c>
       <c r="C391">
         <v>2.0642947199999999</v>
       </c>
@@ -7461,6 +8632,9 @@
       <c r="A392" s="1">
         <v>41506</v>
       </c>
+      <c r="B392">
+        <v>505000000</v>
+      </c>
       <c r="C392">
         <v>1.70750304</v>
       </c>
@@ -7481,6 +8655,9 @@
       <c r="A393" s="1">
         <v>41507</v>
       </c>
+      <c r="B393">
+        <v>505000000</v>
+      </c>
       <c r="C393">
         <v>1.8094435199999999</v>
       </c>
@@ -7507,6 +8684,9 @@
       <c r="A394" s="1">
         <v>41508</v>
       </c>
+      <c r="B394">
+        <v>505000000</v>
+      </c>
       <c r="C394">
         <v>3.01857088</v>
       </c>
@@ -7527,6 +8707,9 @@
       <c r="A395" s="1">
         <v>41509</v>
       </c>
+      <c r="B395">
+        <v>505000000</v>
+      </c>
       <c r="C395">
         <v>3.9360352000000001</v>
       </c>
@@ -7547,6 +8730,9 @@
       <c r="A396" s="1">
         <v>41510</v>
       </c>
+      <c r="B396">
+        <v>505000000</v>
+      </c>
       <c r="C396">
         <v>2.62213568</v>
       </c>
@@ -7567,6 +8753,9 @@
       <c r="A397" s="1">
         <v>41511</v>
       </c>
+      <c r="B397">
+        <v>505000000</v>
+      </c>
       <c r="C397">
         <v>2.2511855999999999</v>
       </c>
@@ -7587,6 +8776,9 @@
       <c r="A398" s="1">
         <v>41512</v>
       </c>
+      <c r="B398">
+        <v>505000000</v>
+      </c>
       <c r="C398">
         <v>2.2738390399999999</v>
       </c>
@@ -7607,6 +8799,9 @@
       <c r="A399" s="1">
         <v>41513</v>
       </c>
+      <c r="B399">
+        <v>505000000</v>
+      </c>
       <c r="C399">
         <v>2.1464134399999999</v>
       </c>
@@ -7627,6 +8822,9 @@
       <c r="A400" s="1">
         <v>41514</v>
       </c>
+      <c r="B400">
+        <v>505000000</v>
+      </c>
       <c r="C400">
         <v>2.2002153600000001</v>
       </c>
@@ -7647,6 +8845,9 @@
       <c r="A401" s="1">
         <v>41515</v>
       </c>
+      <c r="B401">
+        <v>505000000</v>
+      </c>
       <c r="C401">
         <v>1.7981168000000001</v>
       </c>
@@ -7667,6 +8868,9 @@
       <c r="A402" s="1">
         <v>41516</v>
       </c>
+      <c r="B402">
+        <v>505000000</v>
+      </c>
       <c r="C402">
         <v>2.35312608</v>
       </c>
@@ -7687,6 +8891,9 @@
       <c r="A403" s="1">
         <v>41517</v>
       </c>
+      <c r="B403">
+        <v>505000000</v>
+      </c>
       <c r="C403">
         <v>1.8490870399999999</v>
       </c>
@@ -7707,6 +8914,9 @@
       <c r="A404" s="1">
         <v>41518</v>
       </c>
+      <c r="B404">
+        <v>505000000</v>
+      </c>
       <c r="C404">
         <v>2.0189878399999999</v>
       </c>
@@ -7727,6 +8937,9 @@
       <c r="A405" s="1">
         <v>41519</v>
       </c>
+      <c r="B405">
+        <v>505000000</v>
+      </c>
       <c r="C405">
         <v>2.1350867200000003</v>
       </c>
@@ -7747,6 +8960,9 @@
       <c r="A406" s="1">
         <v>41520</v>
       </c>
+      <c r="B406">
+        <v>505000000</v>
+      </c>
       <c r="C406">
         <v>1.9566908799999998</v>
       </c>
@@ -7767,6 +8983,9 @@
       <c r="A407" s="1">
         <v>41521</v>
       </c>
+      <c r="B407">
+        <v>505000000</v>
+      </c>
       <c r="C407">
         <v>2.0586313600000001</v>
       </c>
@@ -7793,6 +9012,9 @@
       <c r="A408" s="1">
         <v>41522</v>
       </c>
+      <c r="B408">
+        <v>505000000</v>
+      </c>
       <c r="C408">
         <v>1.80094848</v>
       </c>
@@ -7813,6 +9035,9 @@
       <c r="A409" s="1">
         <v>41523</v>
       </c>
+      <c r="B409">
+        <v>505000000</v>
+      </c>
       <c r="C409">
         <v>1.7867900800000001</v>
       </c>
@@ -7833,6 +9058,9 @@
       <c r="A410" s="1">
         <v>41524</v>
       </c>
+      <c r="B410">
+        <v>505000000</v>
+      </c>
       <c r="C410">
         <v>2.2058787200000003</v>
       </c>
@@ -7853,6 +9081,9 @@
       <c r="A411" s="1">
         <v>41525</v>
       </c>
+      <c r="B411">
+        <v>505000000</v>
+      </c>
       <c r="C411">
         <v>1.7782950399999999</v>
       </c>
@@ -7873,6 +9104,9 @@
       <c r="A412" s="1">
         <v>41526</v>
       </c>
+      <c r="B412">
+        <v>505000000</v>
+      </c>
       <c r="C412">
         <v>1.63671104</v>
       </c>
@@ -7893,6 +9127,9 @@
       <c r="A413" s="1">
         <v>41527</v>
       </c>
+      <c r="B413">
+        <v>505000000</v>
+      </c>
       <c r="C413">
         <v>1.74714656</v>
       </c>
@@ -7913,6 +9150,9 @@
       <c r="A414" s="1">
         <v>41528</v>
       </c>
+      <c r="B414">
+        <v>505000000</v>
+      </c>
       <c r="C414">
         <v>2.22570048</v>
       </c>
@@ -7933,6 +9173,9 @@
       <c r="A415" s="1">
         <v>41529</v>
       </c>
+      <c r="B415">
+        <v>505000000</v>
+      </c>
       <c r="C415">
         <v>2.22570048</v>
       </c>
@@ -7953,6 +9196,9 @@
       <c r="A416" s="1">
         <v>41530</v>
       </c>
+      <c r="B416">
+        <v>505000000</v>
+      </c>
       <c r="C416">
         <v>1.8434236799999999</v>
       </c>
@@ -7973,6 +9219,9 @@
       <c r="A417" s="1">
         <v>41531</v>
       </c>
+      <c r="B417">
+        <v>505000000</v>
+      </c>
       <c r="C417">
         <v>1.6112259199999999</v>
       </c>
@@ -7993,6 +9242,9 @@
       <c r="A418" s="1">
         <v>41532</v>
       </c>
+      <c r="B418">
+        <v>505000000</v>
+      </c>
       <c r="C418">
         <v>2.74956128</v>
       </c>
@@ -8013,6 +9265,9 @@
       <c r="A419" s="1">
         <v>41533</v>
       </c>
+      <c r="B419">
+        <v>505000000</v>
+      </c>
       <c r="C419">
         <v>2.2285321599999999</v>
       </c>
@@ -8033,6 +9288,9 @@
       <c r="A420" s="1">
         <v>41534</v>
       </c>
+      <c r="B420">
+        <v>505000000</v>
+      </c>
       <c r="C420">
         <v>1.9481958399999999</v>
       </c>
@@ -8053,6 +9311,9 @@
       <c r="A421" s="1">
         <v>41535</v>
       </c>
+      <c r="B421">
+        <v>505000000</v>
+      </c>
       <c r="C421">
         <v>2.0642947199999999</v>
       </c>
@@ -8073,6 +9334,9 @@
       <c r="A422" s="1">
         <v>41536</v>
       </c>
+      <c r="B422">
+        <v>505000000</v>
+      </c>
       <c r="C422">
         <v>1.8122752</v>
       </c>
@@ -8093,6 +9357,9 @@
       <c r="A423" s="1">
         <v>41537</v>
       </c>
+      <c r="B423">
+        <v>505000000</v>
+      </c>
       <c r="C423">
         <v>4.4457376000000002</v>
       </c>
@@ -8113,6 +9380,9 @@
       <c r="A424" s="1">
         <v>41538</v>
       </c>
+      <c r="B424">
+        <v>505000000</v>
+      </c>
       <c r="C424">
         <v>3.8510847999999998</v>
       </c>
@@ -8133,6 +9403,9 @@
       <c r="A425" s="1">
         <v>41539</v>
       </c>
+      <c r="B425">
+        <v>505000000</v>
+      </c>
       <c r="C425">
         <v>2.71558112</v>
       </c>
@@ -8153,6 +9426,9 @@
       <c r="A426" s="1">
         <v>41540</v>
       </c>
+      <c r="B426">
+        <v>505000000</v>
+      </c>
       <c r="C426">
         <v>2.4097596799999996</v>
       </c>
@@ -8173,6 +9449,9 @@
       <c r="A427" s="1">
         <v>41541</v>
       </c>
+      <c r="B427">
+        <v>505000000</v>
+      </c>
       <c r="C427">
         <v>2.3276409600000001</v>
       </c>
@@ -8193,6 +9472,9 @@
       <c r="A428" s="1">
         <v>41542</v>
       </c>
+      <c r="B428">
+        <v>505000000</v>
+      </c>
       <c r="C428">
         <v>2.2058787200000003</v>
       </c>
@@ -8213,6 +9495,9 @@
       <c r="A429" s="1">
         <v>41543</v>
       </c>
+      <c r="B429">
+        <v>505000000</v>
+      </c>
       <c r="C429">
         <v>2.1464134399999999</v>
       </c>
@@ -8233,6 +9518,9 @@
       <c r="A430" s="1">
         <v>41544</v>
       </c>
+      <c r="B430">
+        <v>505000000</v>
+      </c>
       <c r="C430">
         <v>2.1152649600000002</v>
       </c>
@@ -8253,6 +9541,9 @@
       <c r="A431" s="1">
         <v>41545</v>
       </c>
+      <c r="B431">
+        <v>505000000</v>
+      </c>
       <c r="C431">
         <v>1.5998992000000001</v>
       </c>
@@ -8273,6 +9564,9 @@
       <c r="A432" s="1">
         <v>41546</v>
       </c>
+      <c r="B432">
+        <v>505000000</v>
+      </c>
       <c r="C432">
         <v>2.5683337600000002</v>
       </c>
@@ -8293,6 +9587,9 @@
       <c r="A433" s="1">
         <v>41547</v>
       </c>
+      <c r="B433">
+        <v>505000000</v>
+      </c>
       <c r="C433">
         <v>1.94536416</v>
       </c>
@@ -8319,6 +9616,9 @@
       <c r="A434" s="1">
         <v>41548</v>
       </c>
+      <c r="B434">
+        <v>505000000</v>
+      </c>
       <c r="C434">
         <v>2.3672844799999999</v>
       </c>
@@ -8339,6 +9639,9 @@
       <c r="A435" s="1">
         <v>41549</v>
       </c>
+      <c r="B435">
+        <v>505000000</v>
+      </c>
       <c r="C435">
         <v>2.09827488</v>
       </c>
@@ -8359,6 +9662,9 @@
       <c r="A436" s="1">
         <v>41550</v>
       </c>
+      <c r="B436">
+        <v>505000000</v>
+      </c>
       <c r="C436">
         <v>2.09827488</v>
       </c>
@@ -8379,6 +9685,9 @@
       <c r="A437" s="1">
         <v>41551</v>
       </c>
+      <c r="B437">
+        <v>505000000</v>
+      </c>
       <c r="C437">
         <v>2.4324131200000001</v>
       </c>
@@ -8399,6 +9708,9 @@
       <c r="A438" s="1">
         <v>41552</v>
       </c>
+      <c r="B438">
+        <v>505000000</v>
+      </c>
       <c r="C438">
         <v>1.79528512</v>
       </c>
@@ -8419,6 +9731,9 @@
       <c r="A439" s="1">
         <v>41553</v>
       </c>
+      <c r="B439">
+        <v>505000000</v>
+      </c>
       <c r="C439">
         <v>2.6391257600000002</v>
       </c>
@@ -8439,6 +9754,9 @@
       <c r="A440" s="1">
         <v>41554</v>
       </c>
+      <c r="B440">
+        <v>505000000</v>
+      </c>
       <c r="C440">
         <v>2.6929276799999999</v>
       </c>
@@ -8459,6 +9777,9 @@
       <c r="A441" s="1">
         <v>41555</v>
       </c>
+      <c r="B441">
+        <v>505000000</v>
+      </c>
       <c r="C441">
         <v>2.0303145599999999</v>
       </c>
@@ -8479,6 +9800,9 @@
       <c r="A442" s="1">
         <v>41556</v>
       </c>
+      <c r="B442">
+        <v>505000000</v>
+      </c>
       <c r="C442">
         <v>2.2993241599999998</v>
       </c>
@@ -8499,6 +9823,9 @@
       <c r="A443" s="1">
         <v>41557</v>
       </c>
+      <c r="B443">
+        <v>505000000</v>
+      </c>
       <c r="C443">
         <v>2.1520768000000001</v>
       </c>
@@ -8519,6 +9846,9 @@
       <c r="A444" s="1">
         <v>41558</v>
       </c>
+      <c r="B444">
+        <v>505000000</v>
+      </c>
       <c r="C444">
         <v>1.8689088</v>
       </c>
@@ -8539,6 +9869,9 @@
       <c r="A445" s="1">
         <v>41559</v>
       </c>
+      <c r="B445">
+        <v>505000000</v>
+      </c>
       <c r="C445">
         <v>2.0359779200000001</v>
       </c>
@@ -8559,6 +9892,9 @@
       <c r="A446" s="1">
         <v>41560</v>
       </c>
+      <c r="B446">
+        <v>505000000</v>
+      </c>
       <c r="C446">
         <v>2.2625123199999999</v>
       </c>
@@ -8579,6 +9915,9 @@
       <c r="A447" s="1">
         <v>41561</v>
       </c>
+      <c r="B447">
+        <v>505000000</v>
+      </c>
       <c r="C447">
         <v>2.1152649600000002</v>
       </c>
@@ -8599,6 +9938,9 @@
       <c r="A448" s="1">
         <v>41562</v>
       </c>
+      <c r="B448">
+        <v>505000000</v>
+      </c>
       <c r="C448">
         <v>1.5574239999999999</v>
       </c>
@@ -8619,6 +9961,9 @@
       <c r="A449" s="1">
         <v>41563</v>
       </c>
+      <c r="B449">
+        <v>505000000</v>
+      </c>
       <c r="C449">
         <v>2.8061948799999996</v>
       </c>
@@ -8639,6 +9984,9 @@
       <c r="A450" s="1">
         <v>41564</v>
       </c>
+      <c r="B450">
+        <v>505000000</v>
+      </c>
       <c r="C450">
         <v>2.1888886400000001</v>
       </c>
@@ -8659,6 +10007,9 @@
       <c r="A451" s="1">
         <v>41565</v>
       </c>
+      <c r="B451">
+        <v>505000000</v>
+      </c>
       <c r="C451">
         <v>2.2200371200000002</v>
       </c>
@@ -8679,6 +10030,9 @@
       <c r="A452" s="1">
         <v>41566</v>
       </c>
+      <c r="B452">
+        <v>505000000</v>
+      </c>
       <c r="C452">
         <v>1.9906710399999998</v>
       </c>
@@ -8699,6 +10053,9 @@
       <c r="A453" s="1">
         <v>41567</v>
       </c>
+      <c r="B453">
+        <v>505000000</v>
+      </c>
       <c r="C453">
         <v>2.0699580799999997</v>
       </c>
@@ -8719,6 +10076,9 @@
       <c r="A454" s="1">
         <v>41568</v>
       </c>
+      <c r="B454">
+        <v>505000000</v>
+      </c>
       <c r="C454">
         <v>2.5343535999999998</v>
       </c>
@@ -8739,6 +10099,9 @@
       <c r="A455" s="1">
         <v>41569</v>
       </c>
+      <c r="B455">
+        <v>505000000</v>
+      </c>
       <c r="C455">
         <v>2.28233408</v>
       </c>
@@ -8759,6 +10122,9 @@
       <c r="A456" s="1">
         <v>41570</v>
       </c>
+      <c r="B456">
+        <v>505000000</v>
+      </c>
       <c r="C456">
         <v>2.0218195200000002</v>
       </c>
@@ -8779,6 +10145,9 @@
       <c r="A457" s="1">
         <v>41571</v>
       </c>
+      <c r="B457">
+        <v>505000000</v>
+      </c>
       <c r="C457">
         <v>1.9198790399999999</v>
       </c>
@@ -8799,6 +10168,9 @@
       <c r="A458" s="1">
         <v>41572</v>
       </c>
+      <c r="B458">
+        <v>505000000</v>
+      </c>
       <c r="C458">
         <v>1.5460972800000001</v>
       </c>
@@ -8819,6 +10191,9 @@
       <c r="A459" s="1">
         <v>41573</v>
       </c>
+      <c r="B459">
+        <v>505000000</v>
+      </c>
       <c r="C459">
         <v>3.9558569600000006</v>
       </c>
@@ -8839,6 +10214,9 @@
       <c r="A460" s="1">
         <v>41574</v>
       </c>
+      <c r="B460">
+        <v>505000000</v>
+      </c>
       <c r="C460">
         <v>1.9255423999999999</v>
       </c>
@@ -8859,6 +10237,9 @@
       <c r="A461" s="1">
         <v>41575</v>
       </c>
+      <c r="B461">
+        <v>505000000</v>
+      </c>
       <c r="C461">
         <v>2.6391257600000002</v>
       </c>
@@ -8873,6 +10254,9 @@
       <c r="A462" s="1">
         <v>41576</v>
       </c>
+      <c r="B462">
+        <v>505000000</v>
+      </c>
       <c r="C462">
         <v>1.7867900800000001</v>
       </c>
@@ -8893,6 +10277,9 @@
       <c r="A463" s="1">
         <v>41577</v>
       </c>
+      <c r="B463">
+        <v>505000000</v>
+      </c>
       <c r="C463">
         <v>2.1860569600000002</v>
       </c>
@@ -8907,6 +10294,9 @@
       <c r="A464" s="1">
         <v>41578</v>
       </c>
+      <c r="B464">
+        <v>505000000</v>
+      </c>
       <c r="C464">
         <v>2.1067699200000001</v>
       </c>
@@ -8921,6 +10311,9 @@
       <c r="A465" s="1">
         <v>41579</v>
       </c>
+      <c r="B465">
+        <v>505000000</v>
+      </c>
       <c r="C465">
         <v>3.2592636799999997</v>
       </c>
@@ -8935,6 +10328,9 @@
       <c r="A466" s="1">
         <v>41580</v>
       </c>
+      <c r="B466">
+        <v>505000000</v>
+      </c>
       <c r="C466">
         <v>2.65611584</v>
       </c>
@@ -8949,6 +10345,9 @@
       <c r="A467" s="1">
         <v>41581</v>
       </c>
+      <c r="B467">
+        <v>505000000</v>
+      </c>
       <c r="C467">
         <v>2.1379183999999998</v>
       </c>
@@ -8963,6 +10362,9 @@
       <c r="A468" s="1">
         <v>41582</v>
       </c>
+      <c r="B468">
+        <v>505000000</v>
+      </c>
       <c r="C468">
         <v>2.5003734399999997</v>
       </c>
@@ -8977,6 +10379,9 @@
       <c r="A469" s="1">
         <v>41583</v>
       </c>
+      <c r="B469">
+        <v>505000000</v>
+      </c>
       <c r="C469">
         <v>2.3049875200000001</v>
       </c>
@@ -8991,6 +10396,9 @@
       <c r="A470" s="1">
         <v>41584</v>
       </c>
+      <c r="B470">
+        <v>505000000</v>
+      </c>
       <c r="C470">
         <v>4.2022131199999997</v>
       </c>
@@ -9005,6 +10413,9 @@
       <c r="A471" s="1">
         <v>41585</v>
       </c>
+      <c r="B471">
+        <v>505000000</v>
+      </c>
       <c r="C471">
         <v>3.4093427200000002</v>
       </c>
@@ -9019,6 +10430,9 @@
       <c r="A472" s="1">
         <v>41586</v>
       </c>
+      <c r="B472">
+        <v>505000000</v>
+      </c>
       <c r="C472">
         <v>1.7839583999999999</v>
       </c>
@@ -9033,6 +10447,9 @@
       <c r="A473" s="1">
         <v>41587</v>
       </c>
+      <c r="B473">
+        <v>505000000</v>
+      </c>
       <c r="C473">
         <v>3.4291644799999998</v>
       </c>
@@ -9047,6 +10464,9 @@
       <c r="A474" s="1">
         <v>41588</v>
       </c>
+      <c r="B474">
+        <v>505000000</v>
+      </c>
       <c r="C474">
         <v>2.6759376000000001</v>
       </c>
@@ -9061,6 +10481,9 @@
       <c r="A475" s="1">
         <v>41589</v>
       </c>
+      <c r="B475">
+        <v>505000000</v>
+      </c>
       <c r="C475">
         <v>3.3725308799999998</v>
       </c>
@@ -9075,6 +10498,9 @@
       <c r="A476" s="1">
         <v>41590</v>
       </c>
+      <c r="B476">
+        <v>505000000</v>
+      </c>
       <c r="C476">
         <v>2.2511855999999999</v>
       </c>
@@ -9089,6 +10515,9 @@
       <c r="A477" s="1">
         <v>41591</v>
       </c>
+      <c r="B477">
+        <v>505000000</v>
+      </c>
       <c r="C477">
         <v>1.0392265600000001</v>
       </c>
@@ -9103,6 +10532,9 @@
       <c r="A478" s="1">
         <v>41592</v>
       </c>
+      <c r="B478">
+        <v>505000000</v>
+      </c>
       <c r="C478">
         <v>3.8992233599999997</v>
       </c>
@@ -9117,6 +10549,9 @@
       <c r="A479" s="1">
         <v>41593</v>
       </c>
+      <c r="B479">
+        <v>505000000</v>
+      </c>
       <c r="C479">
         <v>2.7212444799999997</v>
       </c>
@@ -9131,6 +10566,9 @@
       <c r="A480" s="1">
         <v>41594</v>
       </c>
+      <c r="B480">
+        <v>505000000</v>
+      </c>
       <c r="C480">
         <v>1.4951270399999999</v>
       </c>
@@ -9145,6 +10583,9 @@
       <c r="A481" s="1">
         <v>41595</v>
       </c>
+      <c r="B481">
+        <v>505000000</v>
+      </c>
       <c r="C481">
         <v>4.5590048000000003</v>
       </c>
@@ -9159,6 +10600,9 @@
       <c r="A482" s="1">
         <v>41596</v>
       </c>
+      <c r="B482">
+        <v>505000000</v>
+      </c>
       <c r="C482">
         <v>5.9465279999999998</v>
       </c>
@@ -9173,6 +10617,9 @@
       <c r="A483" s="1">
         <v>41597</v>
       </c>
+      <c r="B483">
+        <v>505000000</v>
+      </c>
       <c r="C483">
         <v>3.8794016</v>
       </c>
@@ -9187,6 +10634,9 @@
       <c r="A484" s="1">
         <v>41598</v>
       </c>
+      <c r="B484">
+        <v>505000000</v>
+      </c>
       <c r="C484">
         <v>3.3130655999999998</v>
       </c>
@@ -9201,6 +10651,9 @@
       <c r="A485" s="1">
         <v>41599</v>
       </c>
+      <c r="B485">
+        <v>505000000</v>
+      </c>
       <c r="C485">
         <v>3.6273820799999998</v>
       </c>
@@ -9215,6 +10668,9 @@
       <c r="A486" s="1">
         <v>41600</v>
       </c>
+      <c r="B486">
+        <v>505000000</v>
+      </c>
       <c r="C486">
         <v>2.8741552000000001</v>
       </c>
@@ -9229,6 +10685,9 @@
       <c r="A487" s="1">
         <v>41601</v>
       </c>
+      <c r="B487">
+        <v>505000000</v>
+      </c>
       <c r="C487">
         <v>2.9307887999999997</v>
       </c>
@@ -9243,6 +10702,9 @@
       <c r="A488" s="1">
         <v>41602</v>
       </c>
+      <c r="B488">
+        <v>505000000</v>
+      </c>
       <c r="C488">
         <v>1.9000572799999997</v>
       </c>
@@ -9257,6 +10719,9 @@
       <c r="A489" s="1">
         <v>41603</v>
       </c>
+      <c r="B489">
+        <v>505000000</v>
+      </c>
       <c r="C489">
         <v>2.8345116799999999</v>
       </c>
@@ -9271,6 +10736,9 @@
       <c r="A490" s="1">
         <v>41604</v>
       </c>
+      <c r="B490">
+        <v>505000000</v>
+      </c>
       <c r="C490">
         <v>2.7099177600000002</v>
       </c>
@@ -9285,6 +10753,9 @@
       <c r="A491" s="1">
         <v>41605</v>
       </c>
+      <c r="B491">
+        <v>505000000</v>
+      </c>
       <c r="C491">
         <v>2.2058787200000003</v>
       </c>
@@ -9299,6 +10770,9 @@
       <c r="A492" s="1">
         <v>41606</v>
       </c>
+      <c r="B492">
+        <v>505000000</v>
+      </c>
       <c r="C492">
         <v>2.4720566399999999</v>
       </c>
@@ -9313,6 +10787,9 @@
       <c r="A493" s="1">
         <v>41607</v>
       </c>
+      <c r="B493">
+        <v>505000000</v>
+      </c>
       <c r="C493">
         <v>2.2964924799999999</v>
       </c>
@@ -9327,6 +10804,9 @@
       <c r="A494" s="1">
         <v>41608</v>
       </c>
+      <c r="B494">
+        <v>505000000</v>
+      </c>
       <c r="C494">
         <v>2.6249673599999999</v>
       </c>
@@ -9341,6 +10821,9 @@
       <c r="A495" s="1">
         <v>41609</v>
       </c>
+      <c r="B495">
+        <v>505000000</v>
+      </c>
       <c r="C495">
         <v>2.74956128</v>
       </c>
@@ -9355,6 +10838,9 @@
       <c r="A496" s="1">
         <v>41610</v>
       </c>
+      <c r="B496">
+        <v>505000000</v>
+      </c>
       <c r="C496">
         <v>2.6391257600000002</v>
       </c>
@@ -9375,6 +10861,9 @@
       <c r="A497" s="1">
         <v>41611</v>
       </c>
+      <c r="B497">
+        <v>505000000</v>
+      </c>
       <c r="C497">
         <v>2.8373433600000002</v>
       </c>
@@ -9389,6 +10878,9 @@
       <c r="A498" s="1">
         <v>41612</v>
       </c>
+      <c r="B498">
+        <v>505000000</v>
+      </c>
       <c r="C498">
         <v>2.2540172799999998</v>
       </c>
@@ -9403,6 +10895,9 @@
       <c r="A499" s="1">
         <v>41613</v>
       </c>
+      <c r="B499">
+        <v>505000000</v>
+      </c>
       <c r="C499">
         <v>3.1403331200000002</v>
       </c>
@@ -9417,6 +10912,9 @@
       <c r="A500" s="1">
         <v>41614</v>
       </c>
+      <c r="B500">
+        <v>505000000</v>
+      </c>
       <c r="C500">
         <v>2.5655020799999999</v>
       </c>
@@ -9431,6 +10929,9 @@
       <c r="A501" s="1">
         <v>41615</v>
       </c>
+      <c r="B501">
+        <v>505000000</v>
+      </c>
       <c r="C501">
         <v>2.0303145599999999</v>
       </c>
@@ -9445,6 +10946,9 @@
       <c r="A502" s="1">
         <v>41616</v>
       </c>
+      <c r="B502">
+        <v>505000000</v>
+      </c>
       <c r="C502">
         <v>2.07278976</v>
       </c>
@@ -9459,6 +10963,9 @@
       <c r="A503" s="1">
         <v>41617</v>
       </c>
+      <c r="B503">
+        <v>505000000</v>
+      </c>
       <c r="C503">
         <v>2.07278976</v>
       </c>
@@ -9473,6 +10980,9 @@
       <c r="A504" s="1">
         <v>41618</v>
       </c>
+      <c r="B504">
+        <v>505000000</v>
+      </c>
       <c r="C504">
         <v>1.9312057600000001</v>
       </c>
@@ -9487,6 +10997,9 @@
       <c r="A505" s="1">
         <v>41619</v>
       </c>
+      <c r="B505">
+        <v>505000000</v>
+      </c>
       <c r="C505">
         <v>2.01615616</v>
       </c>
@@ -9501,6 +11014,9 @@
       <c r="A506" s="1">
         <v>41620</v>
       </c>
+      <c r="B506">
+        <v>505000000</v>
+      </c>
       <c r="C506">
         <v>2.0133244799999996</v>
       </c>
@@ -9515,6 +11031,9 @@
       <c r="A507" s="1">
         <v>41621</v>
       </c>
+      <c r="B507">
+        <v>505000000</v>
+      </c>
       <c r="C507">
         <v>2.09827488</v>
       </c>
@@ -9529,6 +11048,9 @@
       <c r="A508" s="1">
         <v>41622</v>
       </c>
+      <c r="B508">
+        <v>505000000</v>
+      </c>
       <c r="C508">
         <v>2.2115420799999996</v>
       </c>
@@ -9543,6 +11065,9 @@
       <c r="A509" s="1">
         <v>41623</v>
       </c>
+      <c r="B509">
+        <v>505000000</v>
+      </c>
       <c r="C509">
         <v>2.2681756799999997</v>
       </c>
@@ -9557,6 +11082,9 @@
       <c r="A510" s="1">
         <v>41624</v>
       </c>
+      <c r="B510">
+        <v>505000000</v>
+      </c>
       <c r="C510">
         <v>2.2087104000000002</v>
       </c>
@@ -9571,6 +11099,9 @@
       <c r="A511" s="1">
         <v>41625</v>
       </c>
+      <c r="B511">
+        <v>505000000</v>
+      </c>
       <c r="C511">
         <v>2.3786111999999999</v>
       </c>
@@ -9585,6 +11116,9 @@
       <c r="A512" s="1">
         <v>41626</v>
       </c>
+      <c r="B512">
+        <v>505000000</v>
+      </c>
       <c r="C512">
         <v>2.3219775999999999</v>
       </c>
@@ -9599,6 +11133,9 @@
       <c r="A513" s="1">
         <v>41627</v>
       </c>
+      <c r="B513">
+        <v>505000000</v>
+      </c>
       <c r="C513">
         <v>2.3814428799999998</v>
       </c>
@@ -9613,6 +11150,9 @@
       <c r="A514" s="1">
         <v>41628</v>
       </c>
+      <c r="B514">
+        <v>505000000</v>
+      </c>
       <c r="C514">
         <v>2.3219775999999999</v>
       </c>
@@ -9627,6 +11167,9 @@
       <c r="A515" s="1">
         <v>41629</v>
       </c>
+      <c r="B515">
+        <v>505000000</v>
+      </c>
       <c r="C515">
         <v>2.3163142400000001</v>
       </c>
@@ -9641,6 +11184,9 @@
       <c r="A516" s="1">
         <v>41630</v>
       </c>
+      <c r="B516">
+        <v>505000000</v>
+      </c>
       <c r="C516">
         <v>2.3729478399999997</v>
       </c>
@@ -9655,6 +11201,9 @@
       <c r="A517" s="1">
         <v>41631</v>
       </c>
+      <c r="B517">
+        <v>505000000</v>
+      </c>
       <c r="C517">
         <v>2.3701161600000002</v>
       </c>
@@ -9669,6 +11218,9 @@
       <c r="A518" s="1">
         <v>41632</v>
       </c>
+      <c r="B518">
+        <v>505000000</v>
+      </c>
       <c r="C518">
         <v>2.0303145599999999</v>
       </c>
@@ -9683,6 +11235,9 @@
       <c r="A519" s="1">
         <v>41633</v>
       </c>
+      <c r="B519">
+        <v>505000000</v>
+      </c>
       <c r="C519">
         <v>2.14358176</v>
       </c>
@@ -9697,6 +11252,9 @@
       <c r="A520" s="1">
         <v>41634</v>
       </c>
+      <c r="B520">
+        <v>505000000</v>
+      </c>
       <c r="C520">
         <v>2.2002153600000001</v>
       </c>
@@ -9711,6 +11269,9 @@
       <c r="A521" s="1">
         <v>41635</v>
       </c>
+      <c r="B521">
+        <v>505000000</v>
+      </c>
       <c r="C521">
         <v>2.2002153600000001</v>
       </c>
@@ -9725,6 +11286,9 @@
       <c r="A522" s="1">
         <v>41636</v>
       </c>
+      <c r="B522">
+        <v>505000000</v>
+      </c>
       <c r="C522">
         <v>2.3163142400000001</v>
       </c>
@@ -9739,6 +11303,9 @@
       <c r="A523" s="1">
         <v>41637</v>
       </c>
+      <c r="B523">
+        <v>505000000</v>
+      </c>
       <c r="C523">
         <v>2.31914592</v>
       </c>
@@ -9753,6 +11320,9 @@
       <c r="A524" s="1">
         <v>41638</v>
       </c>
+      <c r="B524">
+        <v>505000000</v>
+      </c>
       <c r="C524">
         <v>2.1492451200000002</v>
       </c>
@@ -9767,6 +11337,9 @@
       <c r="A525" s="1">
         <v>41639</v>
       </c>
+      <c r="B525">
+        <v>505000000</v>
+      </c>
       <c r="C525">
         <v>2.2058787200000003</v>
       </c>
@@ -9781,6 +11354,9 @@
       <c r="A526" s="1">
         <v>41640</v>
       </c>
+      <c r="B526">
+        <v>505000000</v>
+      </c>
       <c r="C526">
         <v>2.3163142400000001</v>
       </c>
@@ -9795,6 +11371,9 @@
       <c r="A527" s="1">
         <v>41641</v>
       </c>
+      <c r="B527">
+        <v>505000000</v>
+      </c>
       <c r="C527">
         <v>2.2313638399999998</v>
       </c>
@@ -9809,6 +11388,9 @@
       <c r="A528" s="1">
         <v>41642</v>
       </c>
+      <c r="B528">
+        <v>505000000</v>
+      </c>
       <c r="C528">
         <v>2.2313638399999998</v>
       </c>
@@ -9823,6 +11405,9 @@
       <c r="A529" s="1">
         <v>41643</v>
       </c>
+      <c r="B529">
+        <v>505000000</v>
+      </c>
       <c r="C529">
         <v>2.34179936</v>
       </c>
@@ -9837,6 +11422,9 @@
       <c r="A530" s="1">
         <v>41644</v>
       </c>
+      <c r="B530">
+        <v>505000000</v>
+      </c>
       <c r="C530">
         <v>2.2568489600000001</v>
       </c>
@@ -9851,6 +11439,9 @@
       <c r="A531" s="1">
         <v>41645</v>
       </c>
+      <c r="B531">
+        <v>505000000</v>
+      </c>
       <c r="C531">
         <v>2.0586313600000001</v>
       </c>
@@ -9865,6 +11456,9 @@
       <c r="A532" s="1">
         <v>41646</v>
       </c>
+      <c r="B532">
+        <v>505000000</v>
+      </c>
       <c r="C532">
         <v>2.22570048</v>
       </c>
@@ -9879,6 +11473,9 @@
       <c r="A533" s="1">
         <v>41647</v>
       </c>
+      <c r="B533">
+        <v>505000000</v>
+      </c>
       <c r="C533">
         <v>2.3927695999999998</v>
       </c>
@@ -9893,6 +11490,9 @@
       <c r="A534" s="1">
         <v>41648</v>
       </c>
+      <c r="B534">
+        <v>505000000</v>
+      </c>
       <c r="C534">
         <v>2.6193040000000001</v>
       </c>
@@ -9907,6 +11507,9 @@
       <c r="A535" s="1">
         <v>41649</v>
       </c>
+      <c r="B535">
+        <v>505000000</v>
+      </c>
       <c r="C535">
         <v>2.8458383999999999</v>
       </c>
@@ -9921,6 +11524,9 @@
       <c r="A536" s="1">
         <v>41650</v>
       </c>
+      <c r="B536">
+        <v>505000000</v>
+      </c>
       <c r="C536">
         <v>3.1120163199999999</v>
       </c>
@@ -9935,6 +11541,9 @@
       <c r="A537" s="1">
         <v>41651</v>
       </c>
+      <c r="B537">
+        <v>505000000</v>
+      </c>
       <c r="C537">
         <v>3.4036793599999999</v>
       </c>
@@ -9949,6 +11558,9 @@
       <c r="A538" s="1">
         <v>41652</v>
       </c>
+      <c r="B538">
+        <v>505000000</v>
+      </c>
       <c r="C538">
         <v>3.5112831999999998</v>
       </c>
@@ -9963,6 +11575,9 @@
       <c r="A539" s="1">
         <v>41653</v>
       </c>
+      <c r="B539">
+        <v>505000000</v>
+      </c>
       <c r="C539">
         <v>3.06387776</v>
       </c>
@@ -9977,6 +11592,9 @@
       <c r="A540" s="1">
         <v>41654</v>
       </c>
+      <c r="B540">
+        <v>505000000</v>
+      </c>
       <c r="C540">
         <v>2.8571651200000003</v>
       </c>
@@ -9991,6 +11609,9 @@
       <c r="A541" s="1">
         <v>41655</v>
       </c>
+      <c r="B541">
+        <v>505000000</v>
+      </c>
       <c r="C541">
         <v>2.6985910399999997</v>
       </c>
@@ -10005,6 +11626,9 @@
       <c r="A542" s="1">
         <v>41656</v>
       </c>
+      <c r="B542">
+        <v>505000000</v>
+      </c>
       <c r="C542">
         <v>2.5711654399999997</v>
       </c>
@@ -10019,6 +11643,9 @@
       <c r="A543" s="1">
         <v>41657</v>
       </c>
+      <c r="B543">
+        <v>505000000</v>
+      </c>
       <c r="C543">
         <v>2.5060368</v>
       </c>
@@ -10033,6 +11660,9 @@
       <c r="A544" s="1">
         <v>41658</v>
       </c>
+      <c r="B544">
+        <v>505000000</v>
+      </c>
       <c r="C544">
         <v>2.4720566399999999</v>
       </c>
@@ -10047,6 +11677,9 @@
       <c r="A545" s="1">
         <v>41659</v>
       </c>
+      <c r="B545">
+        <v>505000000</v>
+      </c>
       <c r="C545">
         <v>2.2993241599999998</v>
       </c>
@@ -10061,6 +11694,9 @@
       <c r="A546" s="1">
         <v>41660</v>
       </c>
+      <c r="B546">
+        <v>505000000</v>
+      </c>
       <c r="C546">
         <v>2.4635615999999998</v>
       </c>
@@ -10075,6 +11711,9 @@
       <c r="A547" s="1">
         <v>41661</v>
       </c>
+      <c r="B547">
+        <v>505000000</v>
+      </c>
       <c r="C547">
         <v>2.4040963200000003</v>
       </c>
@@ -10089,6 +11728,9 @@
       <c r="A548" s="1">
         <v>41662</v>
       </c>
+      <c r="B548">
+        <v>505000000</v>
+      </c>
       <c r="C548">
         <v>2.3729478399999997</v>
       </c>
@@ -10103,6 +11745,9 @@
       <c r="A549" s="1">
         <v>41663</v>
       </c>
+      <c r="B549">
+        <v>505000000</v>
+      </c>
       <c r="C549">
         <v>2.4324131200000001</v>
       </c>
@@ -10117,6 +11762,9 @@
       <c r="A550" s="1">
         <v>41664</v>
       </c>
+      <c r="B550">
+        <v>505000000</v>
+      </c>
       <c r="C550">
         <v>2.5145318400000001</v>
       </c>
@@ -10131,6 +11779,9 @@
       <c r="A551" s="1">
         <v>41665</v>
       </c>
+      <c r="B551">
+        <v>505000000</v>
+      </c>
       <c r="C551">
         <v>2.5994822399999999</v>
       </c>
@@ -10145,6 +11796,9 @@
       <c r="A552" s="1">
         <v>41666</v>
       </c>
+      <c r="B552">
+        <v>505000000</v>
+      </c>
       <c r="C552">
         <v>2.6844326399999998</v>
       </c>
@@ -10159,6 +11813,9 @@
       <c r="A553" s="1">
         <v>41667</v>
       </c>
+      <c r="B553">
+        <v>505000000</v>
+      </c>
       <c r="C553">
         <v>2.7127494400000001</v>
       </c>
@@ -10173,6 +11830,9 @@
       <c r="A554" s="1">
         <v>41668</v>
       </c>
+      <c r="B554">
+        <v>505000000</v>
+      </c>
       <c r="C554">
         <v>2.45789824</v>
       </c>
@@ -10187,6 +11847,9 @@
       <c r="A555" s="1">
         <v>41669</v>
       </c>
+      <c r="B555">
+        <v>505000000</v>
+      </c>
       <c r="C555">
         <v>2.51736352</v>
       </c>
@@ -10201,6 +11864,9 @@
       <c r="A556" s="1">
         <v>41670</v>
       </c>
+      <c r="B556">
+        <v>505000000</v>
+      </c>
       <c r="C556">
         <v>2.31914592</v>
       </c>
@@ -10215,6 +11881,9 @@
       <c r="A557" s="1">
         <v>41671</v>
       </c>
+      <c r="B557">
+        <v>505000000</v>
+      </c>
       <c r="C557">
         <v>2.3446310399999999</v>
       </c>
@@ -10229,6 +11898,9 @@
       <c r="A558" s="1">
         <v>41672</v>
       </c>
+      <c r="B558">
+        <v>505000000</v>
+      </c>
       <c r="C558">
         <v>2.3446310399999999</v>
       </c>
@@ -10243,6 +11915,9 @@
       <c r="A559" s="1">
         <v>41673</v>
       </c>
+      <c r="B559">
+        <v>505000000</v>
+      </c>
       <c r="C559">
         <v>2.25968064</v>
       </c>
@@ -10260,6 +11935,9 @@
       <c r="A560" s="1">
         <v>41674</v>
       </c>
+      <c r="B560">
+        <v>505000000</v>
+      </c>
       <c r="C560">
         <v>2.3163142400000001</v>
       </c>
@@ -10274,6 +11952,9 @@
       <c r="A561" s="1">
         <v>41675</v>
       </c>
+      <c r="B561">
+        <v>505000000</v>
+      </c>
       <c r="C561">
         <v>2.2568489600000001</v>
       </c>
@@ -10288,6 +11969,9 @@
       <c r="A562" s="1">
         <v>41676</v>
       </c>
+      <c r="B562">
+        <v>505000000</v>
+      </c>
       <c r="C562">
         <v>2.1718985600000003</v>
       </c>
@@ -10302,6 +11986,9 @@
       <c r="A563" s="1">
         <v>41677</v>
       </c>
+      <c r="B563">
+        <v>505000000</v>
+      </c>
       <c r="C563">
         <v>2.22570048</v>
       </c>
@@ -10316,6 +12003,9 @@
       <c r="A564" s="1">
         <v>41678</v>
       </c>
+      <c r="B564">
+        <v>505000000</v>
+      </c>
       <c r="C564">
         <v>2.1690668799999999</v>
       </c>
@@ -10330,6 +12020,9 @@
       <c r="A565" s="1">
         <v>41679</v>
       </c>
+      <c r="B565">
+        <v>505000000</v>
+      </c>
       <c r="C565">
         <v>2.1690668799999999</v>
       </c>
@@ -10344,6 +12037,9 @@
       <c r="A566" s="1">
         <v>41680</v>
       </c>
+      <c r="B566">
+        <v>505000000</v>
+      </c>
       <c r="C566">
         <v>2.0812848000000002</v>
       </c>
@@ -10358,6 +12054,9 @@
       <c r="A567" s="1">
         <v>41681</v>
       </c>
+      <c r="B567">
+        <v>505000000</v>
+      </c>
       <c r="C567">
         <v>2.1945519999999998</v>
       </c>
@@ -10372,6 +12071,9 @@
       <c r="A568" s="1">
         <v>41682</v>
       </c>
+      <c r="B568">
+        <v>505000000</v>
+      </c>
       <c r="C568">
         <v>2.1917203199999999</v>
       </c>
@@ -10386,6 +12088,9 @@
       <c r="A569" s="1">
         <v>41683</v>
       </c>
+      <c r="B569">
+        <v>505000000</v>
+      </c>
       <c r="C569">
         <v>2.2766707200000003</v>
       </c>
@@ -10400,6 +12105,9 @@
       <c r="A570" s="1">
         <v>41684</v>
       </c>
+      <c r="B570">
+        <v>505000000</v>
+      </c>
       <c r="C570">
         <v>2.1917203199999999</v>
       </c>
@@ -10414,6 +12122,9 @@
       <c r="A571" s="1">
         <v>41685</v>
       </c>
+      <c r="B571">
+        <v>505000000</v>
+      </c>
       <c r="C571">
         <v>2.0473046399999997</v>
       </c>
@@ -10428,6 +12139,9 @@
       <c r="A572" s="1">
         <v>41686</v>
       </c>
+      <c r="B572">
+        <v>505000000</v>
+      </c>
       <c r="C572">
         <v>2.1294233600000001</v>
       </c>
@@ -10442,6 +12156,9 @@
       <c r="A573" s="1">
         <v>41687</v>
       </c>
+      <c r="B573">
+        <v>505000000</v>
+      </c>
       <c r="C573">
         <v>2.0444729600000002</v>
       </c>
@@ -10456,6 +12173,9 @@
       <c r="A574" s="1">
         <v>41688</v>
       </c>
+      <c r="B574">
+        <v>505000000</v>
+      </c>
       <c r="C574">
         <v>1.9595225600000001</v>
       </c>
@@ -10470,6 +12190,9 @@
       <c r="A575" s="1">
         <v>41689</v>
       </c>
+      <c r="B575">
+        <v>505000000</v>
+      </c>
       <c r="C575">
         <v>2.0444729600000002</v>
       </c>
@@ -10484,6 +12207,9 @@
       <c r="A576" s="1">
         <v>41690</v>
       </c>
+      <c r="B576">
+        <v>505000000</v>
+      </c>
       <c r="C576">
         <v>1.6848495999999999</v>
       </c>
@@ -10498,6 +12224,9 @@
       <c r="A577" s="1">
         <v>41691</v>
       </c>
+      <c r="B577">
+        <v>505000000</v>
+      </c>
       <c r="C577">
         <v>2.35312608</v>
       </c>
@@ -10512,6 +12241,9 @@
       <c r="A578" s="1">
         <v>41692</v>
       </c>
+      <c r="B578">
+        <v>505000000</v>
+      </c>
       <c r="C578">
         <v>2.0359779200000001</v>
       </c>
@@ -10526,6 +12258,9 @@
       <c r="A579" s="1">
         <v>41693</v>
       </c>
+      <c r="B579">
+        <v>505000000</v>
+      </c>
       <c r="C579">
         <v>1.74714656</v>
       </c>
@@ -10540,6 +12275,9 @@
       <c r="A580" s="1">
         <v>41694</v>
       </c>
+      <c r="B580">
+        <v>505000000</v>
+      </c>
       <c r="C580">
         <v>1.4299983999999999</v>
       </c>
@@ -10554,6 +12292,9 @@
       <c r="A581" s="1">
         <v>41695</v>
       </c>
+      <c r="B581">
+        <v>505000000</v>
+      </c>
       <c r="C581">
         <v>1.1978006399999999</v>
       </c>
@@ -10568,6 +12309,9 @@
       <c r="A582" s="1">
         <v>41696</v>
       </c>
+      <c r="B582">
+        <v>505000000</v>
+      </c>
       <c r="C582">
         <v>1.11285024</v>
       </c>
@@ -10582,6 +12326,9 @@
       <c r="A583" s="1">
         <v>41697</v>
       </c>
+      <c r="B583">
+        <v>505000000</v>
+      </c>
       <c r="C583">
         <v>1.05904832</v>
       </c>
@@ -10596,6 +12343,9 @@
       <c r="A584" s="1">
         <v>41698</v>
       </c>
+      <c r="B584">
+        <v>505000000</v>
+      </c>
       <c r="C584">
         <v>1.23461248</v>
       </c>
@@ -10610,6 +12360,9 @@
       <c r="A585" s="1">
         <v>41699</v>
       </c>
+      <c r="B585">
+        <v>505000000</v>
+      </c>
       <c r="C585">
         <v>0.96560288000000005</v>
       </c>
@@ -10624,6 +12377,9 @@
       <c r="A586" s="1">
         <v>41700</v>
       </c>
+      <c r="B586">
+        <v>505000000</v>
+      </c>
       <c r="C586">
         <v>0.96843456000000006</v>
       </c>
@@ -10638,6 +12394,9 @@
       <c r="A587" s="1">
         <v>41701</v>
       </c>
+      <c r="B587">
+        <v>505000000</v>
+      </c>
       <c r="C587">
         <v>1.0222364800000001</v>
       </c>
@@ -10652,6 +12411,9 @@
       <c r="A588" s="1">
         <v>41702</v>
       </c>
+      <c r="B588">
+        <v>505000000</v>
+      </c>
       <c r="C588">
         <v>1.1921372800000001</v>
       </c>
@@ -10666,6 +12428,9 @@
       <c r="A589" s="1">
         <v>41703</v>
       </c>
+      <c r="B589">
+        <v>505000000</v>
+      </c>
       <c r="C589">
         <v>1.2176224</v>
       </c>
@@ -10680,6 +12445,9 @@
       <c r="A590" s="1">
         <v>41704</v>
       </c>
+      <c r="B590">
+        <v>505000000</v>
+      </c>
       <c r="C590">
         <v>1.2176224</v>
       </c>
@@ -10694,6 +12462,9 @@
       <c r="A591" s="1">
         <v>41705</v>
       </c>
+      <c r="B591">
+        <v>505000000</v>
+      </c>
       <c r="C591">
         <v>1.3308895999999999</v>
       </c>
@@ -10708,6 +12479,9 @@
       <c r="A592" s="1">
         <v>41706</v>
       </c>
+      <c r="B592">
+        <v>505000000</v>
+      </c>
       <c r="C592">
         <v>1.30540448</v>
       </c>
@@ -10722,6 +12496,9 @@
       <c r="A593" s="1">
         <v>41707</v>
       </c>
+      <c r="B593">
+        <v>505000000</v>
+      </c>
       <c r="C593">
         <v>1.53760224</v>
       </c>
@@ -10736,6 +12513,9 @@
       <c r="A594" s="1">
         <v>41708</v>
       </c>
+      <c r="B594">
+        <v>505000000</v>
+      </c>
       <c r="C594">
         <v>1.7216614399999999</v>
       </c>
@@ -10750,6 +12530,9 @@
       <c r="A595" s="1">
         <v>41709</v>
       </c>
+      <c r="B595">
+        <v>505000000</v>
+      </c>
       <c r="C595">
         <v>3.8737382400000002</v>
       </c>
@@ -10764,6 +12547,9 @@
       <c r="A596" s="1">
         <v>41710</v>
       </c>
+      <c r="B596">
+        <v>505000000</v>
+      </c>
       <c r="C596">
         <v>9.1180096000000006</v>
       </c>
@@ -10778,6 +12564,9 @@
       <c r="A597" s="1">
         <v>41711</v>
       </c>
+      <c r="B597">
+        <v>505000000</v>
+      </c>
       <c r="C597">
         <v>6.5694976</v>
       </c>
@@ -10792,6 +12581,9 @@
       <c r="A598" s="1">
         <v>41712</v>
       </c>
+      <c r="B598">
+        <v>505000000</v>
+      </c>
       <c r="C598">
         <v>7.4190015999999996</v>
       </c>
@@ -10806,6 +12598,9 @@
       <c r="A599" s="1">
         <v>41713</v>
       </c>
+      <c r="B599">
+        <v>505000000</v>
+      </c>
       <c r="C599">
         <v>16.565328000000001</v>
       </c>
@@ -10820,6 +12615,9 @@
       <c r="A600" s="1">
         <v>41714</v>
       </c>
+      <c r="B600">
+        <v>505000000</v>
+      </c>
       <c r="C600">
         <v>15.9423584</v>
       </c>
@@ -10834,6 +12632,9 @@
       <c r="A601" s="1">
         <v>41715</v>
       </c>
+      <c r="B601">
+        <v>505000000</v>
+      </c>
       <c r="C601">
         <v>11.1001856</v>
       </c>
@@ -10848,6 +12649,9 @@
       <c r="A602" s="1">
         <v>41716</v>
       </c>
+      <c r="B602">
+        <v>505000000</v>
+      </c>
       <c r="C602">
         <v>7.0792000000000002</v>
       </c>
@@ -10862,6 +12666,9 @@
       <c r="A603" s="1">
         <v>41717</v>
       </c>
+      <c r="B603">
+        <v>505000000</v>
+      </c>
       <c r="C603">
         <v>8.7215743999999997</v>
       </c>
@@ -10876,6 +12683,9 @@
       <c r="A604" s="1">
         <v>41718</v>
       </c>
+      <c r="B604">
+        <v>505000000</v>
+      </c>
       <c r="C604">
         <v>9.5427616000000004</v>
       </c>
@@ -10890,6 +12700,9 @@
       <c r="A605" s="1">
         <v>41719</v>
       </c>
+      <c r="B605">
+        <v>505000000</v>
+      </c>
       <c r="C605">
         <v>7.4190015999999996</v>
       </c>
@@ -10904,6 +12717,9 @@
       <c r="A606" s="1">
         <v>41720</v>
       </c>
+      <c r="B606">
+        <v>505000000</v>
+      </c>
       <c r="C606">
         <v>6.1447456000000003</v>
       </c>
@@ -10918,6 +12734,9 @@
       <c r="A607" s="1">
         <v>41721</v>
       </c>
+      <c r="B607">
+        <v>505000000</v>
+      </c>
       <c r="C607">
         <v>4.5873216000000001</v>
       </c>
@@ -10932,6 +12751,9 @@
       <c r="A608" s="1">
         <v>41722</v>
       </c>
+      <c r="B608">
+        <v>505000000</v>
+      </c>
       <c r="C608">
         <v>3.5396000000000001</v>
       </c>
@@ -10946,6 +12768,9 @@
       <c r="A609" s="1">
         <v>41723</v>
       </c>
+      <c r="B609">
+        <v>505000000</v>
+      </c>
       <c r="C609">
         <v>3.4773030399999998</v>
       </c>
@@ -10960,6 +12785,9 @@
       <c r="A610" s="1">
         <v>41724</v>
       </c>
+      <c r="B610">
+        <v>505000000</v>
+      </c>
       <c r="C610">
         <v>2.72690784</v>
       </c>
@@ -10974,6 +12802,9 @@
       <c r="A611" s="1">
         <v>41725</v>
       </c>
+      <c r="B611">
+        <v>505000000</v>
+      </c>
       <c r="C611">
         <v>3.1629865600000002</v>
       </c>
@@ -10988,6 +12819,9 @@
       <c r="A612" s="1">
         <v>41726</v>
       </c>
+      <c r="B612">
+        <v>505000000</v>
+      </c>
       <c r="C612">
         <v>4.8421728000000002</v>
       </c>
@@ -11002,6 +12836,9 @@
       <c r="A613" s="1">
         <v>41727</v>
       </c>
+      <c r="B613">
+        <v>505000000</v>
+      </c>
       <c r="C613">
         <v>4.7005888000000002</v>
       </c>
@@ -11016,6 +12853,9 @@
       <c r="A614" s="1">
         <v>41728</v>
       </c>
+      <c r="B614">
+        <v>505000000</v>
+      </c>
       <c r="C614">
         <v>3.7944512000000001</v>
       </c>
@@ -11030,6 +12870,9 @@
       <c r="A615" s="1">
         <v>41729</v>
       </c>
+      <c r="B615">
+        <v>505000000</v>
+      </c>
       <c r="C615">
         <v>3.8510847999999998</v>
       </c>
@@ -11044,6 +12887,9 @@
       <c r="A616" s="1">
         <v>41730</v>
       </c>
+      <c r="B616">
+        <v>505000000</v>
+      </c>
       <c r="C616">
         <v>4.0493024000000002</v>
       </c>
@@ -11058,6 +12904,9 @@
       <c r="A617" s="1">
         <v>41731</v>
       </c>
+      <c r="B617">
+        <v>505000000</v>
+      </c>
       <c r="C617">
         <v>4.2475199999999997</v>
       </c>
@@ -11072,6 +12921,9 @@
       <c r="A618" s="1">
         <v>41732</v>
       </c>
+      <c r="B618">
+        <v>505000000</v>
+      </c>
       <c r="C618">
         <v>3.1714815999999999</v>
       </c>
@@ -11086,6 +12938,9 @@
       <c r="A619" s="1">
         <v>41733</v>
       </c>
+      <c r="B619">
+        <v>505000000</v>
+      </c>
       <c r="C619">
         <v>2.7467296000000001</v>
       </c>
@@ -11100,6 +12955,9 @@
       <c r="A620" s="1">
         <v>41734</v>
       </c>
+      <c r="B620">
+        <v>505000000</v>
+      </c>
       <c r="C620">
         <v>3.2564319999999998</v>
       </c>
@@ -11114,6 +12972,9 @@
       <c r="A621" s="1">
         <v>41735</v>
       </c>
+      <c r="B621">
+        <v>505000000</v>
+      </c>
       <c r="C621">
         <v>2.8033632000000002</v>
       </c>
@@ -11128,6 +12989,9 @@
       <c r="A622" s="1">
         <v>41736</v>
       </c>
+      <c r="B622">
+        <v>505000000</v>
+      </c>
       <c r="C622">
         <v>3.1997984000000002</v>
       </c>
@@ -11142,6 +13006,9 @@
       <c r="A623" s="1">
         <v>41737</v>
       </c>
+      <c r="B623">
+        <v>505000000</v>
+      </c>
       <c r="C623">
         <v>3.1431648000000001</v>
       </c>
@@ -11156,6 +13023,9 @@
       <c r="A624" s="1">
         <v>41738</v>
       </c>
+      <c r="B624">
+        <v>505000000</v>
+      </c>
       <c r="C624">
         <v>2.4352448</v>
       </c>
@@ -11170,6 +13040,9 @@
       <c r="A625" s="1">
         <v>41739</v>
       </c>
+      <c r="B625">
+        <v>505000000</v>
+      </c>
       <c r="C625">
         <v>3.3980160000000001</v>
       </c>
@@ -11184,6 +13057,9 @@
       <c r="A626" s="1">
         <v>41740</v>
       </c>
+      <c r="B626">
+        <v>505000000</v>
+      </c>
       <c r="C626">
         <v>2.82035328</v>
       </c>
@@ -11198,6 +13074,9 @@
       <c r="A627" s="1">
         <v>41741</v>
       </c>
+      <c r="B627">
+        <v>505000000</v>
+      </c>
       <c r="C627">
         <v>3.0582143999999998</v>
       </c>
@@ -11212,6 +13091,9 @@
       <c r="A628" s="1">
         <v>41742</v>
       </c>
+      <c r="B628">
+        <v>505000000</v>
+      </c>
       <c r="C628">
         <v>6.7677151999999996</v>
       </c>
@@ -11226,6 +13108,9 @@
       <c r="A629" s="1">
         <v>41743</v>
       </c>
+      <c r="B629">
+        <v>505000000</v>
+      </c>
       <c r="C629">
         <v>15.177804800000001</v>
       </c>
@@ -11240,6 +13125,9 @@
       <c r="A630" s="1">
         <v>41744</v>
       </c>
+      <c r="B630">
+        <v>505000000</v>
+      </c>
       <c r="C630">
         <v>13.167311999999999</v>
       </c>
@@ -11254,6 +13142,9 @@
       <c r="A631" s="1">
         <v>41745</v>
       </c>
+      <c r="B631">
+        <v>505000000</v>
+      </c>
       <c r="C631">
         <v>6.8526655999999999</v>
       </c>
@@ -11268,6 +13159,9 @@
       <c r="A632" s="1">
         <v>41746</v>
       </c>
+      <c r="B632">
+        <v>505000000</v>
+      </c>
       <c r="C632">
         <v>5.8049439999999999</v>
       </c>
@@ -11282,6 +13176,9 @@
       <c r="A633" s="1">
         <v>41747</v>
       </c>
+      <c r="B633">
+        <v>505000000</v>
+      </c>
       <c r="C633">
         <v>4.4712227200000001</v>
       </c>
@@ -11296,6 +13193,9 @@
       <c r="A634" s="1">
         <v>41748</v>
       </c>
+      <c r="B634">
+        <v>505000000</v>
+      </c>
       <c r="C634">
         <v>3.5820751999999998</v>
       </c>
@@ -11310,6 +13210,9 @@
       <c r="A635" s="1">
         <v>41749</v>
       </c>
+      <c r="B635">
+        <v>505000000</v>
+      </c>
       <c r="C635">
         <v>3.7661343999999999</v>
       </c>
@@ -11324,6 +13227,9 @@
       <c r="A636" s="1">
         <v>41750</v>
       </c>
+      <c r="B636">
+        <v>505000000</v>
+      </c>
       <c r="C636">
         <v>3.6217187200000001</v>
       </c>
@@ -11338,6 +13244,9 @@
       <c r="A637" s="1">
         <v>41751</v>
       </c>
+      <c r="B637">
+        <v>505000000</v>
+      </c>
       <c r="C637">
         <v>3.33288736</v>
       </c>
@@ -11352,6 +13261,9 @@
       <c r="A638" s="1">
         <v>41752</v>
       </c>
+      <c r="B638">
+        <v>505000000</v>
+      </c>
       <c r="C638">
         <v>3.1516598399999998</v>
       </c>
@@ -11366,6 +13278,9 @@
       <c r="A639" s="1">
         <v>41753</v>
       </c>
+      <c r="B639">
+        <v>505000000</v>
+      </c>
       <c r="C639">
         <v>3.3130655999999998</v>
       </c>
@@ -11380,6 +13295,9 @@
       <c r="A640" s="1">
         <v>41754</v>
       </c>
+      <c r="B640">
+        <v>505000000</v>
+      </c>
       <c r="C640">
         <v>4.0889459200000005</v>
       </c>
@@ -11394,6 +13312,9 @@
       <c r="A641" s="1">
         <v>41755</v>
       </c>
+      <c r="B641">
+        <v>505000000</v>
+      </c>
       <c r="C641">
         <v>4.3183119999999997</v>
       </c>
@@ -11414,6 +13335,9 @@
       <c r="A642" s="1">
         <v>41756</v>
       </c>
+      <c r="B642">
+        <v>505000000</v>
+      </c>
       <c r="C642">
         <v>2.9279571200000003</v>
       </c>
@@ -11434,6 +13358,9 @@
       <c r="A643" s="1">
         <v>41757</v>
       </c>
+      <c r="B643">
+        <v>505000000</v>
+      </c>
       <c r="C643">
         <v>4.4740544</v>
       </c>
@@ -11454,6 +13381,9 @@
       <c r="A644" s="1">
         <v>41758</v>
       </c>
+      <c r="B644">
+        <v>505000000</v>
+      </c>
       <c r="C644">
         <v>6.2296959999999997</v>
       </c>
@@ -11477,6 +13407,9 @@
       <c r="A645" s="1">
         <v>41759</v>
       </c>
+      <c r="B645">
+        <v>505000000</v>
+      </c>
       <c r="C645">
         <v>5.9182112</v>
       </c>
@@ -11497,6 +13430,9 @@
       <c r="A646" s="1">
         <v>41760</v>
       </c>
+      <c r="B646">
+        <v>505000000</v>
+      </c>
       <c r="C646">
         <v>5.0403903999999997</v>
       </c>
@@ -11511,6 +13447,9 @@
       <c r="A647" s="1">
         <v>41761</v>
       </c>
+      <c r="B647">
+        <v>505000000</v>
+      </c>
       <c r="C647">
         <v>4.3041536000000002</v>
       </c>
@@ -11531,6 +13470,9 @@
       <c r="A648" s="1">
         <v>41762</v>
       </c>
+      <c r="B648">
+        <v>505000000</v>
+      </c>
       <c r="C648">
         <v>3.8227679999999999</v>
       </c>
@@ -11551,6 +13493,9 @@
       <c r="A649" s="1">
         <v>41763</v>
       </c>
+      <c r="B649">
+        <v>505000000</v>
+      </c>
       <c r="C649">
         <v>3.6132236799999999</v>
       </c>
@@ -11571,6 +13516,9 @@
       <c r="A650" s="1">
         <v>41764</v>
       </c>
+      <c r="B650">
+        <v>505000000</v>
+      </c>
       <c r="C650">
         <v>3.33288736</v>
       </c>
@@ -11588,6 +13536,9 @@
       <c r="A651" s="1">
         <v>41765</v>
       </c>
+      <c r="B651">
+        <v>505000000</v>
+      </c>
       <c r="C651">
         <v>3.14599648</v>
       </c>
@@ -11605,6 +13556,9 @@
       <c r="A652" s="1">
         <v>41766</v>
       </c>
+      <c r="B652">
+        <v>505000000</v>
+      </c>
       <c r="C652">
         <v>2.6306307200000001</v>
       </c>
@@ -11625,6 +13579,9 @@
       <c r="A653" s="1">
         <v>41767</v>
       </c>
+      <c r="B653">
+        <v>505000000</v>
+      </c>
       <c r="C653">
         <v>2.14358176</v>
       </c>
@@ -11645,6 +13602,9 @@
       <c r="A654" s="1">
         <v>41768</v>
       </c>
+      <c r="B654">
+        <v>505000000</v>
+      </c>
       <c r="C654">
         <v>2.8486700799999998</v>
       </c>
@@ -11665,6 +13625,9 @@
       <c r="A655" s="1">
         <v>41769</v>
       </c>
+      <c r="B655">
+        <v>505000000</v>
+      </c>
       <c r="C655">
         <v>3.2082934399999998</v>
       </c>
@@ -11685,6 +13648,9 @@
       <c r="A656" s="1">
         <v>41770</v>
       </c>
+      <c r="B656">
+        <v>505000000</v>
+      </c>
       <c r="C656">
         <v>3.0610460799999997</v>
       </c>
@@ -11705,6 +13671,9 @@
       <c r="A657" s="1">
         <v>41771</v>
       </c>
+      <c r="B657">
+        <v>505000000</v>
+      </c>
       <c r="C657">
         <v>4.8421728000000002</v>
       </c>
@@ -11725,6 +13694,9 @@
       <c r="A658" s="1">
         <v>41772</v>
       </c>
+      <c r="B658">
+        <v>505000000</v>
+      </c>
       <c r="C658">
         <v>6.9092991999999995</v>
       </c>
@@ -11745,6 +13717,9 @@
       <c r="A659" s="1">
         <v>41773</v>
       </c>
+      <c r="B659">
+        <v>505000000</v>
+      </c>
       <c r="C659">
         <v>4.9837568000000001</v>
       </c>
@@ -11768,6 +13743,9 @@
       <c r="A660" s="1">
         <v>41774</v>
       </c>
+      <c r="B660">
+        <v>505000000</v>
+      </c>
       <c r="C660">
         <v>3.8822332799999999</v>
       </c>
@@ -11788,6 +13766,9 @@
       <c r="A661" s="1">
         <v>41775</v>
       </c>
+      <c r="B661">
+        <v>505000000</v>
+      </c>
       <c r="C661">
         <v>3.25076864</v>
       </c>
@@ -11808,6 +13789,9 @@
       <c r="A662" s="1">
         <v>41776</v>
       </c>
+      <c r="B662">
+        <v>505000000</v>
+      </c>
       <c r="C662">
         <v>2.7750463999999999</v>
       </c>
@@ -11828,6 +13812,9 @@
       <c r="A663" s="1">
         <v>41777</v>
       </c>
+      <c r="B663">
+        <v>505000000</v>
+      </c>
       <c r="C663">
         <v>2.9959174399999999</v>
       </c>
@@ -11848,6 +13835,9 @@
       <c r="A664" s="1">
         <v>41778</v>
       </c>
+      <c r="B664">
+        <v>505000000</v>
+      </c>
       <c r="C664">
         <v>2.5683337600000002</v>
       </c>
@@ -11868,6 +13858,9 @@
       <c r="A665" s="1">
         <v>41779</v>
       </c>
+      <c r="B665">
+        <v>505000000</v>
+      </c>
       <c r="C665">
         <v>3.1601548799999999</v>
       </c>
@@ -11888,6 +13881,9 @@
       <c r="A666" s="1">
         <v>41780</v>
       </c>
+      <c r="B666">
+        <v>505000000</v>
+      </c>
       <c r="C666">
         <v>2.5796604799999998</v>
       </c>
@@ -11908,6 +13904,9 @@
       <c r="A667" s="1">
         <v>41781</v>
       </c>
+      <c r="B667">
+        <v>505000000</v>
+      </c>
       <c r="C667">
         <v>2.33047264</v>
       </c>
@@ -11928,6 +13927,9 @@
       <c r="A668" s="1">
         <v>41782</v>
       </c>
+      <c r="B668">
+        <v>505000000</v>
+      </c>
       <c r="C668">
         <v>2.21437376</v>
       </c>
@@ -11948,6 +13950,9 @@
       <c r="A669" s="1">
         <v>41783</v>
       </c>
+      <c r="B669">
+        <v>505000000</v>
+      </c>
       <c r="C669">
         <v>2.2625123199999999</v>
       </c>
@@ -11968,6 +13973,9 @@
       <c r="A670" s="1">
         <v>41784</v>
       </c>
+      <c r="B670">
+        <v>505000000</v>
+      </c>
       <c r="C670">
         <v>2.1067699200000001</v>
       </c>
@@ -11988,6 +13996,9 @@
       <c r="A671" s="1">
         <v>41785</v>
       </c>
+      <c r="B671">
+        <v>505000000</v>
+      </c>
       <c r="C671">
         <v>2.6589475200000003</v>
       </c>
@@ -12008,6 +14019,9 @@
       <c r="A672" s="1">
         <v>41786</v>
       </c>
+      <c r="B672">
+        <v>505000000</v>
+      </c>
       <c r="C672">
         <v>2.5343535999999998</v>
       </c>
@@ -12028,6 +14042,9 @@
       <c r="A673" s="1">
         <v>41787</v>
       </c>
+      <c r="B673">
+        <v>505000000</v>
+      </c>
       <c r="C673">
         <v>3.6528671999999998</v>
       </c>
@@ -12051,6 +14068,9 @@
       <c r="A674" s="1">
         <v>41788</v>
       </c>
+      <c r="B674">
+        <v>505000000</v>
+      </c>
       <c r="C674">
         <v>2.83168</v>
       </c>
@@ -12071,6 +14091,9 @@
       <c r="A675" s="1">
         <v>41789</v>
       </c>
+      <c r="B675">
+        <v>505000000</v>
+      </c>
       <c r="C675">
         <v>2.5881555199999999</v>
       </c>
@@ -12085,6 +14108,9 @@
       <c r="A676" s="1">
         <v>41790</v>
       </c>
+      <c r="B676">
+        <v>505000000</v>
+      </c>
       <c r="C676">
         <v>2.1803935999999999</v>
       </c>
@@ -12099,6 +14125,9 @@
       <c r="A677" s="1">
         <v>41791</v>
       </c>
+      <c r="B677">
+        <v>505000000</v>
+      </c>
       <c r="C677">
         <v>2.1379183999999998</v>
       </c>
@@ -12113,6 +14142,9 @@
       <c r="A678" s="1">
         <v>41792</v>
       </c>
+      <c r="B678">
+        <v>505000000</v>
+      </c>
       <c r="C678">
         <v>8.2118719999999996</v>
       </c>
@@ -12127,6 +14159,9 @@
       <c r="A679" s="1">
         <v>41793</v>
       </c>
+      <c r="B679">
+        <v>505000000</v>
+      </c>
       <c r="C679">
         <v>9.5144447999999997</v>
       </c>
@@ -12141,6 +14176,9 @@
       <c r="A680" s="1">
         <v>41794</v>
       </c>
+      <c r="B680">
+        <v>505000000</v>
+      </c>
       <c r="C680">
         <v>5.6605283200000001</v>
       </c>
@@ -12155,6 +14193,9 @@
       <c r="A681" s="1">
         <v>41795</v>
       </c>
+      <c r="B681">
+        <v>505000000</v>
+      </c>
       <c r="C681">
         <v>3.6472038400000004</v>
       </c>
@@ -12169,6 +14210,9 @@
       <c r="A682" s="1">
         <v>41796</v>
       </c>
+      <c r="B682">
+        <v>505000000</v>
+      </c>
       <c r="C682">
         <v>3.2337785600000002</v>
       </c>
@@ -12183,6 +14227,9 @@
       <c r="A683" s="1">
         <v>41797</v>
       </c>
+      <c r="B683">
+        <v>505000000</v>
+      </c>
       <c r="C683">
         <v>3.2592636799999997</v>
       </c>
@@ -12197,6 +14244,9 @@
       <c r="A684" s="1">
         <v>41798</v>
       </c>
+      <c r="B684">
+        <v>505000000</v>
+      </c>
       <c r="C684">
         <v>2.9959174399999999</v>
       </c>
@@ -12211,6 +14261,9 @@
       <c r="A685" s="1">
         <v>41799</v>
       </c>
+      <c r="B685">
+        <v>505000000</v>
+      </c>
       <c r="C685">
         <v>2.71558112</v>
       </c>
@@ -12228,6 +14281,9 @@
       <c r="A686" s="1">
         <v>41800</v>
       </c>
+      <c r="B686">
+        <v>505000000</v>
+      </c>
       <c r="C686">
         <v>2.7014227200000001</v>
       </c>
@@ -12245,6 +14301,9 @@
       <c r="A687" s="1">
         <v>41801</v>
       </c>
+      <c r="B687">
+        <v>505000000</v>
+      </c>
       <c r="C687">
         <v>2.2993241599999998</v>
       </c>
@@ -12262,6 +14321,9 @@
       <c r="A688" s="1">
         <v>41802</v>
       </c>
+      <c r="B688">
+        <v>505000000</v>
+      </c>
       <c r="C688">
         <v>2.2993241599999998</v>
       </c>
@@ -12282,6 +14344,9 @@
       <c r="A689" s="1">
         <v>41803</v>
       </c>
+      <c r="B689">
+        <v>505000000</v>
+      </c>
       <c r="C689">
         <v>2.5655020799999999</v>
       </c>
@@ -12299,6 +14364,9 @@
       <c r="A690" s="1">
         <v>41804</v>
       </c>
+      <c r="B690">
+        <v>505000000</v>
+      </c>
       <c r="C690">
         <v>2.0416412799999999</v>
       </c>
@@ -12316,6 +14384,9 @@
       <c r="A691" s="1">
         <v>41805</v>
       </c>
+      <c r="B691">
+        <v>505000000</v>
+      </c>
       <c r="C691">
         <v>1.9850076799999998</v>
       </c>
@@ -12333,6 +14404,9 @@
       <c r="A692" s="1">
         <v>41806</v>
       </c>
+      <c r="B692">
+        <v>505000000</v>
+      </c>
       <c r="C692">
         <v>2.3361359999999998</v>
       </c>
@@ -12353,6 +14427,9 @@
       <c r="A693" s="1">
         <v>41807</v>
       </c>
+      <c r="B693">
+        <v>505000000</v>
+      </c>
       <c r="C693">
         <v>2.7184127999999999</v>
       </c>
@@ -12370,6 +14447,9 @@
       <c r="A694" s="1">
         <v>41808</v>
       </c>
+      <c r="B694">
+        <v>505000000</v>
+      </c>
       <c r="C694">
         <v>4.6014799999999996</v>
       </c>
@@ -12384,6 +14464,9 @@
       <c r="A695" s="1">
         <v>41809</v>
       </c>
+      <c r="B695">
+        <v>505000000</v>
+      </c>
       <c r="C695">
         <v>7.5322687999999998</v>
       </c>
@@ -12398,6 +14481,9 @@
       <c r="A696" s="1">
         <v>41810</v>
       </c>
+      <c r="B696">
+        <v>505000000</v>
+      </c>
       <c r="C696">
         <v>10.647116799999999</v>
       </c>
@@ -12412,6 +14498,9 @@
       <c r="A697" s="1">
         <v>41811</v>
       </c>
+      <c r="B697">
+        <v>505000000</v>
+      </c>
       <c r="C697">
         <v>11.666521599999999</v>
       </c>
@@ -12426,6 +14515,9 @@
       <c r="A698" s="1">
         <v>41812</v>
       </c>
+      <c r="B698">
+        <v>505000000</v>
+      </c>
       <c r="C698">
         <v>7.3340512000000002</v>
       </c>
@@ -12440,6 +14532,9 @@
       <c r="A699" s="1">
         <v>41813</v>
       </c>
+      <c r="B699">
+        <v>505000000</v>
+      </c>
       <c r="C699">
         <v>5.2612614400000002</v>
       </c>
@@ -12457,6 +14552,9 @@
       <c r="A700" s="1">
         <v>41814</v>
       </c>
+      <c r="B700">
+        <v>505000000</v>
+      </c>
       <c r="C700">
         <v>4.3154803199999998</v>
       </c>
@@ -12471,6 +14569,9 @@
       <c r="A701" s="1">
         <v>41815</v>
       </c>
+      <c r="B701">
+        <v>505000000</v>
+      </c>
       <c r="C701">
         <v>3.5707484799999998</v>
       </c>
@@ -12485,6 +14586,9 @@
       <c r="A702" s="1">
         <v>41816</v>
       </c>
+      <c r="B702">
+        <v>505000000</v>
+      </c>
       <c r="C702">
         <v>3.0015808000000002</v>
       </c>
@@ -12499,6 +14603,9 @@
       <c r="A703" s="1">
         <v>41817</v>
       </c>
+      <c r="B703">
+        <v>505000000</v>
+      </c>
       <c r="C703">
         <v>2.41259136</v>
       </c>
@@ -12513,6 +14620,9 @@
       <c r="A704" s="1">
         <v>41818</v>
       </c>
+      <c r="B704">
+        <v>505000000</v>
+      </c>
       <c r="C704">
         <v>2.33047264</v>
       </c>
@@ -12527,6 +14637,9 @@
       <c r="A705" s="1">
         <v>41819</v>
       </c>
+      <c r="B705">
+        <v>505000000</v>
+      </c>
       <c r="C705">
         <v>2.5201951999999999</v>
       </c>
@@ -12541,6 +14654,9 @@
       <c r="A706" s="1">
         <v>41820</v>
       </c>
+      <c r="B706">
+        <v>505000000</v>
+      </c>
       <c r="C706">
         <v>5.5500927999999998</v>
       </c>
@@ -12555,6 +14671,9 @@
       <c r="A707" s="1">
         <v>41821</v>
       </c>
+      <c r="B707">
+        <v>505000000</v>
+      </c>
       <c r="C707">
         <v>9.2595936000000005</v>
       </c>
@@ -12569,6 +14688,9 @@
       <c r="A708" s="1">
         <v>41822</v>
       </c>
+      <c r="B708">
+        <v>505000000</v>
+      </c>
       <c r="C708">
         <v>7.1641503999999996</v>
       </c>
@@ -12583,6 +14705,9 @@
       <c r="A709" s="1">
         <v>41823</v>
       </c>
+      <c r="B709">
+        <v>505000000</v>
+      </c>
       <c r="C709">
         <v>4.2192031999999999</v>
       </c>
@@ -12597,6 +14722,9 @@
       <c r="A710" s="1">
         <v>41824</v>
       </c>
+      <c r="B710">
+        <v>505000000</v>
+      </c>
       <c r="C710">
         <v>3.4546495999999998</v>
       </c>
@@ -12611,6 +14739,9 @@
       <c r="A711" s="1">
         <v>41825</v>
       </c>
+      <c r="B711">
+        <v>505000000</v>
+      </c>
       <c r="C711">
         <v>2.4550665600000001</v>
       </c>
@@ -12625,6 +14756,9 @@
       <c r="A712" s="1">
         <v>41826</v>
       </c>
+      <c r="B712">
+        <v>505000000</v>
+      </c>
       <c r="C712">
         <v>3.4518179200000003</v>
       </c>
@@ -12639,6 +14773,9 @@
       <c r="A713" s="1">
         <v>41827</v>
       </c>
+      <c r="B713">
+        <v>505000000</v>
+      </c>
       <c r="C713">
         <v>2.8260166399999997</v>
       </c>
@@ -12656,6 +14793,9 @@
       <c r="A714" s="1">
         <v>41828</v>
       </c>
+      <c r="B714">
+        <v>505000000</v>
+      </c>
       <c r="C714">
         <v>3.4801347200000001</v>
       </c>
@@ -12670,6 +14810,9 @@
       <c r="A715" s="1">
         <v>41829</v>
       </c>
+      <c r="B715">
+        <v>505000000</v>
+      </c>
       <c r="C715">
         <v>3.0808678399999998</v>
       </c>
@@ -12684,6 +14827,9 @@
       <c r="A716" s="1">
         <v>41830</v>
       </c>
+      <c r="B716">
+        <v>505000000</v>
+      </c>
       <c r="C716">
         <v>2.5145318400000001</v>
       </c>
@@ -12698,6 +14844,9 @@
       <c r="A717" s="1">
         <v>41831</v>
       </c>
+      <c r="B717">
+        <v>505000000</v>
+      </c>
       <c r="C717">
         <v>2.6646108799999997</v>
       </c>
@@ -12715,6 +14864,9 @@
       <c r="A718" s="1">
         <v>41832</v>
       </c>
+      <c r="B718">
+        <v>505000000</v>
+      </c>
       <c r="C718">
         <v>3.0129075200000002</v>
       </c>
@@ -12732,6 +14884,9 @@
       <c r="A719" s="1">
         <v>41833</v>
       </c>
+      <c r="B719">
+        <v>505000000</v>
+      </c>
       <c r="C719">
         <v>2.78354144</v>
       </c>
@@ -12746,6 +14901,9 @@
       <c r="A720" s="1">
         <v>41834</v>
       </c>
+      <c r="B720">
+        <v>505000000</v>
+      </c>
       <c r="C720">
         <v>2.5626704</v>
       </c>
@@ -12760,6 +14918,9 @@
       <c r="A721" s="1">
         <v>41835</v>
       </c>
+      <c r="B721">
+        <v>505000000</v>
+      </c>
       <c r="C721">
         <v>2.7070860799999998</v>
       </c>
@@ -12774,6 +14935,9 @@
       <c r="A722" s="1">
         <v>41836</v>
       </c>
+      <c r="B722">
+        <v>505000000</v>
+      </c>
       <c r="C722">
         <v>2.4267497599999999</v>
       </c>
@@ -12788,6 +14952,9 @@
       <c r="A723" s="1">
         <v>41837</v>
       </c>
+      <c r="B723">
+        <v>505000000</v>
+      </c>
       <c r="C723">
         <v>2.3078192</v>
       </c>
@@ -12802,6 +14969,9 @@
       <c r="A724" s="1">
         <v>41838</v>
       </c>
+      <c r="B724">
+        <v>505000000</v>
+      </c>
       <c r="C724">
         <v>2.4494031999999999</v>
       </c>
@@ -12816,6 +14986,9 @@
       <c r="A725" s="1">
         <v>41839</v>
       </c>
+      <c r="B725">
+        <v>505000000</v>
+      </c>
       <c r="C725">
         <v>2.3729478399999997</v>
       </c>
@@ -12830,6 +15003,9 @@
       <c r="A726" s="1">
         <v>41840</v>
       </c>
+      <c r="B726">
+        <v>505000000</v>
+      </c>
       <c r="C726">
         <v>2.1973836799999997</v>
       </c>
@@ -12847,6 +15023,9 @@
       <c r="A727" s="1">
         <v>41841</v>
       </c>
+      <c r="B727">
+        <v>505000000</v>
+      </c>
       <c r="C727">
         <v>2.1973836799999997</v>
       </c>
@@ -12867,6 +15046,9 @@
       <c r="A728" s="1">
         <v>41842</v>
       </c>
+      <c r="B728">
+        <v>505000000</v>
+      </c>
       <c r="C728">
         <v>2.46922496</v>
       </c>
@@ -12884,6 +15066,9 @@
       <c r="A729" s="1">
         <v>41843</v>
       </c>
+      <c r="B729">
+        <v>505000000</v>
+      </c>
       <c r="C729">
         <v>1.9765126399999999</v>
       </c>
@@ -12901,6 +15086,9 @@
       <c r="A730" s="1">
         <v>41844</v>
       </c>
+      <c r="B730">
+        <v>505000000</v>
+      </c>
       <c r="C730">
         <v>1.9425324799999999</v>
       </c>
@@ -12915,6 +15103,9 @@
       <c r="A731" s="1">
         <v>41845</v>
       </c>
+      <c r="B731">
+        <v>505000000</v>
+      </c>
       <c r="C731">
         <v>2.00482944</v>
       </c>
@@ -12929,6 +15120,9 @@
       <c r="A732" s="1">
         <v>41846</v>
       </c>
+      <c r="B732">
+        <v>505000000</v>
+      </c>
       <c r="C732">
         <v>2.4635615999999998</v>
       </c>
@@ -12943,6 +15137,9 @@
       <c r="A733" s="1">
         <v>41847</v>
       </c>
+      <c r="B733">
+        <v>505000000</v>
+      </c>
       <c r="C733">
         <v>2.3474627200000002</v>
       </c>
@@ -12957,6 +15154,9 @@
       <c r="A734" s="1">
         <v>41848</v>
       </c>
+      <c r="B734">
+        <v>505000000</v>
+      </c>
       <c r="C734">
         <v>1.8887305599999999</v>
       </c>
@@ -12971,6 +15171,9 @@
       <c r="A735" s="1">
         <v>41849</v>
       </c>
+      <c r="B735">
+        <v>505000000</v>
+      </c>
       <c r="C735">
         <v>2.0473046399999997</v>
       </c>
@@ -12985,6 +15188,9 @@
       <c r="A736" s="1">
         <v>41850</v>
       </c>
+      <c r="B736">
+        <v>505000000</v>
+      </c>
       <c r="C736">
         <v>2.0388096</v>
       </c>
@@ -12999,6 +15205,9 @@
       <c r="A737" s="1">
         <v>41851</v>
       </c>
+      <c r="B737">
+        <v>505000000</v>
+      </c>
       <c r="C737">
         <v>1.9821759999999999</v>
       </c>
@@ -13013,6 +15222,9 @@
       <c r="A738" s="1">
         <v>41852</v>
       </c>
+      <c r="B738">
+        <v>505000000</v>
+      </c>
       <c r="C738">
         <v>2.2341955200000001</v>
       </c>
@@ -13030,6 +15242,9 @@
       <c r="A739" s="1">
         <v>41853</v>
       </c>
+      <c r="B739">
+        <v>505000000</v>
+      </c>
       <c r="C739">
         <v>2.73823456</v>
       </c>
@@ -13044,6 +15259,9 @@
       <c r="A740" s="1">
         <v>41854</v>
       </c>
+      <c r="B740">
+        <v>505000000</v>
+      </c>
       <c r="C740">
         <v>2.2568489600000001</v>
       </c>
@@ -13061,6 +15279,9 @@
       <c r="A741" s="1">
         <v>41855</v>
       </c>
+      <c r="B741">
+        <v>505000000</v>
+      </c>
       <c r="C741">
         <v>3.36686752</v>
       </c>
@@ -13081,6 +15302,9 @@
       <c r="A742" s="1">
         <v>41856</v>
       </c>
+      <c r="B742">
+        <v>505000000</v>
+      </c>
       <c r="C742">
         <v>8.0986048000000004</v>
       </c>
@@ -13095,6 +15319,9 @@
       <c r="A743" s="1">
         <v>41857</v>
       </c>
+      <c r="B743">
+        <v>505000000</v>
+      </c>
       <c r="C743">
         <v>4.6722719999999995</v>
       </c>
@@ -13112,6 +15339,9 @@
       <c r="A744" s="1">
         <v>41858</v>
       </c>
+      <c r="B744">
+        <v>505000000</v>
+      </c>
       <c r="C744">
         <v>3.4829664</v>
       </c>
@@ -13129,6 +15359,9 @@
       <c r="A745" s="1">
         <v>41859</v>
       </c>
+      <c r="B745">
+        <v>505000000</v>
+      </c>
       <c r="C745">
         <v>2.8628284799999997</v>
       </c>
@@ -13146,6 +15379,9 @@
       <c r="A746" s="1">
         <v>41860</v>
       </c>
+      <c r="B746">
+        <v>505000000</v>
+      </c>
       <c r="C746">
         <v>2.6419574400000001</v>
       </c>
@@ -13163,6 +15399,9 @@
       <c r="A747" s="1">
         <v>41861</v>
       </c>
+      <c r="B747">
+        <v>505000000</v>
+      </c>
       <c r="C747">
         <v>2.4550665600000001</v>
       </c>
@@ -13180,6 +15419,9 @@
       <c r="A748" s="1">
         <v>41862</v>
       </c>
+      <c r="B748">
+        <v>505000000</v>
+      </c>
       <c r="C748">
         <v>2.72690784</v>
       </c>
@@ -13197,6 +15439,9 @@
       <c r="A749" s="1">
         <v>41863</v>
       </c>
+      <c r="B749">
+        <v>505000000</v>
+      </c>
       <c r="C749">
         <v>2.2993241599999998</v>
       </c>
@@ -13211,6 +15456,9 @@
       <c r="A750" s="1">
         <v>41864</v>
       </c>
+      <c r="B750">
+        <v>505000000</v>
+      </c>
       <c r="C750">
         <v>2.3644528</v>
       </c>
@@ -13225,6 +15473,9 @@
       <c r="A751" s="1">
         <v>41865</v>
       </c>
+      <c r="B751">
+        <v>505000000</v>
+      </c>
       <c r="C751">
         <v>2.1379183999999998</v>
       </c>
@@ -13239,6 +15490,9 @@
       <c r="A752" s="1">
         <v>41866</v>
       </c>
+      <c r="B752">
+        <v>505000000</v>
+      </c>
       <c r="C752">
         <v>1.7698</v>
       </c>
@@ -13253,6 +15507,9 @@
       <c r="A753" s="1">
         <v>41867</v>
       </c>
+      <c r="B753">
+        <v>505000000</v>
+      </c>
       <c r="C753">
         <v>2.3134825600000002</v>
       </c>
@@ -13270,6 +15527,9 @@
       <c r="A754" s="1">
         <v>41868</v>
       </c>
+      <c r="B754">
+        <v>505000000</v>
+      </c>
       <c r="C754">
         <v>2.0784531200000003</v>
       </c>
@@ -13287,6 +15547,9 @@
       <c r="A755" s="1">
         <v>41869</v>
       </c>
+      <c r="B755">
+        <v>505000000</v>
+      </c>
       <c r="C755">
         <v>1.7046713600000001</v>
       </c>
@@ -13301,6 +15564,9 @@
       <c r="A756" s="1">
         <v>41870</v>
       </c>
+      <c r="B756">
+        <v>505000000</v>
+      </c>
       <c r="C756">
         <v>2.2795024000000002</v>
       </c>
@@ -13318,6 +15584,9 @@
       <c r="A757" s="1">
         <v>41871</v>
       </c>
+      <c r="B757">
+        <v>505000000</v>
+      </c>
       <c r="C757">
         <v>2.0841164799999996</v>
       </c>
@@ -13338,6 +15607,9 @@
       <c r="A758" s="1">
         <v>41872</v>
       </c>
+      <c r="B758">
+        <v>505000000</v>
+      </c>
       <c r="C758">
         <v>1.7386515199999999</v>
       </c>
@@ -13355,6 +15627,9 @@
       <c r="A759" s="1">
         <v>41873</v>
       </c>
+      <c r="B759">
+        <v>505000000</v>
+      </c>
       <c r="C759">
         <v>1.9283740800000002</v>
       </c>
@@ -13372,6 +15647,9 @@
       <c r="A760" s="1">
         <v>41874</v>
       </c>
+      <c r="B760">
+        <v>505000000</v>
+      </c>
       <c r="C760">
         <v>1.8604137600000001</v>
       </c>
@@ -13389,6 +15667,9 @@
       <c r="A761" s="1">
         <v>41875</v>
       </c>
+      <c r="B761">
+        <v>505000000</v>
+      </c>
       <c r="C761">
         <v>1.69051296</v>
       </c>
@@ -13406,6 +15687,9 @@
       <c r="A762" s="1">
         <v>41876</v>
       </c>
+      <c r="B762">
+        <v>505000000</v>
+      </c>
       <c r="C762">
         <v>2.7184127999999999</v>
       </c>
@@ -13423,6 +15707,9 @@
       <c r="A763" s="1">
         <v>41877</v>
       </c>
+      <c r="B763">
+        <v>505000000</v>
+      </c>
       <c r="C763">
         <v>3.0298976</v>
       </c>
@@ -13440,6 +15727,9 @@
       <c r="A764" s="1">
         <v>41878</v>
       </c>
+      <c r="B764">
+        <v>505000000</v>
+      </c>
       <c r="C764">
         <v>2.27100736</v>
       </c>
@@ -13457,6 +15747,9 @@
       <c r="A765" s="1">
         <v>41879</v>
       </c>
+      <c r="B765">
+        <v>505000000</v>
+      </c>
       <c r="C765">
         <v>2.0104928000000002</v>
       </c>
@@ -13471,6 +15764,9 @@
       <c r="A766" s="1">
         <v>41880</v>
       </c>
+      <c r="B766">
+        <v>505000000</v>
+      </c>
       <c r="C766">
         <v>1.6055625600000001</v>
       </c>
@@ -13485,6 +15781,9 @@
       <c r="A767" s="1">
         <v>41881</v>
       </c>
+      <c r="B767">
+        <v>505000000</v>
+      </c>
       <c r="C767">
         <v>2.7070860799999998</v>
       </c>
@@ -13502,6 +15801,9 @@
       <c r="A768" s="1">
         <v>41882</v>
       </c>
+      <c r="B768">
+        <v>505000000</v>
+      </c>
       <c r="C768">
         <v>2.55134368</v>
       </c>
@@ -13519,6 +15821,9 @@
       <c r="A769" s="1">
         <v>41883</v>
       </c>
+      <c r="B769">
+        <v>505000000</v>
+      </c>
       <c r="C769">
         <v>2.3078192</v>
       </c>
@@ -13533,6 +15838,9 @@
       <c r="A770" s="1">
         <v>41884</v>
       </c>
+      <c r="B770">
+        <v>505000000</v>
+      </c>
       <c r="C770">
         <v>2.1634035200000001</v>
       </c>
@@ -13550,6 +15858,9 @@
       <c r="A771" s="1">
         <v>41885</v>
       </c>
+      <c r="B771">
+        <v>505000000</v>
+      </c>
       <c r="C771">
         <v>1.3138995199999999</v>
       </c>
@@ -13564,6 +15875,9 @@
       <c r="A772" s="1">
         <v>41886</v>
       </c>
+      <c r="B772">
+        <v>505000000</v>
+      </c>
       <c r="C772">
         <v>3.3696991999999999</v>
       </c>
@@ -13578,6 +15892,9 @@
       <c r="A773" s="1">
         <v>41887</v>
       </c>
+      <c r="B773">
+        <v>505000000</v>
+      </c>
       <c r="C773">
         <v>4.5590048000000003</v>
       </c>
@@ -13592,6 +15909,9 @@
       <c r="A774" s="1">
         <v>41888</v>
       </c>
+      <c r="B774">
+        <v>505000000</v>
+      </c>
       <c r="C774">
         <v>3.1714815999999999</v>
       </c>
@@ -13609,6 +15929,9 @@
       <c r="A775" s="1">
         <v>41889</v>
       </c>
+      <c r="B775">
+        <v>505000000</v>
+      </c>
       <c r="C775">
         <v>2.5768287999999999</v>
       </c>
@@ -13626,6 +15949,9 @@
       <c r="A776" s="1">
         <v>41890</v>
       </c>
+      <c r="B776">
+        <v>505000000</v>
+      </c>
       <c r="C776">
         <v>2.0954432000000001</v>
       </c>
@@ -13640,6 +15966,9 @@
       <c r="A777" s="1">
         <v>41891</v>
       </c>
+      <c r="B777">
+        <v>505000000</v>
+      </c>
       <c r="C777">
         <v>2.1803935999999999</v>
       </c>
@@ -13654,6 +15983,9 @@
       <c r="A778" s="1">
         <v>41892</v>
       </c>
+      <c r="B778">
+        <v>505000000</v>
+      </c>
       <c r="C778">
         <v>2.8033632000000002</v>
       </c>
@@ -13668,6 +16000,9 @@
       <c r="A779" s="1">
         <v>41893</v>
       </c>
+      <c r="B779">
+        <v>505000000</v>
+      </c>
       <c r="C779">
         <v>2.2370272</v>
       </c>
@@ -13682,6 +16017,9 @@
       <c r="A780" s="1">
         <v>41894</v>
       </c>
+      <c r="B780">
+        <v>505000000</v>
+      </c>
       <c r="C780">
         <v>2.2936608000000001</v>
       </c>
@@ -13696,6 +16034,9 @@
       <c r="A781" s="1">
         <v>41895</v>
       </c>
+      <c r="B781">
+        <v>505000000</v>
+      </c>
       <c r="C781">
         <v>2.2653439999999998</v>
       </c>
@@ -13710,6 +16051,9 @@
       <c r="A782" s="1">
         <v>41896</v>
       </c>
+      <c r="B782">
+        <v>505000000</v>
+      </c>
       <c r="C782">
         <v>1.9538591999999999</v>
       </c>
@@ -13724,6 +16068,9 @@
       <c r="A783" s="1">
         <v>41897</v>
       </c>
+      <c r="B783">
+        <v>505000000</v>
+      </c>
       <c r="C783">
         <v>2.5428486399999999</v>
       </c>
@@ -13738,6 +16085,9 @@
       <c r="A784" s="1">
         <v>41898</v>
       </c>
+      <c r="B784">
+        <v>505000000</v>
+      </c>
       <c r="C784">
         <v>2.3219775999999999</v>
       </c>
@@ -13752,6 +16102,9 @@
       <c r="A785" s="1">
         <v>41899</v>
       </c>
+      <c r="B785">
+        <v>505000000</v>
+      </c>
       <c r="C785">
         <v>2.2172054399999999</v>
       </c>
@@ -13766,6 +16119,9 @@
       <c r="A786" s="1">
         <v>41900</v>
       </c>
+      <c r="B786">
+        <v>505000000</v>
+      </c>
       <c r="C786">
         <v>2.12092832</v>
       </c>
@@ -13780,6 +16136,9 @@
       <c r="A787" s="1">
         <v>41901</v>
       </c>
+      <c r="B787">
+        <v>505000000</v>
+      </c>
       <c r="C787">
         <v>1.2742560000000001</v>
       </c>
@@ -13794,6 +16153,9 @@
       <c r="A788" s="1">
         <v>41902</v>
       </c>
+      <c r="B788">
+        <v>505000000</v>
+      </c>
       <c r="C788">
         <v>2.6617791999999998</v>
       </c>
@@ -13811,6 +16173,9 @@
       <c r="A789" s="1">
         <v>41903</v>
       </c>
+      <c r="B789">
+        <v>505000000</v>
+      </c>
       <c r="C789">
         <v>2.4069280000000002</v>
       </c>
@@ -13828,6 +16193,9 @@
       <c r="A790" s="1">
         <v>41904</v>
       </c>
+      <c r="B790">
+        <v>505000000</v>
+      </c>
       <c r="C790">
         <v>2.01615616</v>
       </c>
@@ -13842,6 +16210,9 @@
       <c r="A791" s="1">
         <v>41905</v>
       </c>
+      <c r="B791">
+        <v>505000000</v>
+      </c>
       <c r="C791">
         <v>1.9765126399999999</v>
       </c>
@@ -13856,6 +16227,9 @@
       <c r="A792" s="1">
         <v>41906</v>
       </c>
+      <c r="B792">
+        <v>505000000</v>
+      </c>
       <c r="C792">
         <v>2.02748288</v>
       </c>
@@ -13873,6 +16247,9 @@
       <c r="A793" s="1">
         <v>41907</v>
       </c>
+      <c r="B793">
+        <v>505000000</v>
+      </c>
       <c r="C793">
         <v>2.0359779200000001</v>
       </c>
@@ -13887,6 +16264,9 @@
       <c r="A794" s="1">
         <v>41908</v>
       </c>
+      <c r="B794">
+        <v>505000000</v>
+      </c>
       <c r="C794">
         <v>1.9312057600000001</v>
       </c>
@@ -13901,6 +16281,9 @@
       <c r="A795" s="1">
         <v>41909</v>
       </c>
+      <c r="B795">
+        <v>505000000</v>
+      </c>
       <c r="C795">
         <v>1.9595225600000001</v>
       </c>
@@ -13915,6 +16298,9 @@
       <c r="A796" s="1">
         <v>41910</v>
       </c>
+      <c r="B796">
+        <v>505000000</v>
+      </c>
       <c r="C796">
         <v>2.0218195200000002</v>
       </c>
@@ -13932,6 +16318,9 @@
       <c r="A797" s="1">
         <v>41911</v>
       </c>
+      <c r="B797">
+        <v>505000000</v>
+      </c>
       <c r="C797">
         <v>2.2795024000000002</v>
       </c>
@@ -13946,6 +16335,9 @@
       <c r="A798" s="1">
         <v>41912</v>
       </c>
+      <c r="B798">
+        <v>505000000</v>
+      </c>
       <c r="C798">
         <v>1.6650278399999998</v>
       </c>
@@ -13960,6 +16352,9 @@
       <c r="A799" s="1">
         <v>41913</v>
       </c>
+      <c r="B799">
+        <v>505000000</v>
+      </c>
       <c r="C799">
         <v>1.8547503999999999</v>
       </c>
@@ -13974,6 +16369,9 @@
       <c r="A800" s="1">
         <v>41914</v>
       </c>
+      <c r="B800">
+        <v>505000000</v>
+      </c>
       <c r="C800">
         <v>1.62538432</v>
       </c>
@@ -13988,6 +16386,9 @@
       <c r="A801" s="1">
         <v>41915</v>
       </c>
+      <c r="B801">
+        <v>505000000</v>
+      </c>
       <c r="C801">
         <v>2.4550665600000001</v>
       </c>
@@ -14002,6 +16403,9 @@
       <c r="A802" s="1">
         <v>41916</v>
       </c>
+      <c r="B802">
+        <v>505000000</v>
+      </c>
       <c r="C802">
         <v>2.760888</v>
       </c>
@@ -14016,6 +16420,9 @@
       <c r="A803" s="1">
         <v>41917</v>
       </c>
+      <c r="B803">
+        <v>505000000</v>
+      </c>
       <c r="C803">
         <v>2.1237599999999999</v>
       </c>
@@ -14030,6 +16437,9 @@
       <c r="A804" s="1">
         <v>41918</v>
       </c>
+      <c r="B804">
+        <v>505000000</v>
+      </c>
       <c r="C804">
         <v>1.9595225600000001</v>
       </c>
@@ -14044,6 +16454,9 @@
       <c r="A805" s="1">
         <v>41919</v>
       </c>
+      <c r="B805">
+        <v>505000000</v>
+      </c>
       <c r="C805">
         <v>2.4862150399999998</v>
       </c>
@@ -14058,6 +16471,9 @@
       <c r="A806" s="1">
         <v>41920</v>
       </c>
+      <c r="B806">
+        <v>505000000</v>
+      </c>
       <c r="C806">
         <v>2.07278976</v>
       </c>
@@ -14072,6 +16488,9 @@
       <c r="A807" s="1">
         <v>41921</v>
       </c>
+      <c r="B807">
+        <v>505000000</v>
+      </c>
       <c r="C807">
         <v>2.1067699200000001</v>
       </c>
@@ -14086,6 +16505,9 @@
       <c r="A808" s="1">
         <v>41922</v>
       </c>
+      <c r="B808">
+        <v>505000000</v>
+      </c>
       <c r="C808">
         <v>1.9142156799999999</v>
       </c>
@@ -14100,6 +16522,9 @@
       <c r="A809" s="1">
         <v>41923</v>
       </c>
+      <c r="B809">
+        <v>505000000</v>
+      </c>
       <c r="C809">
         <v>1.8320969600000001</v>
       </c>
@@ -14114,6 +16539,9 @@
       <c r="A810" s="1">
         <v>41924</v>
       </c>
+      <c r="B810">
+        <v>505000000</v>
+      </c>
       <c r="C810">
         <v>2.1180966400000001</v>
       </c>
@@ -14128,6 +16556,9 @@
       <c r="A811" s="1">
         <v>41925</v>
       </c>
+      <c r="B811">
+        <v>505000000</v>
+      </c>
       <c r="C811">
         <v>2.6249673599999999</v>
       </c>
@@ -14142,6 +16573,9 @@
       <c r="A812" s="1">
         <v>41926</v>
       </c>
+      <c r="B812">
+        <v>505000000</v>
+      </c>
       <c r="C812">
         <v>6.0314784000000001</v>
       </c>
@@ -14156,6 +16590,9 @@
       <c r="A813" s="1">
         <v>41927</v>
       </c>
+      <c r="B813">
+        <v>505000000</v>
+      </c>
       <c r="C813">
         <v>4.2475199999999997</v>
       </c>
@@ -14170,6 +16607,9 @@
       <c r="A814" s="1">
         <v>41928</v>
       </c>
+      <c r="B814">
+        <v>505000000</v>
+      </c>
       <c r="C814">
         <v>3.2847488</v>
       </c>
@@ -14184,6 +16624,9 @@
       <c r="A815" s="1">
         <v>41929</v>
       </c>
+      <c r="B815">
+        <v>505000000</v>
+      </c>
       <c r="C815">
         <v>3.3300556799999996</v>
       </c>
@@ -14198,6 +16641,9 @@
       <c r="A816" s="1">
         <v>41930</v>
       </c>
+      <c r="B816">
+        <v>505000000</v>
+      </c>
       <c r="C816">
         <v>2.8260166399999997</v>
       </c>
@@ -14212,6 +16658,9 @@
       <c r="A817" s="1">
         <v>41931</v>
       </c>
+      <c r="B817">
+        <v>505000000</v>
+      </c>
       <c r="C817">
         <v>2.1747302399999997</v>
       </c>
@@ -14226,6 +16675,9 @@
       <c r="A818" s="1">
         <v>41932</v>
       </c>
+      <c r="B818">
+        <v>505000000</v>
+      </c>
       <c r="C818">
         <v>3.1063529600000002</v>
       </c>
@@ -14240,6 +16692,9 @@
       <c r="A819" s="1">
         <v>41933</v>
       </c>
+      <c r="B819">
+        <v>505000000</v>
+      </c>
       <c r="C819">
         <v>2.1690668799999999</v>
       </c>
@@ -14254,6 +16709,9 @@
       <c r="A820" s="1">
         <v>41934</v>
       </c>
+      <c r="B820">
+        <v>505000000</v>
+      </c>
       <c r="C820">
         <v>2.0529679999999999</v>
       </c>
@@ -14268,6 +16726,9 @@
       <c r="A821" s="1">
         <v>41935</v>
       </c>
+      <c r="B821">
+        <v>505000000</v>
+      </c>
       <c r="C821">
         <v>2.5371852799999997</v>
       </c>
@@ -14282,6 +16743,9 @@
       <c r="A822" s="1">
         <v>41936</v>
       </c>
+      <c r="B822">
+        <v>505000000</v>
+      </c>
       <c r="C822">
         <v>2.5683337600000002</v>
       </c>
@@ -14296,6 +16760,9 @@
       <c r="A823" s="1">
         <v>41937</v>
       </c>
+      <c r="B823">
+        <v>505000000</v>
+      </c>
       <c r="C823">
         <v>2.4550665600000001</v>
       </c>
@@ -14310,6 +16777,9 @@
       <c r="A824" s="1">
         <v>41938</v>
       </c>
+      <c r="B824">
+        <v>505000000</v>
+      </c>
       <c r="C824">
         <v>2.6504524799999998</v>
       </c>
@@ -14324,6 +16794,9 @@
       <c r="A825" s="1">
         <v>41939</v>
       </c>
+      <c r="B825">
+        <v>505000000</v>
+      </c>
       <c r="C825">
         <v>2.1152649600000002</v>
       </c>
@@ -14338,6 +16811,9 @@
       <c r="A826" s="1">
         <v>41940</v>
       </c>
+      <c r="B826">
+        <v>505000000</v>
+      </c>
       <c r="C826">
         <v>2.2285321599999999</v>
       </c>
@@ -14352,6 +16828,9 @@
       <c r="A827" s="1">
         <v>41941</v>
       </c>
+      <c r="B827">
+        <v>505000000</v>
+      </c>
       <c r="C827">
         <v>3.1035212799999998</v>
       </c>
@@ -14366,6 +16845,9 @@
       <c r="A828" s="1">
         <v>41942</v>
       </c>
+      <c r="B828">
+        <v>505000000</v>
+      </c>
       <c r="C828">
         <v>2.3672844799999999</v>
       </c>
@@ -14383,6 +16865,9 @@
       <c r="A829" s="1">
         <v>41943</v>
       </c>
+      <c r="B829">
+        <v>505000000</v>
+      </c>
       <c r="C829">
         <v>2.1747302399999997</v>
       </c>
@@ -14397,6 +16882,9 @@
       <c r="A830" s="1">
         <v>41944</v>
       </c>
+      <c r="B830">
+        <v>505000000</v>
+      </c>
       <c r="C830">
         <v>1.62538432</v>
       </c>
@@ -14411,6 +16899,9 @@
       <c r="A831" s="1">
         <v>41945</v>
       </c>
+      <c r="B831">
+        <v>505000000</v>
+      </c>
       <c r="C831">
         <v>1.43283008</v>
       </c>
@@ -14425,6 +16916,9 @@
       <c r="A832" s="1">
         <v>41946</v>
       </c>
+      <c r="B832">
+        <v>505000000</v>
+      </c>
       <c r="C832">
         <v>2.73823456</v>
       </c>
@@ -14439,6 +16933,9 @@
       <c r="A833" s="1">
         <v>41947</v>
       </c>
+      <c r="B833">
+        <v>505000000</v>
+      </c>
       <c r="C833">
         <v>2.20304704</v>
       </c>
@@ -14453,6 +16950,9 @@
       <c r="A834" s="1">
         <v>41948</v>
       </c>
+      <c r="B834">
+        <v>505000000</v>
+      </c>
       <c r="C834">
         <v>2.6023139200000003</v>
       </c>
@@ -14467,6 +16967,9 @@
       <c r="A835" s="1">
         <v>41949</v>
       </c>
+      <c r="B835">
+        <v>505000000</v>
+      </c>
       <c r="C835">
         <v>2.7184127999999999</v>
       </c>
@@ -14481,6 +16984,9 @@
       <c r="A836" s="1">
         <v>41950</v>
       </c>
+      <c r="B836">
+        <v>505000000</v>
+      </c>
       <c r="C836">
         <v>1.70183968</v>
       </c>
@@ -14495,6 +17001,9 @@
       <c r="A837" s="1">
         <v>41951</v>
       </c>
+      <c r="B837">
+        <v>505000000</v>
+      </c>
       <c r="C837">
         <v>2.8939769599999998</v>
       </c>
@@ -14509,6 +17018,9 @@
       <c r="A838" s="1">
         <v>41952</v>
       </c>
+      <c r="B838">
+        <v>505000000</v>
+      </c>
       <c r="C838">
         <v>2.6391257600000002</v>
       </c>
@@ -14523,6 +17035,9 @@
       <c r="A839" s="1">
         <v>41953</v>
       </c>
+      <c r="B839">
+        <v>505000000</v>
+      </c>
       <c r="C839">
         <v>2.5258585600000001</v>
       </c>
@@ -14537,6 +17052,9 @@
       <c r="A840" s="1">
         <v>41954</v>
       </c>
+      <c r="B840">
+        <v>505000000</v>
+      </c>
       <c r="C840">
         <v>1.9878393599999999</v>
       </c>
@@ -14551,6 +17069,9 @@
       <c r="A841" s="1">
         <v>41955</v>
       </c>
+      <c r="B841">
+        <v>505000000</v>
+      </c>
       <c r="C841">
         <v>2.3276409600000001</v>
       </c>
@@ -14565,6 +17086,9 @@
       <c r="A842" s="1">
         <v>41956</v>
       </c>
+      <c r="B842">
+        <v>505000000</v>
+      </c>
       <c r="C842">
         <v>2.4097596799999996</v>
       </c>
@@ -14579,6 +17103,9 @@
       <c r="A843" s="1">
         <v>41957</v>
       </c>
+      <c r="B843">
+        <v>505000000</v>
+      </c>
       <c r="C843">
         <v>2.2936608000000001</v>
       </c>
@@ -14593,6 +17120,9 @@
       <c r="A844" s="1">
         <v>41958</v>
       </c>
+      <c r="B844">
+        <v>505000000</v>
+      </c>
       <c r="C844">
         <v>2.0642947199999999</v>
       </c>
@@ -14607,6 +17137,9 @@
       <c r="A845" s="1">
         <v>41959</v>
       </c>
+      <c r="B845">
+        <v>505000000</v>
+      </c>
       <c r="C845">
         <v>2.1237599999999999</v>
       </c>
@@ -14621,6 +17154,9 @@
       <c r="A846" s="1">
         <v>41960</v>
       </c>
+      <c r="B846">
+        <v>505000000</v>
+      </c>
       <c r="C846">
         <v>2.2058787200000003</v>
       </c>
@@ -14635,6 +17171,9 @@
       <c r="A847" s="1">
         <v>41961</v>
       </c>
+      <c r="B847">
+        <v>505000000</v>
+      </c>
       <c r="C847">
         <v>1.9481958399999999</v>
       </c>
@@ -14649,6 +17188,9 @@
       <c r="A848" s="1">
         <v>41962</v>
       </c>
+      <c r="B848">
+        <v>505000000</v>
+      </c>
       <c r="C848">
         <v>2.14358176</v>
       </c>
@@ -14663,6 +17205,9 @@
       <c r="A849" s="1">
         <v>41963</v>
       </c>
+      <c r="B849">
+        <v>505000000</v>
+      </c>
       <c r="C849">
         <v>2.1152649600000002</v>
       </c>
@@ -14677,6 +17222,9 @@
       <c r="A850" s="1">
         <v>41964</v>
       </c>
+      <c r="B850">
+        <v>505000000</v>
+      </c>
       <c r="C850">
         <v>1.8377603200000001</v>
       </c>
@@ -14691,6 +17239,9 @@
       <c r="A851" s="1">
         <v>41965</v>
       </c>
+      <c r="B851">
+        <v>505000000</v>
+      </c>
       <c r="C851">
         <v>2.3049875200000001</v>
       </c>
@@ -14705,6 +17256,9 @@
       <c r="A852" s="1">
         <v>41966</v>
       </c>
+      <c r="B852">
+        <v>505000000</v>
+      </c>
       <c r="C852">
         <v>3.1573232</v>
       </c>
@@ -14719,6 +17273,9 @@
       <c r="A853" s="1">
         <v>41967</v>
       </c>
+      <c r="B853">
+        <v>505000000</v>
+      </c>
       <c r="C853">
         <v>3.5480950399999998</v>
       </c>
@@ -14733,6 +17290,9 @@
       <c r="A854" s="1">
         <v>41968</v>
       </c>
+      <c r="B854">
+        <v>505000000</v>
+      </c>
       <c r="C854">
         <v>3.38952096</v>
       </c>
@@ -14747,6 +17307,9 @@
       <c r="A855" s="1">
         <v>41969</v>
       </c>
+      <c r="B855">
+        <v>505000000</v>
+      </c>
       <c r="C855">
         <v>2.5485120000000001</v>
       </c>
@@ -14761,6 +17324,9 @@
       <c r="A856" s="1">
         <v>41970</v>
       </c>
+      <c r="B856">
+        <v>505000000</v>
+      </c>
       <c r="C856">
         <v>2.33047264</v>
       </c>
@@ -14775,6 +17341,9 @@
       <c r="A857" s="1">
         <v>41971</v>
       </c>
+      <c r="B857">
+        <v>505000000</v>
+      </c>
       <c r="C857">
         <v>2.1011065599999998</v>
       </c>
@@ -14789,6 +17358,9 @@
       <c r="A858" s="1">
         <v>41972</v>
       </c>
+      <c r="B858">
+        <v>505000000</v>
+      </c>
       <c r="C858">
         <v>2.3021558399999997</v>
       </c>
@@ -14803,6 +17375,9 @@
       <c r="A859" s="1">
         <v>41973</v>
       </c>
+      <c r="B859">
+        <v>505000000</v>
+      </c>
       <c r="C859">
         <v>2.4210864000000001</v>
       </c>
@@ -14817,6 +17392,9 @@
       <c r="A860" s="1">
         <v>41974</v>
       </c>
+      <c r="B860">
+        <v>505000000</v>
+      </c>
       <c r="C860">
         <v>1.8858988799999998</v>
       </c>
@@ -14831,6 +17409,9 @@
       <c r="A861" s="1">
         <v>41975</v>
       </c>
+      <c r="B861">
+        <v>505000000</v>
+      </c>
       <c r="C861">
         <v>2.0019977600000001</v>
       </c>
@@ -14845,6 +17426,9 @@
       <c r="A862" s="1">
         <v>41976</v>
       </c>
+      <c r="B862">
+        <v>505000000</v>
+      </c>
       <c r="C862">
         <v>2.2851657599999999</v>
       </c>
@@ -14859,6 +17443,9 @@
       <c r="A863" s="1">
         <v>41977</v>
       </c>
+      <c r="B863">
+        <v>505000000</v>
+      </c>
       <c r="C863">
         <v>2.01615616</v>
       </c>
@@ -14873,6 +17460,9 @@
       <c r="A864" s="1">
         <v>41978</v>
       </c>
+      <c r="B864">
+        <v>505000000</v>
+      </c>
       <c r="C864">
         <v>2.0388096</v>
       </c>
@@ -14887,6 +17477,9 @@
       <c r="A865" s="1">
         <v>41979</v>
       </c>
+      <c r="B865">
+        <v>505000000</v>
+      </c>
       <c r="C865">
         <v>2.07278976</v>
       </c>
@@ -14901,6 +17494,9 @@
       <c r="A866" s="1">
         <v>41980</v>
       </c>
+      <c r="B866">
+        <v>505000000</v>
+      </c>
       <c r="C866">
         <v>1.8236019200000002</v>
       </c>
@@ -14915,6 +17511,9 @@
       <c r="A867" s="1">
         <v>41981</v>
       </c>
+      <c r="B867">
+        <v>505000000</v>
+      </c>
       <c r="C867">
         <v>2.2426905600000002</v>
       </c>
@@ -14929,6 +17528,9 @@
       <c r="A868" s="1">
         <v>41982</v>
       </c>
+      <c r="B868">
+        <v>505000000</v>
+      </c>
       <c r="C868">
         <v>2.1917203199999999</v>
       </c>
@@ -14943,6 +17545,9 @@
       <c r="A869" s="1">
         <v>41983</v>
       </c>
+      <c r="B869">
+        <v>505000000</v>
+      </c>
       <c r="C869">
         <v>2.0246512000000001</v>
       </c>
@@ -14957,6 +17562,9 @@
       <c r="A870" s="1">
         <v>41984</v>
       </c>
+      <c r="B870">
+        <v>505000000</v>
+      </c>
       <c r="C870">
         <v>1.9680176</v>
       </c>
@@ -14971,6 +17579,9 @@
       <c r="A871" s="1">
         <v>41985</v>
       </c>
+      <c r="B871">
+        <v>505000000</v>
+      </c>
       <c r="C871">
         <v>1.90572064</v>
       </c>
@@ -14985,6 +17596,9 @@
       <c r="A872" s="1">
         <v>41986</v>
       </c>
+      <c r="B872">
+        <v>505000000</v>
+      </c>
       <c r="C872">
         <v>2.1379183999999998</v>
       </c>
@@ -14999,6 +17613,9 @@
       <c r="A873" s="1">
         <v>41987</v>
       </c>
+      <c r="B873">
+        <v>505000000</v>
+      </c>
       <c r="C873">
         <v>2.2993241599999998</v>
       </c>
@@ -15013,6 +17630,9 @@
       <c r="A874" s="1">
         <v>41988</v>
       </c>
+      <c r="B874">
+        <v>505000000</v>
+      </c>
       <c r="C874">
         <v>2.7099177600000002</v>
       </c>
@@ -15027,6 +17647,9 @@
       <c r="A875" s="1">
         <v>41989</v>
       </c>
+      <c r="B875">
+        <v>505000000</v>
+      </c>
       <c r="C875">
         <v>3.3300556799999996</v>
       </c>
@@ -15041,6 +17664,9 @@
       <c r="A876" s="1">
         <v>41990</v>
       </c>
+      <c r="B876">
+        <v>505000000</v>
+      </c>
       <c r="C876">
         <v>3.1006895999999999</v>
       </c>
@@ -15055,6 +17681,9 @@
       <c r="A877" s="1">
         <v>41991</v>
       </c>
+      <c r="B877">
+        <v>505000000</v>
+      </c>
       <c r="C877">
         <v>2.4607299200000003</v>
       </c>
@@ -15069,6 +17698,9 @@
       <c r="A878" s="1">
         <v>41992</v>
       </c>
+      <c r="B878">
+        <v>505000000</v>
+      </c>
       <c r="C878">
         <v>2.2228688000000001</v>
       </c>
@@ -15083,6 +17715,9 @@
       <c r="A879" s="1">
         <v>41993</v>
       </c>
+      <c r="B879">
+        <v>505000000</v>
+      </c>
       <c r="C879">
         <v>2.02748288</v>
       </c>
@@ -15097,6 +17732,9 @@
       <c r="A880" s="1">
         <v>41994</v>
       </c>
+      <c r="B880">
+        <v>505000000</v>
+      </c>
       <c r="C880">
         <v>1.8547503999999999</v>
       </c>
@@ -15111,6 +17749,9 @@
       <c r="A881" s="1">
         <v>41995</v>
       </c>
+      <c r="B881">
+        <v>505000000</v>
+      </c>
       <c r="C881">
         <v>2.2964924799999999</v>
       </c>
@@ -15125,6 +17766,9 @@
       <c r="A882" s="1">
         <v>41996</v>
       </c>
+      <c r="B882">
+        <v>505000000</v>
+      </c>
       <c r="C882">
         <v>2.9534422399999998</v>
       </c>
@@ -15139,6 +17783,9 @@
       <c r="A883" s="1">
         <v>41997</v>
       </c>
+      <c r="B883">
+        <v>505000000</v>
+      </c>
       <c r="C883">
         <v>3.4688080000000001</v>
       </c>
@@ -15153,6 +17800,9 @@
       <c r="A884" s="1">
         <v>41998</v>
       </c>
+      <c r="B884">
+        <v>505000000</v>
+      </c>
       <c r="C884">
         <v>2.71558112</v>
       </c>
@@ -15167,6 +17817,9 @@
       <c r="A885" s="1">
         <v>41999</v>
       </c>
+      <c r="B885">
+        <v>505000000</v>
+      </c>
       <c r="C885">
         <v>2.7778780799999998</v>
       </c>
@@ -15181,6 +17834,9 @@
       <c r="A886" s="1">
         <v>42000</v>
       </c>
+      <c r="B886">
+        <v>505000000</v>
+      </c>
       <c r="C886">
         <v>2.15490848</v>
       </c>
@@ -15195,6 +17851,9 @@
       <c r="A887" s="1">
         <v>42001</v>
       </c>
+      <c r="B887">
+        <v>505000000</v>
+      </c>
       <c r="C887">
         <v>2.5655020799999999</v>
       </c>
@@ -15209,6 +17868,9 @@
       <c r="A888" s="1">
         <v>42002</v>
       </c>
+      <c r="B888">
+        <v>505000000</v>
+      </c>
       <c r="C888">
         <v>1.5291071999999999</v>
       </c>
@@ -15223,6 +17885,9 @@
       <c r="A889" s="1">
         <v>42003</v>
       </c>
+      <c r="B889">
+        <v>505000000</v>
+      </c>
       <c r="C889">
         <v>1.5007904000000001</v>
       </c>
@@ -15236,6 +17901,9 @@
     <row r="890" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>42004</v>
+      </c>
+      <c r="B890">
+        <v>505000000</v>
       </c>
       <c r="C890">
         <v>1.6140576</v>
